--- a/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>0.001089305340798557</v>
+        <v>0.001086886039829613</v>
       </c>
       <c r="F2">
         <v>0.5251562184942828</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.03465209557069054</v>
+        <v>0.03227880228351791</v>
       </c>
       <c r="F3">
         <v>0.5003626710158801</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>96</v>
       </c>
       <c r="E5">
-        <v>0.004134896299509592</v>
+        <v>0.0006534875571948642</v>
       </c>
       <c r="F5">
         <v>0.5008729950256499</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.0007257536851908631</v>
+        <v>0.05006205891674615</v>
       </c>
       <c r="F6">
         <v>0.5127845394605909</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.001089305340798557</v>
+        <v>0.001086886039829613</v>
       </c>
       <c r="F2">
         <v>0.7020896945429829</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.03465209557069054</v>
+        <v>0.03227880228351791</v>
       </c>
       <c r="F3">
         <v>0.7038970982658008</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.004134896299509592</v>
+        <v>0.0006534875571948642</v>
       </c>
       <c r="F5">
         <v>0.7021598369596985</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>113</v>
       </c>
       <c r="E6">
-        <v>0.0007257536851908631</v>
+        <v>0.05006205891674615</v>
       </c>
       <c r="F6">
         <v>0.7019976592219508</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>133</v>
       </c>
       <c r="E2">
-        <v>0.001089305340798557</v>
+        <v>0.001086886039829613</v>
       </c>
       <c r="F2">
         <v>0.8014648324373016</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.03465209557069054</v>
+        <v>0.03227880228351791</v>
       </c>
       <c r="F3">
         <v>0.8027707580749005</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.004134896299509592</v>
+        <v>0.0006534875571948642</v>
       </c>
       <c r="F5">
         <v>0.8118821092219968</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.0007257536851908631</v>
+        <v>0.05006205891674615</v>
       </c>
       <c r="F6">
         <v>0.8009940030983917</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.001089305340798557</v>
+        <v>0.001086886039829613</v>
       </c>
       <c r="F2">
         <v>0.9031453493518261</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>0.03465209557069054</v>
+        <v>0.03227880228351791</v>
       </c>
       <c r="F3">
         <v>0.9090196436696377</v>
       </c>
       <c r="G3">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.004134896299509592</v>
+        <v>0.0006534875571948642</v>
       </c>
       <c r="F5">
         <v>0.900129258478362</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>167</v>
       </c>
       <c r="E6">
-        <v>0.0007257536851908631</v>
+        <v>0.05006205891674615</v>
       </c>
       <c r="F6">
         <v>0.900466217704428</v>
       </c>
       <c r="G6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H6">
         <v>43</v>

--- a/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.112188985722799E-05</v>
+        <v>6.511045849146912E-06</v>
       </c>
       <c r="C2">
-        <v>1.579786779720233E-05</v>
+        <v>1.119104530615647E-05</v>
       </c>
       <c r="D2">
-        <v>2.282154970703912E-05</v>
+        <v>1.822076784681166E-05</v>
       </c>
       <c r="E2">
-        <v>3.204855958859174E-05</v>
+        <v>2.745571330417305E-05</v>
       </c>
       <c r="F2">
-        <v>9.480660878296491E-06</v>
+        <v>4.868405351516612E-06</v>
       </c>
       <c r="G2">
-        <v>2.935200162320753E-08</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.508534242123819E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.682841478397317E-07</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.484062878252818E-07</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.413111917674702E-06</v>
+        <v>1.798218183324158E-06</v>
       </c>
       <c r="L2">
-        <v>6.179640920671775E-06</v>
+        <v>1.564546392475809E-06</v>
       </c>
       <c r="M2">
-        <v>9.484062878252818E-07</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.616438940738644E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.446279955760007E-05</v>
+        <v>2.987202961042828E-05</v>
       </c>
       <c r="P2">
-        <v>2.884087962976882E-05</v>
+        <v>2.424527461984638E-05</v>
       </c>
       <c r="Q2">
-        <v>1.006231887082973E-05</v>
+        <v>5.450563591817414E-06</v>
       </c>
       <c r="R2">
-        <v>3.152396659532596E-05</v>
+        <v>2.693066914118703E-05</v>
       </c>
       <c r="S2">
-        <v>8.504422890828486E-06</v>
+        <v>3.891327762633154E-06</v>
       </c>
       <c r="T2">
-        <v>3.418613756115159E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2.071010373414382E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.833670563624091E-06</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.102349185849112E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>8.204559894677834E-06</v>
+        <v>3.591206873018776E-06</v>
       </c>
       <c r="Y2">
-        <v>2.52779846755058E-05</v>
+        <v>2.067931544181303E-05</v>
       </c>
       <c r="Z2">
-        <v>4.276830945098201E-05</v>
+        <v>3.81846825549433E-05</v>
       </c>
       <c r="AA2">
-        <v>0.0001377992982310665</v>
+        <v>0.0001332974015624067</v>
       </c>
       <c r="AB2">
-        <v>5.77321472588908E-05</v>
+        <v>5.316138982661544E-05</v>
       </c>
       <c r="AC2">
-        <v>6.998680910157737E-05</v>
+        <v>6.542659113976014E-05</v>
       </c>
       <c r="AD2">
-        <v>0.0001716000077971659</v>
+        <v>0.0001671271810110135</v>
       </c>
       <c r="AE2">
-        <v>0.0001299941183312619</v>
+        <v>0.0001254855089140962</v>
       </c>
       <c r="AF2">
-        <v>1.966515974755779E-05</v>
+        <v>1.506166327315661E-05</v>
       </c>
       <c r="AG2">
-        <v>1.085508836065293E-05</v>
+        <v>6.244014893242215E-06</v>
       </c>
       <c r="AH2">
-        <v>3.261424758132999E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.833670563624091E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.081374386118367E-05</v>
+        <v>6.202634835947178E-06</v>
       </c>
       <c r="AK2">
-        <v>6.650911414622063E-06</v>
+        <v>2.036222196789821E-06</v>
       </c>
       <c r="AL2">
-        <v>1.81185787674113E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.135351572588432E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.61490232792134E-06</v>
+        <v>9.993221032784826E-07</v>
       </c>
       <c r="AO2">
-        <v>1.683127778393641E-05</v>
+        <v>1.222534406437737E-05</v>
       </c>
       <c r="AP2">
-        <v>1.479719781004796E-05</v>
+        <v>1.018951470514728E-05</v>
       </c>
       <c r="AQ2">
-        <v>2.748306864719907E-05</v>
+        <v>2.288629586872274E-05</v>
       </c>
       <c r="AR2">
-        <v>3.297701557667313E-05</v>
+        <v>2.838496779935187E-05</v>
       </c>
       <c r="AS2">
-        <v>2.521486967631601E-05</v>
+        <v>2.061614616134824E-05</v>
       </c>
       <c r="AT2">
-        <v>2.161552372252091E-05</v>
+        <v>1.701370463455117E-05</v>
       </c>
       <c r="AU2">
-        <v>1.167155985017186E-05</v>
+        <v>7.06118857897465E-06</v>
       </c>
       <c r="AV2">
-        <v>4.436971543042472E-07</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>2.419300968943366E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0008016221897095534</v>
+        <v>0.0007976912057142888</v>
       </c>
       <c r="AY2">
-        <v>0.06090753921812821</v>
+        <v>0.06095530158520305</v>
       </c>
       <c r="AZ2">
-        <v>0.02836518163587537</v>
+        <v>0.02838495635051404</v>
       </c>
       <c r="BA2">
-        <v>0.006621637314997856</v>
+        <v>0.006622711763079479</v>
       </c>
       <c r="BB2">
-        <v>0.0002278247670754071</v>
+        <v>0.0002234002956985703</v>
       </c>
       <c r="BC2">
-        <v>0.02553267567223633</v>
+        <v>0.02555001432512891</v>
       </c>
       <c r="BD2">
-        <v>0.001037439686682358</v>
+        <v>0.001033711514610813</v>
       </c>
       <c r="BE2">
-        <v>0.003217998658690461</v>
+        <v>0.003216145849412496</v>
       </c>
       <c r="BF2">
-        <v>0.00165407987876653</v>
+        <v>0.001650882040470914</v>
       </c>
       <c r="BG2">
-        <v>0.04635816940489888</v>
+        <v>0.04639341876628663</v>
       </c>
       <c r="BH2">
-        <v>0.01764184377353116</v>
+        <v>0.01765239601397483</v>
       </c>
       <c r="BI2">
-        <v>0.001545241180163696</v>
+        <v>0.001541949736490522</v>
       </c>
       <c r="BJ2">
-        <v>0.0008045623396718106</v>
+        <v>0.0008006338843161827</v>
       </c>
       <c r="BK2">
-        <v>0.0002288793270618697</v>
+        <v>0.0002244557626463156</v>
       </c>
       <c r="BL2">
-        <v>5.347620731352443E-05</v>
+        <v>4.890178961269971E-05</v>
       </c>
       <c r="BM2">
-        <v>8.083345896233861E-09</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01950711974958656</v>
+        <v>0.01951927619757983</v>
       </c>
       <c r="BO2">
-        <v>0.01192348984693783</v>
+        <v>0.01192912408776208</v>
       </c>
       <c r="BP2">
-        <v>0.006718527413754075</v>
+        <v>0.006719685190967634</v>
       </c>
       <c r="BQ2">
-        <v>0.000978365387440696</v>
+        <v>0.0009745864092482086</v>
       </c>
       <c r="BR2">
-        <v>0.00296387216195269</v>
+        <v>0.002961800794322044</v>
       </c>
       <c r="BS2">
-        <v>0.0006263366619596988</v>
+        <v>0.0006222549258127084</v>
       </c>
       <c r="BT2">
-        <v>0.00187333157595199</v>
+        <v>0.001870322302368729</v>
       </c>
       <c r="BU2">
-        <v>0.003866642950363795</v>
+        <v>0.003865347999592061</v>
       </c>
       <c r="BV2">
-        <v>0.004460663442738338</v>
+        <v>0.004459879371949362</v>
       </c>
       <c r="BW2">
-        <v>0.0004270464645179925</v>
+        <v>0.0004227933312997901</v>
       </c>
       <c r="BX2">
-        <v>0.01723941177869719</v>
+        <v>0.0172496179124775</v>
       </c>
       <c r="BY2">
-        <v>0.01194244784669446</v>
+        <v>0.0119480983921121</v>
       </c>
       <c r="BZ2">
-        <v>0.004965870936252975</v>
+        <v>0.004965521362924758</v>
       </c>
       <c r="CA2">
-        <v>0.007604871302376054</v>
+        <v>0.007606791368696387</v>
       </c>
       <c r="CB2">
-        <v>0.001999695974329847</v>
+        <v>0.001996795378885629</v>
       </c>
       <c r="CC2">
-        <v>0.0001884495075808684</v>
+        <v>0.0001839911719987561</v>
       </c>
       <c r="CD2">
-        <v>0.0006644734414701358</v>
+        <v>0.0006604245043890176</v>
       </c>
       <c r="CE2">
-        <v>0.0003880793950182139</v>
+        <v>0.000383792748653496</v>
       </c>
       <c r="CF2">
-        <v>0.002725148765017189</v>
+        <v>0.002722872086279475</v>
       </c>
       <c r="CG2">
-        <v>0.0108926538601707</v>
+        <v>0.010897401543245</v>
       </c>
       <c r="CH2">
-        <v>0.005630185327725153</v>
+        <v>0.005630407089778826</v>
       </c>
       <c r="CI2">
-        <v>0.01851610976230818</v>
+        <v>0.01852741390441014</v>
       </c>
       <c r="CJ2">
-        <v>0.001532046880333071</v>
+        <v>0.001528744089065401</v>
       </c>
       <c r="CK2">
-        <v>0.0009132733882762838</v>
+        <v>0.0009094384285144101</v>
       </c>
       <c r="CL2">
-        <v>0.005453556929992537</v>
+        <v>0.005453626784975753</v>
       </c>
       <c r="CM2">
-        <v>7.049039509511282E-06</v>
+        <v>2.434692696826444E-06</v>
       </c>
       <c r="CN2">
-        <v>0.01474102381076906</v>
+        <v>0.01474908123685602</v>
       </c>
       <c r="CO2">
-        <v>0.0130579058323753</v>
+        <v>0.01306451571364718</v>
       </c>
       <c r="CP2">
-        <v>0.03932487149518551</v>
+        <v>0.03935407195563303</v>
       </c>
       <c r="CQ2">
-        <v>0.04561490541444017</v>
+        <v>0.0456495155408192</v>
       </c>
       <c r="CR2">
-        <v>0.01783392577106539</v>
+        <v>0.01784464320925704</v>
       </c>
       <c r="CS2">
-        <v>0.0043932753436034</v>
+        <v>0.004392433316512637</v>
       </c>
       <c r="CT2">
-        <v>0.01178419384872597</v>
+        <v>0.01178970828974857</v>
       </c>
       <c r="CU2">
-        <v>0.03830991250821458</v>
+        <v>0.03833824006572958</v>
       </c>
       <c r="CV2">
-        <v>0.03636380953319676</v>
+        <v>0.03639046336890067</v>
       </c>
       <c r="CW2">
-        <v>0.02762955364531864</v>
+        <v>0.02764869569219592</v>
       </c>
       <c r="CX2">
-        <v>0.008966368884898471</v>
+        <v>0.008969459890387424</v>
       </c>
       <c r="CY2">
-        <v>0.001664066478638332</v>
+        <v>0.001660877229194508</v>
       </c>
       <c r="CZ2">
-        <v>0.00147611578105106</v>
+        <v>0.001472764886932725</v>
       </c>
       <c r="DA2">
-        <v>0.0003648559153163344</v>
+        <v>0.000360549295884926</v>
       </c>
       <c r="DB2">
-        <v>0.0007738495900660712</v>
+        <v>0.0007698947205897345</v>
       </c>
       <c r="DC2">
-        <v>0.005938813923763279</v>
+        <v>0.005939301118026526</v>
       </c>
       <c r="DD2">
-        <v>0.01660398178685422</v>
+        <v>0.01661364142692355</v>
       </c>
       <c r="DE2">
-        <v>0.01347587332700984</v>
+        <v>0.01348284267605968</v>
       </c>
       <c r="DF2">
-        <v>0.01015645986962124</v>
+        <v>0.01016057439815285</v>
       </c>
       <c r="DG2">
-        <v>0.009886338873088788</v>
+        <v>0.009890221087395852</v>
       </c>
       <c r="DH2">
-        <v>0.002470850168281627</v>
+        <v>0.002468354783178757</v>
       </c>
       <c r="DI2">
-        <v>0.0001512181980588077</v>
+        <v>0.0001467278421490958</v>
       </c>
       <c r="DJ2">
-        <v>0.004025916548319197</v>
+        <v>0.004024758578836865</v>
       </c>
       <c r="DK2">
-        <v>0.01017179486942438</v>
+        <v>0.01017592258663304</v>
       </c>
       <c r="DL2">
-        <v>0.001822335276606631</v>
+        <v>0.001819282144286399</v>
       </c>
       <c r="DM2">
-        <v>0.001169517384986873</v>
+        <v>0.00116590280470736</v>
       </c>
       <c r="DN2">
-        <v>0.002751929964673398</v>
+        <v>0.00274967631877545</v>
       </c>
       <c r="DO2">
-        <v>0.004292926244891585</v>
+        <v>0.004291997913798724</v>
       </c>
       <c r="DP2">
-        <v>0.01677689978463447</v>
+        <v>0.01678670814069063</v>
       </c>
       <c r="DQ2">
-        <v>0.006017122922758024</v>
+        <v>0.006017677465708009</v>
       </c>
       <c r="DR2">
-        <v>0.001747646777565409</v>
+        <v>0.001744529410324679</v>
       </c>
       <c r="DS2">
-        <v>8.891698885857012E-05</v>
+        <v>8.437305156388813E-05</v>
       </c>
       <c r="DT2">
-        <v>0.01140214985363028</v>
+        <v>0.01140733572243672</v>
       </c>
       <c r="DU2">
-        <v>0.01441522581495134</v>
+        <v>0.01442300304249865</v>
       </c>
       <c r="DV2">
-        <v>0.01089377286015633</v>
+        <v>0.01089852150561274</v>
       </c>
       <c r="DW2">
-        <v>0.02318602970236028</v>
+        <v>0.0232013501513895</v>
       </c>
       <c r="DX2">
-        <v>0.009339025880114663</v>
+        <v>0.009342437384646553</v>
       </c>
       <c r="DY2">
-        <v>0.001361753582519131</v>
+        <v>0.001358304332605391</v>
       </c>
       <c r="DZ2">
-        <v>0.0002703741765291991</v>
+        <v>0.00026598629924608</v>
       </c>
       <c r="EA2">
-        <v>0.005397015230718364</v>
+        <v>0.005397036457711939</v>
       </c>
       <c r="EB2">
-        <v>0.003061595760698209</v>
+        <v>0.003059608439040864</v>
       </c>
       <c r="EC2">
-        <v>0.00478805993853554</v>
+        <v>0.004787557441056365</v>
       </c>
       <c r="ED2">
-        <v>0.007406448404923213</v>
+        <v>0.00740819782008297</v>
       </c>
       <c r="EE2">
-        <v>0.004642704440401472</v>
+        <v>0.004642076931722627</v>
       </c>
       <c r="EF2">
-        <v>0.002201720571736451</v>
+        <v>0.00219899372505034</v>
       </c>
       <c r="EG2">
-        <v>0.001818365376657593</v>
+        <v>0.001815308830073976</v>
       </c>
       <c r="EH2">
-        <v>6.921054911154223E-05</v>
+        <v>6.464966353691463E-05</v>
       </c>
       <c r="EI2">
-        <v>2.311972970321138E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>8.652049888933393E-05</v>
+        <v>8.197450052307296E-05</v>
       </c>
       <c r="EK2">
-        <v>0.001650297678815082</v>
+        <v>0.001647096587685144</v>
       </c>
       <c r="EL2">
-        <v>0.001177853184879866</v>
+        <v>0.001174245773702026</v>
       </c>
       <c r="EM2">
-        <v>0.001143774585317333</v>
+        <v>0.001140137865261129</v>
       </c>
       <c r="EN2">
-        <v>0.003883236950150778</v>
+        <v>0.003881956270843469</v>
       </c>
       <c r="EO2">
-        <v>0.002310501970340021</v>
+        <v>0.002307868679751311</v>
       </c>
       <c r="EP2">
-        <v>0.001899052975621803</v>
+        <v>0.001896065823410429</v>
       </c>
       <c r="EQ2">
-        <v>0.002560687267128386</v>
+        <v>0.00255826914531205</v>
       </c>
       <c r="ER2">
-        <v>0.0005328869931593147</v>
+        <v>0.00052872488677965</v>
       </c>
       <c r="ES2">
-        <v>1.017585486937226E-06</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0003728977152131015</v>
+        <v>0.000368598012032303</v>
       </c>
       <c r="EU2">
-        <v>0.00306674646063209</v>
+        <v>0.003064763568770563</v>
       </c>
       <c r="EV2">
-        <v>0.008054657896602129</v>
+        <v>0.008056964796323755</v>
       </c>
       <c r="EW2">
-        <v>0.007422472904717506</v>
+        <v>0.007424236101550259</v>
       </c>
       <c r="EX2">
-        <v>0.009675926875789855</v>
+        <v>0.009679628127859198</v>
       </c>
       <c r="EY2">
-        <v>0.005391889630784161</v>
+        <v>0.005391906449568861</v>
       </c>
       <c r="EZ2">
-        <v>0.0006911190911280847</v>
+        <v>0.0006870930703086318</v>
       </c>
       <c r="FA2">
-        <v>0.0007273318406632207</v>
+        <v>0.0007233369641714394</v>
       </c>
       <c r="FB2">
-        <v>0.002598493766643063</v>
+        <v>0.002596108159839372</v>
       </c>
       <c r="FC2">
-        <v>0.00788119489882888</v>
+        <v>0.007883352613843162</v>
       </c>
       <c r="FD2">
-        <v>0.01134756885433094</v>
+        <v>0.01135270778142351</v>
       </c>
       <c r="FE2">
-        <v>0.004637094940473482</v>
+        <v>0.004636462607413554</v>
       </c>
       <c r="FF2">
-        <v>0.003532060654658838</v>
+        <v>0.003530477950518903</v>
       </c>
       <c r="FG2">
-        <v>0.001476526981045782</v>
+        <v>0.00147317644057492</v>
       </c>
       <c r="FH2">
-        <v>0.0004066260547801299</v>
+        <v>0.0004023553592409155</v>
       </c>
       <c r="FI2">
-        <v>0.000102800738680344</v>
+        <v>9.82687419331021E-05</v>
       </c>
       <c r="FJ2">
-        <v>5.07841293480827E-07</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.00247957626816961</v>
+        <v>0.002477088387841099</v>
       </c>
       <c r="FL2">
-        <v>0.007834880899423413</v>
+        <v>0.007836998782654918</v>
       </c>
       <c r="FM2">
-        <v>0.008664972888767499</v>
+        <v>0.00866780468235504</v>
       </c>
       <c r="FN2">
-        <v>0.009568680877166575</v>
+        <v>0.009572289893640293</v>
       </c>
       <c r="FO2">
-        <v>0.003024383161175908</v>
+        <v>0.003022363835282268</v>
       </c>
       <c r="FP2">
-        <v>0.0007270433606669239</v>
+        <v>0.0007230482360714872</v>
       </c>
       <c r="FQ2">
-        <v>6.585776915458197E-05</v>
+        <v>6.129400006299059E-05</v>
       </c>
       <c r="FR2">
-        <v>0.001207577284498296</v>
+        <v>0.001203995437164963</v>
       </c>
       <c r="FS2">
-        <v>0.001787214077057483</v>
+        <v>0.001784130739183654</v>
       </c>
       <c r="FT2">
-        <v>0.005662452927310932</v>
+        <v>0.005662702440714824</v>
       </c>
       <c r="FU2">
-        <v>0.006740395913473348</v>
+        <v>0.006741572498419811</v>
       </c>
       <c r="FV2">
-        <v>0.00666991841437807</v>
+        <v>0.006671034386022492</v>
       </c>
       <c r="FW2">
-        <v>0.00601795292274737</v>
+        <v>0.006018508179528586</v>
       </c>
       <c r="FX2">
-        <v>0.001355751182596184</v>
+        <v>0.001352296770392576</v>
       </c>
       <c r="FY2">
-        <v>0.001064588086333853</v>
+        <v>0.001060883262907892</v>
       </c>
       <c r="FZ2">
-        <v>0.003451702955690392</v>
+        <v>0.003450051140904628</v>
       </c>
       <c r="GA2">
-        <v>0.004852662237706239</v>
+        <v>0.004852215300636024</v>
       </c>
       <c r="GB2">
-        <v>0.006642475614730354</v>
+        <v>0.006643567984534114</v>
       </c>
       <c r="GC2">
-        <v>0.00535948423120015</v>
+        <v>0.005359473180121448</v>
       </c>
       <c r="GD2">
-        <v>0.003251073158265882</v>
+        <v>0.003249248794302498</v>
       </c>
       <c r="GE2">
-        <v>0.001562240979945469</v>
+        <v>0.001558964156739991</v>
       </c>
       <c r="GF2">
-        <v>0.0002661830465830007</v>
+        <v>0.000261791564770371</v>
       </c>
       <c r="GG2">
-        <v>0.001899052975621803</v>
+        <v>0.001896065823410429</v>
       </c>
       <c r="GH2">
-        <v>0.002594937566688714</v>
+        <v>0.002592548901419204</v>
       </c>
       <c r="GI2">
-        <v>0.005305906931887924</v>
+        <v>0.005305849802315129</v>
       </c>
       <c r="GJ2">
-        <v>0.002882126663002059</v>
+        <v>0.002879984991165362</v>
       </c>
       <c r="GK2">
-        <v>0.0008385650492353169</v>
+        <v>0.0008346658374897976</v>
       </c>
       <c r="GL2">
-        <v>0.0001979744574585963</v>
+        <v>0.0001935243136919041</v>
       </c>
       <c r="GM2">
-        <v>5.158261433783253E-06</v>
+        <v>5.422884807831768E-07</v>
       </c>
       <c r="GN2">
-        <v>9.952528872239107E-05</v>
+        <v>9.499047496489525E-05</v>
       </c>
       <c r="GO2">
-        <v>0.0007898110898611728</v>
+        <v>0.0007858699478754612</v>
       </c>
       <c r="GP2">
-        <v>0.0007970184897686512</v>
+        <v>0.0007930835464181513</v>
       </c>
       <c r="GQ2">
-        <v>0.002019028174081679</v>
+        <v>0.002016144205056924</v>
       </c>
       <c r="GR2">
-        <v>0.00134595328272196</v>
+        <v>0.001342490443955661</v>
       </c>
       <c r="GS2">
-        <v>0.0001369813282415668</v>
+        <v>0.0001324787280879271</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.00346149457641E-05</v>
+        <v>7.714169263213267E-06</v>
       </c>
       <c r="C3">
-        <v>1.418528492333022E-05</v>
+        <v>1.186668237186716E-05</v>
       </c>
       <c r="D3">
-        <v>1.069287494220628E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.65043548026983E-06</v>
+        <v>1.32715486270697E-06</v>
       </c>
       <c r="F3">
-        <v>1.621554991235688E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.094350288680286E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.243578582468843E-05</v>
+        <v>3.012528752284304E-05</v>
       </c>
       <c r="I3">
-        <v>6.789919563301291E-06</v>
+        <v>4.468033053375098E-06</v>
       </c>
       <c r="J3">
-        <v>1.635630991159609E-05</v>
+        <v>1.403867141742254E-05</v>
       </c>
       <c r="K3">
-        <v>3.65043548026983E-06</v>
+        <v>1.32715486270697E-06</v>
       </c>
       <c r="L3">
-        <v>7.365668360189437E-06</v>
+        <v>5.044037515134705E-06</v>
       </c>
       <c r="M3">
-        <v>1.367096292611007E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.207618488068084E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.883911984412798E-06</v>
+        <v>5.602909872745068E-07</v>
       </c>
       <c r="P3">
-        <v>4.631009674969943E-06</v>
+        <v>2.308164487540505E-06</v>
       </c>
       <c r="Q3">
-        <v>2.323869687439761E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.914446268033121E-06</v>
+        <v>3.592170998688389E-06</v>
       </c>
       <c r="S3">
-        <v>3.687289580070638E-07</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4.798713974063521E-06</v>
+        <v>2.475943256782007E-06</v>
       </c>
       <c r="U3">
-        <v>4.171212677455091E-07</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.290642693024229E-05</v>
+        <v>1.058725649385062E-05</v>
       </c>
       <c r="W3">
-        <v>3.093700383278917E-05</v>
+        <v>2.862583998738141E-05</v>
       </c>
       <c r="X3">
-        <v>5.556837569965953E-05</v>
+        <v>5.326814956972126E-05</v>
       </c>
       <c r="Y3">
-        <v>8.736145952782168E-05</v>
+        <v>8.507535131655596E-05</v>
       </c>
       <c r="Z3">
-        <v>5.982102367667447E-05</v>
+        <v>5.752268596179549E-05</v>
       </c>
       <c r="AA3">
-        <v>1.097309444069173E-05</v>
+        <v>8.653065495858347E-06</v>
       </c>
       <c r="AB3">
-        <v>9.196545950293762E-06</v>
+        <v>6.87572811793878E-06</v>
       </c>
       <c r="AC3">
-        <v>3.921276378805967E-06</v>
+        <v>1.598116029846159E-06</v>
       </c>
       <c r="AD3">
-        <v>2.094350288680286E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.726724790667258E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.791212952484539E-06</v>
+        <v>6.470215129464627E-06</v>
       </c>
       <c r="AG3">
-        <v>3.504356281059371E-06</v>
+        <v>1.18101079611009E-06</v>
       </c>
       <c r="AH3">
-        <v>5.919393968006379E-05</v>
+        <v>5.68953235045953E-05</v>
       </c>
       <c r="AI3">
-        <v>3.410633481565931E-05</v>
+        <v>3.179657833159166E-05</v>
       </c>
       <c r="AJ3">
-        <v>4.926449973373123E-06</v>
+        <v>2.603735978064839E-06</v>
       </c>
       <c r="AK3">
-        <v>3.287716382230283E-05</v>
+        <v>3.056686151713106E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0001200566993511078</v>
+        <v>0.0001177851096665537</v>
       </c>
       <c r="AM3">
-        <v>3.243578582468843E-05</v>
+        <v>3.012528752284304E-05</v>
       </c>
       <c r="AN3">
-        <v>2.357379987258641E-05</v>
+        <v>2.125936635018722E-05</v>
       </c>
       <c r="AO3">
-        <v>5.118821472333377E-07</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.359349487247996E-05</v>
+        <v>2.127907009576925E-05</v>
       </c>
       <c r="AQ3">
-        <v>2.883911984412798E-06</v>
+        <v>5.602909872745068E-07</v>
       </c>
       <c r="AR3">
-        <v>4.096042977861374E-05</v>
+        <v>3.865371689848788E-05</v>
       </c>
       <c r="AS3">
-        <v>6.131548966859706E-07</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.727226085259667E-08</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.879142979033693E-05</v>
+        <v>3.648375375213553E-05</v>
       </c>
       <c r="AV3">
-        <v>3.290041382217717E-05</v>
+        <v>3.059012184131394E-05</v>
       </c>
       <c r="AW3">
-        <v>1.878758389845534E-07</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001556904391585117</v>
+        <v>0.001555270843147943</v>
       </c>
       <c r="AY3">
-        <v>0.02986328983859247</v>
+        <v>0.02987422591850009</v>
       </c>
       <c r="AZ3">
-        <v>0.002373293287172631</v>
+        <v>0.002372022261355012</v>
       </c>
       <c r="BA3">
-        <v>0.0002052491488906527</v>
+        <v>0.0002030153894486953</v>
       </c>
       <c r="BB3">
-        <v>0.02253005787822771</v>
+        <v>0.02253773759039878</v>
       </c>
       <c r="BC3">
-        <v>0.03353261981876017</v>
+        <v>0.03354518528770481</v>
       </c>
       <c r="BD3">
-        <v>0.002633289985767381</v>
+        <v>0.00263213441311768</v>
       </c>
       <c r="BE3">
-        <v>7.871522957455353E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007589043958982119</v>
+        <v>0.007590089020027884</v>
       </c>
       <c r="BG3">
-        <v>0.04341325976535649</v>
+        <v>0.04343021279456275</v>
       </c>
       <c r="BH3">
-        <v>0.004117270477746642</v>
+        <v>0.004116773875960249</v>
       </c>
       <c r="BI3">
-        <v>0.01050324794323119</v>
+        <v>0.01050558707487002</v>
       </c>
       <c r="BJ3">
-        <v>0.0004321210376644371</v>
+        <v>0.0004299880221104305</v>
       </c>
       <c r="BK3">
-        <v>0.001658313091037015</v>
+        <v>0.00165672457377012</v>
       </c>
       <c r="BL3">
-        <v>4.474861275813907E-06</v>
+        <v>2.151946749706533E-06</v>
       </c>
       <c r="BM3">
-        <v>0.001559190891572759</v>
+        <v>0.001557558358470274</v>
       </c>
       <c r="BN3">
-        <v>0.01407898292390477</v>
+        <v>0.01408290988313291</v>
       </c>
       <c r="BO3">
-        <v>0.006573789764469448</v>
+        <v>0.006574383995509935</v>
       </c>
       <c r="BP3">
-        <v>0.00700652396213057</v>
+        <v>0.007007310351510978</v>
       </c>
       <c r="BQ3">
-        <v>0.0009802587947018177</v>
+        <v>0.0009783691831635095</v>
       </c>
       <c r="BR3">
-        <v>0.0001452035492151921</v>
+        <v>0.0001429431261473516</v>
       </c>
       <c r="BS3">
-        <v>1.12572139391561E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0007575956359052856</v>
+        <v>0.000755607149392022</v>
       </c>
       <c r="BU3">
-        <v>0.001242434993284787</v>
+        <v>0.001240661802735065</v>
       </c>
       <c r="BV3">
-        <v>0.001111970493989932</v>
+        <v>0.001110139369859414</v>
       </c>
       <c r="BW3">
-        <v>0.001031829694423083</v>
+        <v>0.001029962983266885</v>
       </c>
       <c r="BX3">
-        <v>0.01254292693220697</v>
+        <v>0.0125461717961189</v>
       </c>
       <c r="BY3">
-        <v>0.005989654967626626</v>
+        <v>0.005989989809939671</v>
       </c>
       <c r="BZ3">
-        <v>0.008649830953248691</v>
+        <v>0.00865134706342561</v>
       </c>
       <c r="CA3">
-        <v>0.01137553893851656</v>
+        <v>0.01137826541645363</v>
       </c>
       <c r="CB3">
-        <v>0.004617282675044136</v>
+        <v>0.004617008106816201</v>
       </c>
       <c r="CC3">
-        <v>2.213647288035499E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001259508793192505</v>
+        <v>0.001257743184370929</v>
       </c>
       <c r="CE3">
-        <v>0.002619228585843381</v>
+        <v>0.002618066769140677</v>
       </c>
       <c r="CF3">
-        <v>0.005568135969904886</v>
+        <v>0.005568283634058022</v>
       </c>
       <c r="CG3">
-        <v>0.008117356956126651</v>
+        <v>0.008118636617878898</v>
       </c>
       <c r="CH3">
-        <v>0.01177604593635187</v>
+        <v>0.01177895026193824</v>
       </c>
       <c r="CI3">
-        <v>0.01317743792877751</v>
+        <v>0.01318096455128495</v>
       </c>
       <c r="CJ3">
-        <v>0.001747550390554698</v>
+        <v>0.001746001499671452</v>
       </c>
       <c r="CK3">
-        <v>0.002380824587131926</v>
+        <v>0.002379556905635382</v>
       </c>
       <c r="CL3">
-        <v>0.001771037690427752</v>
+        <v>0.001769499229227617</v>
       </c>
       <c r="CM3">
-        <v>0.003440190981406176</v>
+        <v>0.003439393718214433</v>
       </c>
       <c r="CN3">
-        <v>0.007792242257883856</v>
+        <v>0.007793377550411217</v>
       </c>
       <c r="CO3">
-        <v>0.01460903692103989</v>
+        <v>0.0146131992540765</v>
       </c>
       <c r="CP3">
-        <v>0.05251627371615578</v>
+        <v>0.05253726899591336</v>
       </c>
       <c r="CQ3">
-        <v>0.0443394737603504</v>
+        <v>0.04435683808070179</v>
       </c>
       <c r="CR3">
-        <v>0.02190325188161553</v>
+        <v>0.02191065325664474</v>
       </c>
       <c r="CS3">
-        <v>0.003094833783272791</v>
+        <v>0.003093883162046872</v>
       </c>
       <c r="CT3">
-        <v>0.01924516789598215</v>
+        <v>0.01925138893211323</v>
       </c>
       <c r="CU3">
-        <v>0.04606688775101395</v>
+        <v>0.04608501914040355</v>
       </c>
       <c r="CV3">
-        <v>0.04314727976679408</v>
+        <v>0.04316411468591047</v>
       </c>
       <c r="CW3">
-        <v>0.03174666682841304</v>
+        <v>0.03175843923370877</v>
       </c>
       <c r="CX3">
-        <v>0.006919516662600835</v>
+        <v>0.006920264415843104</v>
       </c>
       <c r="CY3">
-        <v>0.002626150785805967</v>
+        <v>0.002624992042949659</v>
       </c>
       <c r="CZ3">
-        <v>0.001013791494520577</v>
+        <v>0.001011916773388355</v>
       </c>
       <c r="DA3">
-        <v>3.123737983116567E-05</v>
+        <v>2.892634936960766E-05</v>
       </c>
       <c r="DB3">
-        <v>0.001400444992430761</v>
+        <v>0.001398741967214149</v>
       </c>
       <c r="DC3">
-        <v>0.009154434950521368</v>
+        <v>0.00915617513327438</v>
       </c>
       <c r="DD3">
-        <v>0.0186081978994249</v>
+        <v>0.01861413608502607</v>
       </c>
       <c r="DE3">
-        <v>0.01625640491213606</v>
+        <v>0.01626129876928175</v>
       </c>
       <c r="DF3">
-        <v>0.01616789591261444</v>
+        <v>0.01617275046678267</v>
       </c>
       <c r="DG3">
-        <v>0.008649830953248691</v>
+        <v>0.00865134706342561</v>
       </c>
       <c r="DH3">
-        <v>0.001232388993339084</v>
+        <v>0.001230611341799953</v>
       </c>
       <c r="DI3">
-        <v>0.0004380780676322401</v>
+        <v>0.0004359476973348267</v>
       </c>
       <c r="DJ3">
-        <v>0.003472874881229524</v>
+        <v>0.003472092131528893</v>
       </c>
       <c r="DK3">
-        <v>0.01050282994323345</v>
+        <v>0.01050516888925676</v>
       </c>
       <c r="DL3">
-        <v>0.002104789488623863</v>
+        <v>0.002103399232007128</v>
       </c>
       <c r="DM3">
-        <v>0.002959692884003212</v>
+        <v>0.002958682252611701</v>
       </c>
       <c r="DN3">
-        <v>0.001353010092687141</v>
+        <v>0.0013512860037052</v>
       </c>
       <c r="DO3">
-        <v>0.004717260974503765</v>
+        <v>0.004717030802268003</v>
       </c>
       <c r="DP3">
-        <v>0.01525262891756135</v>
+        <v>0.01525707704166857</v>
       </c>
       <c r="DQ3">
-        <v>0.005779020468765081</v>
+        <v>0.005779261777505207</v>
       </c>
       <c r="DR3">
-        <v>0.004044235678141387</v>
+        <v>0.004043706644793253</v>
       </c>
       <c r="DS3">
-        <v>0.0005095689972458401</v>
+        <v>0.0005074703729449953</v>
       </c>
       <c r="DT3">
-        <v>0.01373335992577282</v>
+        <v>0.01373713340893663</v>
       </c>
       <c r="DU3">
-        <v>0.01004721894569597</v>
+        <v>0.01004935557479261</v>
       </c>
       <c r="DV3">
-        <v>0.01441596692208341</v>
+        <v>0.01442004352117367</v>
       </c>
       <c r="DW3">
-        <v>0.01988583589251942</v>
+        <v>0.01989234142130054</v>
       </c>
       <c r="DX3">
-        <v>0.004452151675936649</v>
+        <v>0.00445180378025082</v>
       </c>
       <c r="DY3">
-        <v>0.003833643379279613</v>
+        <v>0.003833020831097735</v>
       </c>
       <c r="DZ3">
-        <v>1.499654341894546E-05</v>
+        <v>1.267830111191561E-05</v>
       </c>
       <c r="EA3">
-        <v>0.004469936675840523</v>
+        <v>0.004469596677695669</v>
       </c>
       <c r="EB3">
-        <v>0.002487517686555263</v>
+        <v>0.002486297382800014</v>
       </c>
       <c r="EC3">
-        <v>0.006634989764138669</v>
+        <v>0.00663561117142361</v>
       </c>
       <c r="ED3">
-        <v>0.008015038956679666</v>
+        <v>0.008016273183481257</v>
       </c>
       <c r="EE3">
-        <v>0.003342130181936184</v>
+        <v>0.003341289374230188</v>
       </c>
       <c r="EF3">
-        <v>0.002987068583855249</v>
+        <v>0.002986070108815296</v>
       </c>
       <c r="EG3">
-        <v>0.001302354392960929</v>
+        <v>0.001300607809997187</v>
       </c>
       <c r="EH3">
-        <v>4.798713974063521E-06</v>
+        <v>2.475943256782007E-06</v>
       </c>
       <c r="EI3">
-        <v>6.528552964713947E-05</v>
+        <v>6.29896184804775E-05</v>
       </c>
       <c r="EJ3">
-        <v>0.0002678355385523808</v>
+        <v>0.0002656295709900669</v>
       </c>
       <c r="EK3">
-        <v>0.0007828944357685485</v>
+        <v>0.0007809171833463506</v>
       </c>
       <c r="EL3">
-        <v>0.000464829097487654</v>
+        <v>0.0004627106061531605</v>
       </c>
       <c r="EM3">
-        <v>0.001690081790865309</v>
+        <v>0.001688507380689218</v>
       </c>
       <c r="EN3">
-        <v>0.005505218970244946</v>
+        <v>0.005505338695708992</v>
       </c>
       <c r="EO3">
-        <v>0.002325756487429562</v>
+        <v>0.002324464352597279</v>
       </c>
       <c r="EP3">
-        <v>0.003342364381934918</v>
+        <v>0.003341523678226903</v>
       </c>
       <c r="EQ3">
-        <v>0.002945224484081411</v>
+        <v>0.002944207427905991</v>
       </c>
       <c r="ER3">
-        <v>0.0001965490689376756</v>
+        <v>0.0001943114461705408</v>
       </c>
       <c r="ES3">
-        <v>0.0001617021491260191</v>
+        <v>0.0001594490523651519</v>
       </c>
       <c r="ET3">
-        <v>0.0002303149187551752</v>
+        <v>0.0002280922899258481</v>
       </c>
       <c r="EU3">
-        <v>0.002258999487790376</v>
+        <v>0.002257677709092879</v>
       </c>
       <c r="EV3">
-        <v>0.005795178468677749</v>
+        <v>0.005795426952479279</v>
       </c>
       <c r="EW3">
-        <v>0.008833594952255469</v>
+        <v>0.008835192663990982</v>
       </c>
       <c r="EX3">
-        <v>0.01005455394565633</v>
+        <v>0.01005669383190579</v>
       </c>
       <c r="EY3">
-        <v>0.006070308367190705</v>
+        <v>0.00607067902415268</v>
       </c>
       <c r="EZ3">
-        <v>0.0009917790946395518</v>
+        <v>0.0009898945987628284</v>
       </c>
       <c r="FA3">
-        <v>0.000224841568784758</v>
+        <v>0.0002226165094799801</v>
       </c>
       <c r="FB3">
-        <v>0.003130383783080647</v>
+        <v>0.003129448948055552</v>
       </c>
       <c r="FC3">
-        <v>0.008449864954329485</v>
+        <v>0.008451292268347928</v>
       </c>
       <c r="FD3">
-        <v>0.009065970950999504</v>
+        <v>0.00906767185075759</v>
       </c>
       <c r="FE3">
-        <v>0.005520989970159705</v>
+        <v>0.005521116698835373</v>
       </c>
       <c r="FF3">
-        <v>0.003876804379046333</v>
+        <v>0.003876200996777639</v>
       </c>
       <c r="FG3">
-        <v>0.0008412114954533518</v>
+        <v>0.0008392601390879913</v>
       </c>
       <c r="FH3">
-        <v>6.657271964018235E-05</v>
+        <v>6.427738005832594E-05</v>
       </c>
       <c r="FI3">
-        <v>2.425460286890676E-05</v>
+        <v>2.194047166135648E-05</v>
       </c>
       <c r="FJ3">
-        <v>4.133201177660539E-05</v>
+        <v>3.902546389980088E-05</v>
       </c>
       <c r="FK3">
-        <v>0.00124925049324795</v>
+        <v>0.001247480329163817</v>
       </c>
       <c r="FL3">
-        <v>0.006728111963635354</v>
+        <v>0.006728774722418194</v>
       </c>
       <c r="FM3">
-        <v>0.0137396724257387</v>
+        <v>0.01374344871200779</v>
       </c>
       <c r="FN3">
-        <v>0.01139776993839641</v>
+        <v>0.01140050628814867</v>
       </c>
       <c r="FO3">
-        <v>0.003048591483522725</v>
+        <v>0.003047620328113</v>
       </c>
       <c r="FP3">
-        <v>0.0002854295984572869</v>
+        <v>0.000283231443647841</v>
       </c>
       <c r="FQ3">
-        <v>0.000524054627167547</v>
+        <v>0.0005219624353017015</v>
       </c>
       <c r="FR3">
-        <v>0.001472155392043175</v>
+        <v>0.001470484210280163</v>
       </c>
       <c r="FS3">
-        <v>0.001439737392218391</v>
+        <v>0.001438051815038831</v>
       </c>
       <c r="FT3">
-        <v>0.005056300672671296</v>
+        <v>0.005056221053144147</v>
       </c>
       <c r="FU3">
-        <v>0.005924080967981046</v>
+        <v>0.005924386691747459</v>
       </c>
       <c r="FV3">
-        <v>0.007013331562093775</v>
+        <v>0.007014120974431728</v>
       </c>
       <c r="FW3">
-        <v>0.007773503957985134</v>
+        <v>0.007774630929652668</v>
       </c>
       <c r="FX3">
-        <v>0.001458849992115089</v>
+        <v>0.001457172902005624</v>
       </c>
       <c r="FY3">
-        <v>0.0001790340590323422</v>
+        <v>0.0001767886586149886</v>
       </c>
       <c r="FZ3">
-        <v>0.003652658480257815</v>
+        <v>0.003651955564594155</v>
       </c>
       <c r="GA3">
-        <v>0.007815763957756723</v>
+        <v>0.00781690969524273</v>
       </c>
       <c r="GB3">
-        <v>0.006578487964444054</v>
+        <v>0.006579084281749765</v>
       </c>
       <c r="GC3">
-        <v>0.004526919975532536</v>
+        <v>0.004526605281180012</v>
       </c>
       <c r="GD3">
-        <v>0.002449144586762664</v>
+        <v>0.002447907243191303</v>
       </c>
       <c r="GE3">
-        <v>0.0006916011962619777</v>
+        <v>0.0006895834045030588</v>
       </c>
       <c r="GF3">
-        <v>0.0002239738087894482</v>
+        <v>0.000221748364150391</v>
       </c>
       <c r="GG3">
-        <v>0.00118140979361462</v>
+        <v>0.001179609504441481</v>
       </c>
       <c r="GH3">
-        <v>0.002846513584614932</v>
+        <v>0.002845452695244271</v>
       </c>
       <c r="GI3">
-        <v>0.004698990374602516</v>
+        <v>0.004698752089192049</v>
       </c>
       <c r="GJ3">
-        <v>0.002659115685627796</v>
+        <v>0.002657971581042416</v>
       </c>
       <c r="GK3">
-        <v>0.001581541991451953</v>
+        <v>0.001579919383495832</v>
       </c>
       <c r="GL3">
-        <v>0.0005486484970346199</v>
+        <v>0.0005465672262312453</v>
       </c>
       <c r="GM3">
-        <v>1.574940991487631E-07</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>1.962915689390674E-05</v>
+        <v>1.731297172800338E-05</v>
       </c>
       <c r="GO3">
-        <v>0.00104976409432615</v>
+        <v>0.001047905347052935</v>
       </c>
       <c r="GP3">
-        <v>0.001900914889725781</v>
+        <v>0.001899434101312187</v>
       </c>
       <c r="GQ3">
-        <v>0.001971432989344639</v>
+        <v>0.00196998351493634</v>
       </c>
       <c r="GR3">
-        <v>0.001004590294570309</v>
+        <v>0.001002711487587425</v>
       </c>
       <c r="GS3">
-        <v>6.257870966176951E-06</v>
+        <v>3.935748196727629E-06</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.703352430092923E-06</v>
+        <v>2.282135313004294E-06</v>
       </c>
       <c r="C4">
-        <v>4.400874347450962E-05</v>
+        <v>4.160567310971263E-05</v>
       </c>
       <c r="D4">
-        <v>1.044534540058231E-05</v>
+        <v>8.026779281774761E-06</v>
       </c>
       <c r="E4">
-        <v>8.281629524749539E-05</v>
+        <v>8.043114178952355E-05</v>
       </c>
       <c r="F4">
-        <v>2.078173880741696E-05</v>
+        <v>1.836794485766201E-05</v>
       </c>
       <c r="G4">
-        <v>8.751652497776751E-07</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9.218674470976179E-06</v>
+        <v>6.799542015263908E-06</v>
       </c>
       <c r="I4">
-        <v>4.593333736406468E-06</v>
+        <v>2.172065825217368E-06</v>
       </c>
       <c r="J4">
-        <v>4.288143053920173E-07</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.294300725725123E-05</v>
+        <v>1.052559427417943E-05</v>
       </c>
       <c r="L4">
-        <v>9.636998946970166E-06</v>
+        <v>7.218059625849401E-06</v>
       </c>
       <c r="M4">
-        <v>4.401381947421834E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.859997178489797E-06</v>
+        <v>1.438390696012908E-06</v>
       </c>
       <c r="O4">
-        <v>1.750988199517607E-05</v>
+        <v>1.509457747464374E-05</v>
       </c>
       <c r="P4">
-        <v>9.899886931884049E-08</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.600930678584405E-07</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.951674430614901E-06</v>
+        <v>5.296485881604484E-07</v>
       </c>
       <c r="S4">
-        <v>3.82481978050849E-08</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.611130050157417E-06</v>
+        <v>1.889469830996143E-07</v>
       </c>
       <c r="U4">
-        <v>2.422270260995344E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3.20838241588343E-05</v>
+        <v>2.967524822466961E-05</v>
       </c>
       <c r="W4">
-        <v>3.677199288979855E-05</v>
+        <v>3.436558141792267E-05</v>
       </c>
       <c r="X4">
-        <v>1.673498303964451E-05</v>
+        <v>1.431932075904356E-05</v>
       </c>
       <c r="Y4">
-        <v>1.72256210114887E-05</v>
+        <v>1.481018525161439E-05</v>
       </c>
       <c r="Z4">
-        <v>1.227860929537844E-05</v>
+        <v>9.860889569009687E-06</v>
       </c>
       <c r="AA4">
-        <v>3.150928819180468E-05</v>
+        <v>2.910044700237604E-05</v>
       </c>
       <c r="AB4">
-        <v>2.24075427141184E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.541771911523715E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>4.593333736406468E-06</v>
+        <v>2.172065825217368E-06</v>
       </c>
       <c r="AE4">
-        <v>4.062772766853295E-06</v>
+        <v>1.641259903044865E-06</v>
       </c>
       <c r="AF4">
-        <v>8.913109488511363E-07</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>6.817656008761276E-06</v>
+        <v>4.397415036224118E-06</v>
       </c>
       <c r="AH4">
-        <v>1.406796319269439E-05</v>
+        <v>1.16510695861294E-05</v>
       </c>
       <c r="AI4">
-        <v>4.401381947421834E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2.422270260995344E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.204075830902778E-05</v>
+        <v>9.62292877016723E-06</v>
       </c>
       <c r="AL4">
-        <v>5.272973697404578E-06</v>
+        <v>2.852019566531409E-06</v>
       </c>
       <c r="AM4">
-        <v>1.269877627126669E-05</v>
+        <v>1.028125053014602E-05</v>
       </c>
       <c r="AN4">
-        <v>6.294677638772968E-06</v>
+        <v>3.874195214397223E-06</v>
       </c>
       <c r="AO4">
-        <v>2.343761165500676E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.807548538885725E-05</v>
+        <v>2.566505886044005E-05</v>
       </c>
       <c r="AQ4">
-        <v>2.529592854836519E-06</v>
+        <v>1.07372143189851E-07</v>
       </c>
       <c r="AR4">
-        <v>4.593698736385522E-06</v>
+        <v>2.172430993711835E-06</v>
       </c>
       <c r="AS4">
-        <v>1.022660441313501E-05</v>
+        <v>7.807937304656324E-06</v>
       </c>
       <c r="AT4">
-        <v>4.036372168368323E-05</v>
+        <v>3.795896846302912E-05</v>
       </c>
       <c r="AU4">
-        <v>2.341943065605009E-05</v>
+        <v>2.100685449193032E-05</v>
       </c>
       <c r="AV4">
-        <v>6.817656008761276E-06</v>
+        <v>4.397415036224118E-06</v>
       </c>
       <c r="AW4">
-        <v>4.201072758916797E-06</v>
+        <v>1.779623746290895E-06</v>
       </c>
       <c r="AX4">
-        <v>1.058958839230477E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.04111430164061037</v>
+        <v>0.04113086015317213</v>
       </c>
       <c r="AZ4">
-        <v>0.0006324821637043122</v>
+        <v>0.0006303507833317368</v>
       </c>
       <c r="BA4">
-        <v>0.03581966794444878</v>
+        <v>0.03583378199828347</v>
       </c>
       <c r="BB4">
-        <v>7.132098290716659E-06</v>
+        <v>4.712002491807062E-06</v>
       </c>
       <c r="BC4">
-        <v>0.0076769315594508</v>
+        <v>0.007678052503373158</v>
       </c>
       <c r="BD4">
-        <v>0.007721708556881222</v>
+        <v>0.007722850173720429</v>
       </c>
       <c r="BE4">
-        <v>0.001347435722675912</v>
+        <v>0.001345634426416226</v>
       </c>
       <c r="BF4">
-        <v>0.006030875653911537</v>
+        <v>0.006031236636719597</v>
       </c>
       <c r="BG4">
-        <v>0.06271864140082146</v>
+        <v>0.06274517433652559</v>
       </c>
       <c r="BH4">
-        <v>0.0007388502276002633</v>
+        <v>0.0007367679558831667</v>
       </c>
       <c r="BI4">
-        <v>0.0087922694954459</v>
+        <v>0.008793905375378512</v>
       </c>
       <c r="BJ4">
-        <v>0.001578879309394266</v>
+        <v>0.001577184867419096</v>
       </c>
       <c r="BK4">
-        <v>0.004973513214589449</v>
+        <v>0.004973386027867606</v>
       </c>
       <c r="BL4">
-        <v>0.001455666016464997</v>
+        <v>0.001453914688626428</v>
       </c>
       <c r="BM4">
-        <v>9.138458475579463E-05</v>
+        <v>8.900338715790048E-05</v>
       </c>
       <c r="BN4">
-        <v>0.02221572672512597</v>
+        <v>0.02222356002853592</v>
       </c>
       <c r="BO4">
-        <v>0.01504302713673927</v>
+        <v>0.01504754890452435</v>
       </c>
       <c r="BP4">
-        <v>0.006319593237343159</v>
+        <v>0.006320087517043314</v>
       </c>
       <c r="BQ4">
-        <v>0.004935200716788054</v>
+        <v>0.004935055841718917</v>
       </c>
       <c r="BR4">
-        <v>0.007574426065333191</v>
+        <v>0.007575499683894807</v>
       </c>
       <c r="BS4">
-        <v>0.002891029534095076</v>
+        <v>0.002889940893626121</v>
       </c>
       <c r="BT4">
-        <v>0.001006921942216672</v>
+        <v>0.00100496343548123</v>
       </c>
       <c r="BU4">
-        <v>0.004935200716788054</v>
+        <v>0.004935055841718917</v>
       </c>
       <c r="BV4">
-        <v>0.006577746622528742</v>
+        <v>0.006578360088055821</v>
       </c>
       <c r="BW4">
-        <v>0.000224061417141988</v>
+        <v>0.0002217414745920192</v>
       </c>
       <c r="BX4">
-        <v>0.008816210994071991</v>
+        <v>0.008817857927461484</v>
       </c>
       <c r="BY4">
-        <v>0.0289829063367839</v>
+        <v>0.02899386395288639</v>
       </c>
       <c r="BZ4">
-        <v>0.006601205621182521</v>
+        <v>0.006601829917402955</v>
       </c>
       <c r="CA4">
-        <v>0.001598541108265952</v>
+        <v>0.001596855743869818</v>
       </c>
       <c r="CB4">
-        <v>0.007938432044444306</v>
+        <v>0.007939673719503009</v>
       </c>
       <c r="CC4">
-        <v>7.24782958407529E-05</v>
+        <v>7.008836947226066E-05</v>
       </c>
       <c r="CD4">
-        <v>0.006428233931108693</v>
+        <v>0.006428778368705924</v>
       </c>
       <c r="CE4">
-        <v>4.640916733675865E-05</v>
+        <v>4.400720521426801E-05</v>
       </c>
       <c r="CF4">
-        <v>6.890461004583282E-05</v>
+        <v>6.651303375632044E-05</v>
       </c>
       <c r="CG4">
-        <v>0.015057634635901</v>
+        <v>0.01506216314776525</v>
       </c>
       <c r="CH4">
-        <v>0.006462373829149537</v>
+        <v>0.006462934028662794</v>
       </c>
       <c r="CI4">
-        <v>0.01324158924011677</v>
+        <v>0.01324527930908369</v>
       </c>
       <c r="CJ4">
-        <v>0.006008453655198248</v>
+        <v>0.006008804286081401</v>
       </c>
       <c r="CK4">
-        <v>0.00126930482715954</v>
+        <v>0.001267467458952226</v>
       </c>
       <c r="CL4">
-        <v>0.0008098365035266374</v>
+        <v>0.0008077870051856888</v>
       </c>
       <c r="CM4">
-        <v>0.000123565922909033</v>
+        <v>0.000121199582987309</v>
       </c>
       <c r="CN4">
-        <v>0.00742417857395531</v>
+        <v>0.007425182825340158</v>
       </c>
       <c r="CO4">
-        <v>0.02068383681303517</v>
+        <v>0.0206909628641819</v>
       </c>
       <c r="CP4">
-        <v>0.03462255801314625</v>
+        <v>0.03463611937797793</v>
       </c>
       <c r="CQ4">
-        <v>0.03308905110114824</v>
+        <v>0.03310190446717034</v>
       </c>
       <c r="CR4">
-        <v>0.03672670789239729</v>
+        <v>0.03674124071395866</v>
       </c>
       <c r="CS4">
-        <v>0.006466463328914857</v>
+        <v>0.006467025416493269</v>
       </c>
       <c r="CT4">
-        <v>0.01415323568780093</v>
+        <v>0.01415734665125139</v>
       </c>
       <c r="CU4">
-        <v>0.04448132344739011</v>
+        <v>0.04449943646708345</v>
       </c>
       <c r="CV4">
-        <v>0.04148075161958124</v>
+        <v>0.04149747931700083</v>
       </c>
       <c r="CW4">
-        <v>0.03184173817272667</v>
+        <v>0.03185401567172034</v>
       </c>
       <c r="CX4">
-        <v>0.007590733564397367</v>
+        <v>0.007591814711904457</v>
       </c>
       <c r="CY4">
-        <v>0.0006575369622665149</v>
+        <v>0.0006554171493459135</v>
       </c>
       <c r="CZ4">
-        <v>0.0004517294340770073</v>
+        <v>0.0004495146026835051</v>
       </c>
       <c r="DA4">
-        <v>0.00058960056616512</v>
+        <v>0.0005874493879554608</v>
       </c>
       <c r="DB4">
-        <v>0.0003075526423507518</v>
+        <v>0.0003052712465380659</v>
       </c>
       <c r="DC4">
-        <v>0.007239209084569987</v>
+        <v>0.007240127938114586</v>
       </c>
       <c r="DD4">
-        <v>0.013939524200065</v>
+        <v>0.01394353649589438</v>
       </c>
       <c r="DE4">
-        <v>0.01713251601683164</v>
+        <v>0.01713800247256704</v>
       </c>
       <c r="DF4">
-        <v>0.01084756737750036</v>
+        <v>0.01085015215987511</v>
       </c>
       <c r="DG4">
-        <v>0.006555677923795179</v>
+        <v>0.006556281200511037</v>
       </c>
       <c r="DH4">
-        <v>0.003382219005907625</v>
+        <v>0.003381357140785166</v>
       </c>
       <c r="DI4">
-        <v>3.112852021365547E-05</v>
+        <v>2.871950322894795E-05</v>
       </c>
       <c r="DJ4">
-        <v>0.003451830501912893</v>
+        <v>0.003451000775449816</v>
       </c>
       <c r="DK4">
-        <v>0.008829007493337648</v>
+        <v>0.008830660334692849</v>
       </c>
       <c r="DL4">
-        <v>0.00420005225897536</v>
+        <v>0.004199567976089458</v>
       </c>
       <c r="DM4">
-        <v>9.064899479800726E-06</v>
+        <v>6.645696028314099E-06</v>
       </c>
       <c r="DN4">
-        <v>0.003786359482715577</v>
+        <v>0.003785684203629506</v>
       </c>
       <c r="DO4">
-        <v>0.00155196611093871</v>
+        <v>0.001550259243514186</v>
       </c>
       <c r="DP4">
-        <v>0.01486829114676668</v>
+        <v>0.01487273224137584</v>
       </c>
       <c r="DQ4">
-        <v>0.01133119334974695</v>
+        <v>0.01133400141550566</v>
       </c>
       <c r="DR4">
-        <v>0.0009374548162031195</v>
+        <v>0.0009354642374619124</v>
       </c>
       <c r="DS4">
-        <v>0.0002243186471272266</v>
+        <v>0.0002219988233367638</v>
       </c>
       <c r="DT4">
-        <v>0.01011453941956598</v>
+        <v>0.01011678577312926</v>
       </c>
       <c r="DU4">
-        <v>0.01677813703716807</v>
+        <v>0.01678345988105811</v>
       </c>
       <c r="DV4">
-        <v>0.008267619525553518</v>
+        <v>0.008269013181893121</v>
       </c>
       <c r="DW4">
-        <v>0.01244931128558252</v>
+        <v>0.01245263557083874</v>
       </c>
       <c r="DX4">
-        <v>0.009579514450268979</v>
+        <v>0.009581513790246346</v>
       </c>
       <c r="DY4">
-        <v>0.001479777415081338</v>
+        <v>0.00147803721914011</v>
       </c>
       <c r="DZ4">
-        <v>1.18503233199561E-06</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003546410496485315</v>
+        <v>0.003545624436290087</v>
       </c>
       <c r="EB4">
-        <v>0.004555625738570383</v>
+        <v>0.004555305619013842</v>
       </c>
       <c r="EC4">
-        <v>0.005009566112520513</v>
+        <v>0.005009455570920134</v>
       </c>
       <c r="ED4">
-        <v>0.004737659128124196</v>
+        <v>0.004737423050851455</v>
       </c>
       <c r="EE4">
-        <v>0.003717593786661773</v>
+        <v>0.003716886759410391</v>
       </c>
       <c r="EF4">
-        <v>0.002114743578643103</v>
+        <v>0.002113296537746961</v>
       </c>
       <c r="EG4">
-        <v>0.001056639039363601</v>
+        <v>0.001054703486320327</v>
       </c>
       <c r="EH4">
-        <v>3.009333827306053E-05</v>
+        <v>2.768384335925084E-05</v>
       </c>
       <c r="EI4">
-        <v>0.0001036420840523845</v>
+        <v>0.0001012665455714089</v>
       </c>
       <c r="EJ4">
-        <v>0.0001735578300401921</v>
+        <v>0.0001712145706865834</v>
       </c>
       <c r="EK4">
-        <v>0.0006045592653066984</v>
+        <v>0.0006024149933203515</v>
       </c>
       <c r="EL4">
-        <v>0.001046154239965283</v>
+        <v>0.001044213846235975</v>
       </c>
       <c r="EM4">
-        <v>0.001446594516985575</v>
+        <v>0.001444839000961884</v>
       </c>
       <c r="EN4">
-        <v>0.002927728831989046</v>
+        <v>0.002926657135075427</v>
       </c>
       <c r="EO4">
-        <v>0.004088351765385416</v>
+        <v>0.004087815911935421</v>
       </c>
       <c r="EP4">
-        <v>0.001395301019929109</v>
+        <v>0.00139352182241134</v>
       </c>
       <c r="EQ4">
-        <v>0.002200059673747145</v>
+        <v>0.002198652022105332</v>
       </c>
       <c r="ER4">
-        <v>0.001353680622317542</v>
+        <v>0.001351882209241152</v>
       </c>
       <c r="ES4">
-        <v>8.117472534169868E-06</v>
+        <v>5.697831668841527E-06</v>
       </c>
       <c r="ET4">
-        <v>7.23415118486024E-07</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001439493017393103</v>
+        <v>0.001437734222705834</v>
       </c>
       <c r="EV4">
-        <v>0.005437294687974836</v>
+        <v>0.00543738162270787</v>
       </c>
       <c r="EW4">
-        <v>0.008897868489385985</v>
+        <v>0.008899553122905177</v>
       </c>
       <c r="EX4">
-        <v>0.006932820602152429</v>
+        <v>0.00693359800039668</v>
       </c>
       <c r="EY4">
-        <v>0.005478764685595034</v>
+        <v>0.005478870766449106</v>
       </c>
       <c r="EZ4">
-        <v>0.0009146793775101132</v>
+        <v>0.0009126782836656769</v>
       </c>
       <c r="FA4">
-        <v>0.0007054834595150521</v>
+        <v>0.0007033857828252756</v>
       </c>
       <c r="FB4">
-        <v>0.001658256104839141</v>
+        <v>0.001656598310026265</v>
       </c>
       <c r="FC4">
-        <v>0.005491349684872831</v>
+        <v>0.005491461576046006</v>
       </c>
       <c r="FD4">
-        <v>0.009592838449504367</v>
+        <v>0.009594843940986838</v>
       </c>
       <c r="FE4">
-        <v>0.005148963204521057</v>
+        <v>0.005148917020618985</v>
       </c>
       <c r="FF4">
-        <v>0.001144074434346025</v>
+        <v>0.001142179249008353</v>
       </c>
       <c r="FG4">
-        <v>0.0007122766291252186</v>
+        <v>0.0007101820887473555</v>
       </c>
       <c r="FH4">
-        <v>0.0003879890477348198</v>
+        <v>0.0003857447882915974</v>
       </c>
       <c r="FI4">
-        <v>2.638826648568017E-05</v>
+        <v>2.397706099176526E-05</v>
       </c>
       <c r="FJ4">
-        <v>1.356156922175436E-05</v>
+        <v>1.114444182013714E-05</v>
       </c>
       <c r="FK4">
-        <v>0.0006371965634337711</v>
+        <v>0.0006350673596339717</v>
       </c>
       <c r="FL4">
-        <v>0.005903435961224805</v>
+        <v>0.005903738106899489</v>
       </c>
       <c r="FM4">
-        <v>0.01313610124617032</v>
+        <v>0.01313974261279782</v>
       </c>
       <c r="FN4">
-        <v>0.009138548475574297</v>
+        <v>0.009140344227695158</v>
       </c>
       <c r="FO4">
-        <v>0.003407998304428251</v>
+        <v>0.003407148341249319</v>
       </c>
       <c r="FP4">
-        <v>0.001038471340406175</v>
+        <v>0.001036527399589012</v>
       </c>
       <c r="FQ4">
-        <v>9.318201465264713E-05</v>
+        <v>9.08016469031334E-05</v>
       </c>
       <c r="FR4">
-        <v>0.001364969221669733</v>
+        <v>0.001363176020382635</v>
       </c>
       <c r="FS4">
-        <v>0.001014487441782517</v>
+        <v>0.001012532427932986</v>
       </c>
       <c r="FT4">
-        <v>0.002864566835613667</v>
+        <v>0.00286346597768493</v>
       </c>
       <c r="FU4">
-        <v>0.008267619525553518</v>
+        <v>0.008269013181893121</v>
       </c>
       <c r="FV4">
-        <v>0.006190433644755125</v>
+        <v>0.006190868293268043</v>
       </c>
       <c r="FW4">
-        <v>0.00478341872549823</v>
+        <v>0.004783203774795063</v>
       </c>
       <c r="FX4">
-        <v>0.004546434339097841</v>
+        <v>0.004546109976000019</v>
       </c>
       <c r="FY4">
-        <v>0.0005226420200076102</v>
+        <v>0.00052045992796861</v>
       </c>
       <c r="FZ4">
-        <v>0.003111860321422457</v>
+        <v>0.003110873635456167</v>
       </c>
       <c r="GA4">
-        <v>0.003212290415659165</v>
+        <v>0.003211350096870362</v>
       </c>
       <c r="GB4">
-        <v>0.004956733115552393</v>
+        <v>0.004956598181692242</v>
       </c>
       <c r="GC4">
-        <v>0.005315069694988852</v>
+        <v>0.005315100200142823</v>
       </c>
       <c r="GD4">
-        <v>0.002238530871539432</v>
+        <v>0.002237140981514491</v>
       </c>
       <c r="GE4">
-        <v>0.00101883164153322</v>
+        <v>0.001016878633340284</v>
       </c>
       <c r="GF4">
-        <v>4.864349720853916E-07</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001675618003842809</v>
+        <v>0.001673968224777193</v>
       </c>
       <c r="GH4">
-        <v>0.003260665412883113</v>
+        <v>0.003259747428157613</v>
       </c>
       <c r="GI4">
-        <v>0.004986705713832382</v>
+        <v>0.004986584617903926</v>
       </c>
       <c r="GJ4">
-        <v>0.003417925803858551</v>
+        <v>0.00341708042406801</v>
       </c>
       <c r="GK4">
-        <v>0.0008942124486846305</v>
+        <v>0.0008922019055438586</v>
       </c>
       <c r="GL4">
-        <v>2.543584954033567E-05</v>
+        <v>2.302420432876559E-05</v>
       </c>
       <c r="GM4">
-        <v>7.349698978229402E-05</v>
+        <v>7.110753373062415E-05</v>
       </c>
       <c r="GN4">
-        <v>0.0003117430821102788</v>
+        <v>0.0003094636209653392</v>
       </c>
       <c r="GO4">
-        <v>0.0001762596098851475</v>
+        <v>0.0001739175979057103</v>
       </c>
       <c r="GP4">
-        <v>0.0009679050444556995</v>
+        <v>0.0009659285241613018</v>
       </c>
       <c r="GQ4">
-        <v>0.001496845514101866</v>
+        <v>0.001495113198264533</v>
       </c>
       <c r="GR4">
-        <v>0.001571459809820042</v>
+        <v>0.001569761942365127</v>
       </c>
       <c r="GS4">
-        <v>0.000201734288423255</v>
+        <v>0.000199404037748536</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.374584748022908E-05</v>
+        <v>2.318217983202615E-05</v>
       </c>
       <c r="C5">
-        <v>1.216619873369507E-05</v>
+        <v>1.160125973223278E-05</v>
       </c>
       <c r="D5">
-        <v>2.351851848520506E-08</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.181518652248916E-05</v>
+        <v>2.125130690308096E-05</v>
       </c>
       <c r="F5">
-        <v>7.769980229923537E-07</v>
+        <v>2.10808577949106E-07</v>
       </c>
       <c r="G5">
-        <v>9.364025795031603E-06</v>
+        <v>8.798779137285713E-06</v>
       </c>
       <c r="H5">
-        <v>2.128137453417373E-07</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.78051063913763E-05</v>
+        <v>2.724188441749045E-05</v>
       </c>
       <c r="J5">
-        <v>1.985666656535905E-05</v>
+        <v>1.929257191604921E-05</v>
       </c>
       <c r="K5">
-        <v>7.616993833272243E-06</v>
+        <v>7.051555365323179E-06</v>
       </c>
       <c r="L5">
-        <v>3.86617591537359E-06</v>
+        <v>3.300325637473332E-06</v>
       </c>
       <c r="M5">
-        <v>2.660313441768616E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>8.526498813364162E-06</v>
+        <v>7.961160201822328E-06</v>
       </c>
       <c r="O5">
-        <v>1.59258346514007E-07</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>5.662125876062189E-07</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.775507239247148E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3.744753918031387E-06</v>
+        <v>3.17889030896233E-06</v>
       </c>
       <c r="S5">
-        <v>1.55542676595339E-06</v>
+        <v>9.89322786189893E-07</v>
       </c>
       <c r="T5">
-        <v>2.859675537404795E-05</v>
+        <v>2.803362031691895E-05</v>
       </c>
       <c r="U5">
-        <v>1.436392068558931E-07</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.348451626706016E-05</v>
+        <v>3.292191784717104E-05</v>
       </c>
       <c r="W5">
-        <v>2.272724050252529E-05</v>
+        <v>2.216346101938423E-05</v>
       </c>
       <c r="X5">
-        <v>8.759832808256734E-07</v>
+        <v>3.098047035758215E-07</v>
       </c>
       <c r="Y5">
-        <v>3.732116418308008E-06</v>
+        <v>3.166251421742074E-06</v>
       </c>
       <c r="Z5">
-        <v>3.4208314251217E-06</v>
+        <v>2.854932251941316E-06</v>
       </c>
       <c r="AA5">
-        <v>5.941961569936887E-06</v>
+        <v>5.376339196778422E-06</v>
       </c>
       <c r="AB5">
-        <v>2.623440542575724E-05</v>
+        <v>2.567101100140801E-05</v>
       </c>
       <c r="AC5">
-        <v>5.421072881338578E-05</v>
+        <v>5.365040596665536E-05</v>
       </c>
       <c r="AD5">
-        <v>4.852484893784354E-05</v>
+        <v>4.79639018267619E-05</v>
       </c>
       <c r="AE5">
-        <v>1.619962064540782E-05</v>
+        <v>1.563512448156575E-05</v>
       </c>
       <c r="AF5">
-        <v>5.599187877439833E-05</v>
+        <v>5.543175148375582E-05</v>
       </c>
       <c r="AG5">
-        <v>6.265646162851782E-06</v>
+        <v>5.700059327685118E-06</v>
       </c>
       <c r="AH5">
-        <v>5.329679883339072E-06</v>
+        <v>4.76399028652513E-06</v>
       </c>
       <c r="AI5">
-        <v>8.967869403703037E-07</v>
+        <v>3.306106471966745E-07</v>
       </c>
       <c r="AJ5">
-        <v>2.397388347523762E-05</v>
+        <v>2.341024086357179E-05</v>
       </c>
       <c r="AK5">
-        <v>1.240728972841785E-05</v>
+        <v>1.184237719682772E-05</v>
       </c>
       <c r="AL5">
-        <v>2.904956936413634E-05</v>
+        <v>2.848648402237909E-05</v>
       </c>
       <c r="AM5">
-        <v>4.177684508555005E-05</v>
+        <v>4.121515709735897E-05</v>
       </c>
       <c r="AN5">
-        <v>2.78051063913763E-05</v>
+        <v>2.724188441749045E-05</v>
       </c>
       <c r="AO5">
-        <v>5.27878848445303E-06</v>
+        <v>4.713093300168581E-06</v>
       </c>
       <c r="AP5">
-        <v>1.295585171641042E-06</v>
+        <v>7.29452663338806E-07</v>
       </c>
       <c r="AQ5">
-        <v>2.252688950691075E-08</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.551799066032797E-05</v>
+        <v>1.495341965893925E-05</v>
       </c>
       <c r="AS5">
-        <v>3.86617591537359E-06</v>
+        <v>3.300325637473332E-06</v>
       </c>
       <c r="AT5">
-        <v>1.181166774145537E-05</v>
+        <v>1.124668981531217E-05</v>
       </c>
       <c r="AU5">
-        <v>5.694985075342936E-06</v>
+        <v>5.129335586131278E-06</v>
       </c>
       <c r="AV5">
-        <v>2.00652395607936E-05</v>
+        <v>1.950116781113844E-05</v>
       </c>
       <c r="AW5">
-        <v>2.351851848520506E-08</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.003481385223796243</v>
+        <v>0.003481201177429043</v>
       </c>
       <c r="AY5">
-        <v>0.03401370625547676</v>
+        <v>0.03401687441492415</v>
       </c>
       <c r="AZ5">
-        <v>0.0649943985773429</v>
+        <v>0.06500096817020355</v>
       </c>
       <c r="BA5">
-        <v>0.004502202901451648</v>
+        <v>0.004502130932739833</v>
       </c>
       <c r="BB5">
-        <v>0.001720310462344265</v>
+        <v>0.001719933063986263</v>
       </c>
       <c r="BC5">
-        <v>0.006794114851284174</v>
+        <v>0.006794294516261026</v>
       </c>
       <c r="BD5">
-        <v>7.508979835636553E-05</v>
+        <v>7.453176786527531E-05</v>
       </c>
       <c r="BE5">
-        <v>0.007686927231741476</v>
+        <v>0.007687204920410993</v>
       </c>
       <c r="BF5">
-        <v>0.01741418761882227</v>
+        <v>0.01741553328325412</v>
       </c>
       <c r="BG5">
-        <v>0.002458260146191344</v>
+        <v>0.002457963768834612</v>
       </c>
       <c r="BH5">
-        <v>0.03189807330178567</v>
+        <v>0.03190100918157501</v>
       </c>
       <c r="BI5">
-        <v>0.001721976162307804</v>
+        <v>0.0017215989468304</v>
       </c>
       <c r="BJ5">
-        <v>0.002756446339664371</v>
+        <v>0.002756182700778146</v>
       </c>
       <c r="BK5">
-        <v>3.959336313334411E-05</v>
+        <v>3.903143541621501E-05</v>
       </c>
       <c r="BL5">
-        <v>5.045255889564806E-07</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0034350989248094</v>
+        <v>0.003434909796575006</v>
       </c>
       <c r="BN5">
-        <v>0.02185629052158944</v>
+        <v>0.02185812389356125</v>
       </c>
       <c r="BO5">
-        <v>0.008377710816620971</v>
+        <v>0.008378064347829527</v>
       </c>
       <c r="BP5">
-        <v>0.00951185779179572</v>
+        <v>0.009512335843314438</v>
       </c>
       <c r="BQ5">
-        <v>0.001372993269946662</v>
+        <v>0.001372577738925551</v>
       </c>
       <c r="BR5">
-        <v>0.005324564283451046</v>
+        <v>0.005324582603473048</v>
       </c>
       <c r="BS5">
-        <v>0.0004310253305653217</v>
+        <v>0.0004305063789624514</v>
       </c>
       <c r="BT5">
-        <v>0.003149442531062109</v>
+        <v>0.003149222040029483</v>
       </c>
       <c r="BU5">
-        <v>0.007658874432355522</v>
+        <v>0.007659149041050963</v>
       </c>
       <c r="BV5">
-        <v>0.0003627076120607227</v>
+        <v>0.0003621811597161638</v>
       </c>
       <c r="BW5">
-        <v>0.002548574144214469</v>
+        <v>0.002548287682615828</v>
       </c>
       <c r="BX5">
-        <v>0.03176757930464204</v>
+        <v>0.03177050085722922</v>
       </c>
       <c r="BY5">
-        <v>0.01576905265483249</v>
+        <v>0.01577021769654043</v>
       </c>
       <c r="BZ5">
-        <v>0.0006892893449122017</v>
+        <v>0.0006887987486423471</v>
       </c>
       <c r="CA5">
-        <v>0.005141084387467224</v>
+        <v>0.005141082562857132</v>
       </c>
       <c r="CB5">
-        <v>3.877318915129683E-05</v>
+        <v>3.821117138559301E-05</v>
       </c>
       <c r="CC5">
-        <v>0.0104601697710382</v>
+        <v>0.01046075193966375</v>
       </c>
       <c r="CD5">
-        <v>0.001185775974044646</v>
+        <v>0.001185339888054679</v>
       </c>
       <c r="CE5">
-        <v>0.0003392654925738453</v>
+        <v>0.0003387364664711641</v>
       </c>
       <c r="CF5">
-        <v>0.01042041977190828</v>
+        <v>0.01042099757630034</v>
       </c>
       <c r="CG5">
-        <v>0.01179072774191372</v>
+        <v>0.01179145599521335</v>
       </c>
       <c r="CH5">
-        <v>0.005875705171387169</v>
+        <v>0.005875784002291632</v>
       </c>
       <c r="CI5">
-        <v>0.0109463377603965</v>
+        <v>0.01094697330639744</v>
       </c>
       <c r="CJ5">
-        <v>0.0003813149416534284</v>
+        <v>0.000380790532245546</v>
       </c>
       <c r="CK5">
-        <v>0.0004371855904304803</v>
+        <v>0.000436667315175108</v>
       </c>
       <c r="CL5">
-        <v>0.0001073633476499325</v>
+        <v>0.0001068088605376599</v>
       </c>
       <c r="CM5">
-        <v>3.294799527880402E-06</v>
+        <v>2.728886517400904E-06</v>
       </c>
       <c r="CN5">
-        <v>0.02075604654567259</v>
+        <v>0.02075775911961369</v>
       </c>
       <c r="CO5">
-        <v>0.02100790254015973</v>
+        <v>0.02100964276588428</v>
       </c>
       <c r="CP5">
-        <v>0.03547847522341455</v>
+        <v>0.03548180420283519</v>
       </c>
       <c r="CQ5">
-        <v>0.05923877170332736</v>
+        <v>0.05924470937417155</v>
       </c>
       <c r="CR5">
-        <v>0.0114162287501111</v>
+        <v>0.01141691588640241</v>
       </c>
       <c r="CS5">
-        <v>0.003382403525962845</v>
+        <v>0.003382208612193109</v>
       </c>
       <c r="CT5">
-        <v>0.03442367924650289</v>
+        <v>0.03442689241772135</v>
       </c>
       <c r="CU5">
-        <v>0.05209196885976315</v>
+        <v>0.05209712186854305</v>
       </c>
       <c r="CV5">
-        <v>0.04076634910766871</v>
+        <v>0.04077025865355081</v>
       </c>
       <c r="CW5">
-        <v>0.00948304279242645</v>
+        <v>0.009483517680287601</v>
       </c>
       <c r="CX5">
-        <v>0.001066239176661178</v>
+        <v>0.00106578996648236</v>
       </c>
       <c r="CY5">
-        <v>0.0001637628364154086</v>
+        <v>0.0001632145415180674</v>
       </c>
       <c r="CZ5">
-        <v>0.000468783829738829</v>
+        <v>0.0004682690237186134</v>
       </c>
       <c r="DA5">
-        <v>0.0001347117570513053</v>
+        <v>0.0001341602725766941</v>
       </c>
       <c r="DB5">
-        <v>0.006501776857683137</v>
+        <v>0.006501924426275278</v>
       </c>
       <c r="DC5">
-        <v>0.01332741470827731</v>
+        <v>0.01332831167757394</v>
       </c>
       <c r="DD5">
-        <v>0.02239928750970382</v>
+        <v>0.02240118049842272</v>
       </c>
       <c r="DE5">
-        <v>0.01559172865871392</v>
+        <v>0.01559287423165857</v>
       </c>
       <c r="DF5">
-        <v>0.004868096593442631</v>
+        <v>0.004868064796945714</v>
       </c>
       <c r="DG5">
-        <v>0.003283208928134107</v>
+        <v>0.003283003123587111</v>
       </c>
       <c r="DH5">
-        <v>0.0001126808615335378</v>
+        <v>0.0001121269582419628</v>
       </c>
       <c r="DI5">
-        <v>0.001746224761777029</v>
+        <v>0.00174585020860283</v>
       </c>
       <c r="DJ5">
-        <v>0.00574640587421739</v>
+        <v>0.005746470509088235</v>
       </c>
       <c r="DK5">
-        <v>0.01117874975530926</v>
+        <v>0.01117941081829725</v>
       </c>
       <c r="DL5">
-        <v>0.0002558352944000421</v>
+        <v>0.0002552971083256986</v>
       </c>
       <c r="DM5">
-        <v>0.003140715531253134</v>
+        <v>0.003140494082065395</v>
       </c>
       <c r="DN5">
-        <v>0.0004363464904488473</v>
+        <v>0.0004358281230669762</v>
       </c>
       <c r="DO5">
-        <v>0.008492044814118324</v>
+        <v>0.008492410898289717</v>
       </c>
       <c r="DP5">
-        <v>0.01822515760107101</v>
+        <v>0.01822659230355166</v>
       </c>
       <c r="DQ5">
-        <v>0.003071335532771787</v>
+        <v>0.003071106466212474</v>
       </c>
       <c r="DR5">
-        <v>0.000744026983714054</v>
+        <v>0.0007435423972012329</v>
       </c>
       <c r="DS5">
-        <v>0.004554120300315232</v>
+        <v>0.004554054031720554</v>
       </c>
       <c r="DT5">
-        <v>0.01730961662111121</v>
+        <v>0.01731095080447989</v>
       </c>
       <c r="DU5">
-        <v>0.01239228772874622</v>
+        <v>0.01239308202854404</v>
       </c>
       <c r="DV5">
-        <v>0.006961340447623787</v>
+        <v>0.006961538472640016</v>
       </c>
       <c r="DW5">
-        <v>0.01207217473575315</v>
+        <v>0.01207293388969241</v>
       </c>
       <c r="DX5">
-        <v>0.003885452914951638</v>
+        <v>0.003885313232000583</v>
       </c>
       <c r="DY5">
-        <v>1.44341896840512E-05</v>
+        <v>1.386949968994225E-05</v>
       </c>
       <c r="DZ5">
-        <v>0.0004786056095238409</v>
+        <v>0.0004780918818568652</v>
       </c>
       <c r="EA5">
-        <v>0.006134961565712326</v>
+        <v>0.006135068860905227</v>
       </c>
       <c r="EB5">
-        <v>0.003515827923042329</v>
+        <v>0.003515647658209346</v>
       </c>
       <c r="EC5">
-        <v>0.003802884316758975</v>
+        <v>0.003802735568433078</v>
       </c>
       <c r="ED5">
-        <v>0.0024763626457951</v>
+        <v>0.00247606825594873</v>
       </c>
       <c r="EE5">
-        <v>0.002544192344310381</v>
+        <v>0.00254390540162499</v>
       </c>
       <c r="EF5">
-        <v>0.0006720028352905847</v>
+        <v>0.0006715103410995728</v>
       </c>
       <c r="EG5">
-        <v>0.0007487034836116905</v>
+        <v>0.0007482194105413336</v>
       </c>
       <c r="EH5">
-        <v>0.0005907151870698834</v>
+        <v>0.0005902137681421395</v>
       </c>
       <c r="EI5">
-        <v>4.315389605540788E-05</v>
+        <v>4.259235925645208E-05</v>
       </c>
       <c r="EJ5">
-        <v>0.0001020422877664047</v>
+        <v>0.0001014872164441122</v>
       </c>
       <c r="EK5">
-        <v>0.0009351600795303573</v>
+        <v>0.0009346964779100536</v>
       </c>
       <c r="EL5">
-        <v>0.001469185767841113</v>
+        <v>0.001468780797990586</v>
       </c>
       <c r="EM5">
-        <v>0.001121604675449287</v>
+        <v>0.001121161543961532</v>
       </c>
       <c r="EN5">
-        <v>0.003615793220854197</v>
+        <v>0.003615623931415199</v>
       </c>
       <c r="EO5">
-        <v>0.0009351600795303573</v>
+        <v>0.0009346964779100536</v>
       </c>
       <c r="EP5">
-        <v>0.0009418341793842684</v>
+        <v>0.0009413713105270034</v>
       </c>
       <c r="EQ5">
-        <v>0.001761592061440655</v>
+        <v>0.001761219195473637</v>
       </c>
       <c r="ER5">
-        <v>0.0001198958023756106</v>
+        <v>0.0001193426912271097</v>
       </c>
       <c r="ES5">
-        <v>2.623440542575724E-05</v>
+        <v>2.567101100140801E-05</v>
       </c>
       <c r="ET5">
-        <v>0.0004660923097977434</v>
+        <v>0.0004655772082700627</v>
       </c>
       <c r="EU5">
-        <v>0.002375957747992854</v>
+        <v>0.002375652334487921</v>
       </c>
       <c r="EV5">
-        <v>0.008866050805931737</v>
+        <v>0.008866457952983974</v>
       </c>
       <c r="EW5">
-        <v>0.006663912854134154</v>
+        <v>0.006664078223968116</v>
       </c>
       <c r="EX5">
-        <v>0.006028170868049859</v>
+        <v>0.006028266438474201</v>
       </c>
       <c r="EY5">
-        <v>0.002304444549558201</v>
+        <v>0.002304131284473318</v>
       </c>
       <c r="EZ5">
-        <v>0.0003778526317292146</v>
+        <v>0.0003773278421872623</v>
       </c>
       <c r="FA5">
-        <v>0.002117590653648231</v>
+        <v>0.002117256873492918</v>
       </c>
       <c r="FB5">
-        <v>0.003903904914547744</v>
+        <v>0.003903767257479368</v>
       </c>
       <c r="FC5">
-        <v>0.007656940832397846</v>
+        <v>0.007657215228799403</v>
       </c>
       <c r="FD5">
-        <v>0.00865280581059944</v>
+        <v>0.008653189545048602</v>
       </c>
       <c r="FE5">
-        <v>0.001929342257768785</v>
+        <v>0.001928987809438046</v>
       </c>
       <c r="FF5">
-        <v>0.0009682835488053203</v>
+        <v>0.000967823583878283</v>
       </c>
       <c r="FG5">
-        <v>0.0004720171896680542</v>
+        <v>0.0004715027386450217</v>
       </c>
       <c r="FH5">
-        <v>2.191851952022732E-05</v>
+        <v>2.135465124595975E-05</v>
       </c>
       <c r="FI5">
-        <v>1.622593964483173E-05</v>
+        <v>1.56614463706063E-05</v>
       </c>
       <c r="FJ5">
-        <v>3.718326918609845E-05</v>
+        <v>3.662107685983809E-05</v>
       </c>
       <c r="FK5">
-        <v>0.003716058918659489</v>
+        <v>0.003715900637596003</v>
       </c>
       <c r="FL5">
-        <v>0.0122117867326972</v>
+        <v>0.01221256121492242</v>
       </c>
       <c r="FM5">
-        <v>0.008860190806060006</v>
+        <v>0.008860597309730904</v>
       </c>
       <c r="FN5">
-        <v>0.005979939269105597</v>
+        <v>0.005980029544084295</v>
       </c>
       <c r="FO5">
-        <v>0.001183633474091543</v>
+        <v>0.001183197152872136</v>
       </c>
       <c r="FP5">
-        <v>0.0001536832266360404</v>
+        <v>0.0001531338250777782</v>
       </c>
       <c r="FQ5">
-        <v>0.001198445173767331</v>
+        <v>0.001198010478754648</v>
       </c>
       <c r="FR5">
-        <v>0.001362633970173416</v>
+        <v>0.001362217301783649</v>
       </c>
       <c r="FS5">
-        <v>0.001802318960549187</v>
+        <v>0.001801950566071508</v>
       </c>
       <c r="FT5">
-        <v>0.006343397161149897</v>
+        <v>0.006343527340912048</v>
       </c>
       <c r="FU5">
-        <v>0.006374419860470844</v>
+        <v>0.006374553446278442</v>
       </c>
       <c r="FV5">
-        <v>0.00471193589686082</v>
+        <v>0.004711886955162444</v>
       </c>
       <c r="FW5">
-        <v>0.006321107861637785</v>
+        <v>0.006321235594212269</v>
       </c>
       <c r="FX5">
-        <v>5.422769881301432E-06</v>
+        <v>4.857090505028278E-06</v>
       </c>
       <c r="FY5">
-        <v>0.004225707907503824</v>
+        <v>0.004225605581842551</v>
       </c>
       <c r="FZ5">
-        <v>0.004181316508475504</v>
+        <v>0.004181209308991969</v>
       </c>
       <c r="GA5">
-        <v>0.004266267906616009</v>
+        <v>0.004266170034119785</v>
       </c>
       <c r="GB5">
-        <v>0.004605110199199118</v>
+        <v>0.004605049528889463</v>
       </c>
       <c r="GC5">
-        <v>0.002673742041474679</v>
+        <v>0.002673469322314831</v>
       </c>
       <c r="GD5">
-        <v>0.001445672368355795</v>
+        <v>0.00144526481692117</v>
       </c>
       <c r="GE5">
-        <v>0.001166032174476817</v>
+        <v>0.001165593920774816</v>
       </c>
       <c r="GF5">
-        <v>0.0004024391911910413</v>
+        <v>0.000401917101057611</v>
       </c>
       <c r="GG5">
-        <v>0.003221972729474502</v>
+        <v>0.003221760201680327</v>
       </c>
       <c r="GH5">
-        <v>0.003427423724977402</v>
+        <v>0.003427233754067161</v>
       </c>
       <c r="GI5">
-        <v>0.004154773309056506</v>
+        <v>0.004154663195340956</v>
       </c>
       <c r="GJ5">
-        <v>0.002342383548727758</v>
+        <v>0.002342074449042992</v>
       </c>
       <c r="GK5">
-        <v>4.809221594731341E-05</v>
+        <v>4.753122133657314E-05</v>
       </c>
       <c r="GL5">
-        <v>7.863672827872706E-05</v>
+        <v>7.807908721230905E-05</v>
       </c>
       <c r="GM5">
-        <v>5.941961569936887E-06</v>
+        <v>5.376339196778422E-06</v>
       </c>
       <c r="GN5">
-        <v>1.271503372168166E-05</v>
+        <v>1.215015497793238E-05</v>
       </c>
       <c r="GO5">
-        <v>0.0008313417818028275</v>
+        <v>0.0008308667817598182</v>
       </c>
       <c r="GP5">
-        <v>0.0002942657135588418</v>
+        <v>0.0002937317468386191</v>
       </c>
       <c r="GQ5">
-        <v>0.001260877172400762</v>
+        <v>0.001260449331924575</v>
       </c>
       <c r="GR5">
-        <v>0.0004373222404274891</v>
+        <v>0.0004368039801751988</v>
       </c>
       <c r="GS5">
-        <v>1.638806464128299E-05</v>
+        <v>1.582358916709167E-05</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.628548731770658E-06</v>
+        <v>1.074924480543935E-06</v>
       </c>
       <c r="C6">
-        <v>9.532026392506867E-06</v>
+        <v>4.981814772826689E-06</v>
       </c>
       <c r="D6">
-        <v>8.822573363293227E-07</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.128007846448762E-05</v>
+        <v>6.731395086586781E-06</v>
       </c>
       <c r="F6">
-        <v>1.144628597133166E-05</v>
+        <v>6.897747901033535E-06</v>
       </c>
       <c r="G6">
-        <v>1.021675642070247E-08</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.615505148878165E-05</v>
+        <v>3.162811515929255E-05</v>
       </c>
       <c r="I6">
-        <v>9.330136384193504E-06</v>
+        <v>4.779748261335599E-06</v>
       </c>
       <c r="J6">
-        <v>7.477940307924339E-05</v>
+        <v>7.02862342494452E-05</v>
       </c>
       <c r="K6">
-        <v>1.151868447431287E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.227251100535371E-05</v>
+        <v>7.724695265720875E-06</v>
       </c>
       <c r="M6">
-        <v>2.777315914363465E-05</v>
+        <v>2.323889490997319E-05</v>
       </c>
       <c r="N6">
-        <v>1.679446469155733E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.454215624592023E-05</v>
+        <v>5.003129491908196E-05</v>
       </c>
       <c r="P6">
-        <v>1.909132978613694E-05</v>
+        <v>1.454947542712517E-05</v>
       </c>
       <c r="Q6">
-        <v>4.803401197792985E-06</v>
+        <v>2.490555579098521E-07</v>
       </c>
       <c r="R6">
-        <v>4.55456318754641E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>9.160226377197001E-06</v>
+        <v>4.609689709810257E-06</v>
       </c>
       <c r="T6">
-        <v>7.206153296732776E-07</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7.688323316587426E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.941356721118288E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>6.645564273649013E-06</v>
+        <v>2.092829152480969E-06</v>
       </c>
       <c r="X6">
-        <v>2.70589071142234E-07</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.21003884982661E-05</v>
+        <v>7.552422279817039E-06</v>
       </c>
       <c r="Z6">
-        <v>6.049454649102593E-06</v>
+        <v>1.496198376621096E-06</v>
       </c>
       <c r="AA6">
-        <v>1.399903457644796E-05</v>
+        <v>9.452728257213215E-06</v>
       </c>
       <c r="AB6">
-        <v>3.563073646719157E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>4.55456318754641E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.575422564872268E-07</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.292941094418027E-05</v>
+        <v>1.839091204355113E-05</v>
       </c>
       <c r="AF6">
-        <v>8.117279334250846E-06</v>
+        <v>3.565830866082985E-06</v>
       </c>
       <c r="AG6">
-        <v>8.815332362995059E-06</v>
+        <v>4.264494170584893E-06</v>
       </c>
       <c r="AH6">
-        <v>1.087529694781965E-05</v>
+        <v>6.326259687997789E-06</v>
       </c>
       <c r="AI6">
-        <v>1.612825966412454E-05</v>
+        <v>1.158381482876019E-05</v>
       </c>
       <c r="AJ6">
-        <v>1.88479447761149E-05</v>
+        <v>1.430587763674794E-05</v>
       </c>
       <c r="AK6">
-        <v>1.291402853176992E-05</v>
+        <v>8.366773641497218E-06</v>
       </c>
       <c r="AL6">
-        <v>3.731050153636042E-05</v>
+        <v>3.278457536387119E-05</v>
       </c>
       <c r="AM6">
-        <v>1.357188755885904E-05</v>
+        <v>9.025207804571255E-06</v>
       </c>
       <c r="AN6">
-        <v>4.278280176169712E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>6.945456285997875E-06</v>
+        <v>2.392983346666348E-06</v>
       </c>
       <c r="AP6">
-        <v>1.830956275394558E-05</v>
+        <v>1.376702493186114E-05</v>
       </c>
       <c r="AQ6">
-        <v>1.250390051488179E-05</v>
+        <v>7.956287068488062E-06</v>
       </c>
       <c r="AR6">
-        <v>3.513457144676064E-05</v>
+        <v>3.060674295835923E-05</v>
       </c>
       <c r="AS6">
-        <v>1.028726442360583E-05</v>
+        <v>5.737713073909006E-06</v>
       </c>
       <c r="AT6">
-        <v>0.0001119778546109898</v>
+        <v>0.000107517206681838</v>
       </c>
       <c r="AU6">
-        <v>2.560006905415182E-05</v>
+        <v>2.106390498746007E-05</v>
       </c>
       <c r="AV6">
-        <v>4.55456318754641E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1.845221675981974E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001476120260783229</v>
+        <v>0.001472852220014638</v>
       </c>
       <c r="AY6">
-        <v>0.04786018497077206</v>
+        <v>0.04789746839109635</v>
       </c>
       <c r="AZ6">
-        <v>0.02529111804142992</v>
+        <v>0.02530867036131681</v>
       </c>
       <c r="BA6">
-        <v>0.002531232404230314</v>
+        <v>0.002528886799632445</v>
       </c>
       <c r="BB6">
-        <v>0.001029939342410527</v>
+        <v>0.001026281226122145</v>
       </c>
       <c r="BC6">
-        <v>0.01268284052225013</v>
+        <v>0.01268937000318437</v>
       </c>
       <c r="BD6">
-        <v>0.0005802609638938085</v>
+        <v>0.0005762097144165876</v>
       </c>
       <c r="BE6">
-        <v>0.001926622979333892</v>
+        <v>0.001923748792436835</v>
       </c>
       <c r="BF6">
-        <v>0.01557505664134492</v>
+        <v>0.01558411465422562</v>
       </c>
       <c r="BG6">
-        <v>0.05606616530867541</v>
+        <v>0.05611062284136958</v>
       </c>
       <c r="BH6">
-        <v>0.002409041299198766</v>
+        <v>0.002406588868520161</v>
       </c>
       <c r="BI6">
-        <v>0.002281700593955169</v>
+        <v>0.002279136835136469</v>
       </c>
       <c r="BJ6">
-        <v>0.0008731114359527156</v>
+        <v>0.0008693162122161877</v>
       </c>
       <c r="BK6">
-        <v>0.00167768766908331</v>
+        <v>0.001674595849458044</v>
       </c>
       <c r="BL6">
-        <v>0.0004863744500277783</v>
+        <v>0.0004822411198761278</v>
       </c>
       <c r="BM6">
-        <v>0.0001331749854838388</v>
+        <v>0.0001287328692343327</v>
       </c>
       <c r="BN6">
-        <v>0.03579629147400874</v>
+        <v>0.03582302798537149</v>
       </c>
       <c r="BO6">
-        <v>0.009327140384070133</v>
+        <v>0.009330736130230511</v>
       </c>
       <c r="BP6">
-        <v>0.003901921560672133</v>
+        <v>0.003900774286758421</v>
       </c>
       <c r="BQ6">
-        <v>0.001158180247691192</v>
+        <v>0.001154634246546524</v>
       </c>
       <c r="BR6">
-        <v>0.01073261844194448</v>
+        <v>0.01073744293313049</v>
       </c>
       <c r="BS6">
-        <v>0.0001276199852550967</v>
+        <v>0.0001231730125235842</v>
       </c>
       <c r="BT6">
-        <v>0.002930337920664559</v>
+        <v>0.002928341235720947</v>
       </c>
       <c r="BU6">
-        <v>0.004268446675764792</v>
+        <v>0.004267619837954237</v>
       </c>
       <c r="BV6">
-        <v>0.003768589955181844</v>
+        <v>0.00376732611555863</v>
       </c>
       <c r="BW6">
-        <v>0.002078398485583657</v>
+        <v>0.002075656989052894</v>
       </c>
       <c r="BX6">
-        <v>0.01914557078837046</v>
+        <v>0.01915775033806385</v>
       </c>
       <c r="BY6">
-        <v>0.01150721047384039</v>
+        <v>0.01151271215532528</v>
       </c>
       <c r="BZ6">
-        <v>0.006433758664927346</v>
+        <v>0.006434824860110589</v>
       </c>
       <c r="CA6">
-        <v>0.00351316514466404</v>
+        <v>0.003511677998840073</v>
       </c>
       <c r="CB6">
-        <v>0.003317246836596576</v>
+        <v>0.003315588408378609</v>
       </c>
       <c r="CC6">
-        <v>0.001138131746865641</v>
+        <v>0.001134568218235913</v>
       </c>
       <c r="CD6">
-        <v>0.002510602203380809</v>
+        <v>0.002508238562744221</v>
       </c>
       <c r="CE6">
-        <v>0.0002378441697938745</v>
+        <v>0.0002334935610131878</v>
       </c>
       <c r="CF6">
-        <v>0.003714303452946452</v>
+        <v>0.003712992153123339</v>
       </c>
       <c r="CG6">
-        <v>0.01659125068318944</v>
+        <v>0.01660119710792901</v>
       </c>
       <c r="CH6">
-        <v>0.00722891229766994</v>
+        <v>0.007230673659216946</v>
       </c>
       <c r="CI6">
-        <v>0.01689963469588799</v>
+        <v>0.01690985072663062</v>
       </c>
       <c r="CJ6">
-        <v>0.001879304277385417</v>
+        <v>0.001876388721916782</v>
       </c>
       <c r="CK6">
-        <v>0.002780174914481192</v>
+        <v>0.002778046948906163</v>
       </c>
       <c r="CL6">
-        <v>0.00224775529255738</v>
+        <v>0.00224516185691804</v>
       </c>
       <c r="CM6">
-        <v>0.001621881366785335</v>
+        <v>0.001618740758268657</v>
       </c>
       <c r="CN6">
-        <v>0.01404155757819896</v>
+        <v>0.01404927492315881</v>
       </c>
       <c r="CO6">
-        <v>0.02085116585860293</v>
+        <v>0.02086483653186566</v>
       </c>
       <c r="CP6">
-        <v>0.04579394888568922</v>
+        <v>0.04582942589054008</v>
       </c>
       <c r="CQ6">
-        <v>0.03497514144019568</v>
+        <v>0.03500116005773312</v>
       </c>
       <c r="CR6">
-        <v>0.02540467804610606</v>
+        <v>0.02542232964629838</v>
       </c>
       <c r="CS6">
-        <v>0.002412269099331679</v>
+        <v>0.002409819490570737</v>
       </c>
       <c r="CT6">
-        <v>0.02084310085827083</v>
+        <v>0.02085676448067355</v>
       </c>
       <c r="CU6">
-        <v>0.03921060461460228</v>
+        <v>0.03924032610339952</v>
       </c>
       <c r="CV6">
-        <v>0.03803491756619021</v>
+        <v>0.03806361120570561</v>
       </c>
       <c r="CW6">
-        <v>0.0301404492411142</v>
+        <v>0.03016224110892989</v>
       </c>
       <c r="CX6">
-        <v>0.005475234425457528</v>
+        <v>0.005475462626845996</v>
       </c>
       <c r="CY6">
-        <v>0.001370724556443276</v>
+        <v>0.001367364373042714</v>
       </c>
       <c r="CZ6">
-        <v>0.0008608197354465718</v>
+        <v>0.0008570137656398589</v>
       </c>
       <c r="DA6">
-        <v>0.0003204337131947214</v>
+        <v>0.0003161553086651464</v>
       </c>
       <c r="DB6">
-        <v>0.0006104962951388297</v>
+        <v>0.0006064714790254435</v>
       </c>
       <c r="DC6">
-        <v>0.0100854434152953</v>
+        <v>0.01008970211102812</v>
       </c>
       <c r="DD6">
-        <v>0.01722681970936071</v>
+        <v>0.01723732178295938</v>
       </c>
       <c r="DE6">
-        <v>0.01633692267271681</v>
+        <v>0.01634664675013761</v>
       </c>
       <c r="DF6">
-        <v>0.01250099551476217</v>
+        <v>0.01250736601694386</v>
       </c>
       <c r="DG6">
-        <v>0.00996695341041616</v>
+        <v>0.00997110851577041</v>
       </c>
       <c r="DH6">
-        <v>0.002108477586822245</v>
+        <v>0.002105762387070585</v>
       </c>
       <c r="DI6">
-        <v>0.0006242171257038219</v>
+        <v>0.0006202043050835064</v>
       </c>
       <c r="DJ6">
-        <v>0.00433961017869514</v>
+        <v>0.004338845555872391</v>
       </c>
       <c r="DK6">
-        <v>0.01359259255971162</v>
+        <v>0.0135999173951406</v>
       </c>
       <c r="DL6">
-        <v>0.001207353349716027</v>
+        <v>0.0012038503383599</v>
       </c>
       <c r="DM6">
-        <v>0.001690502669611002</v>
+        <v>0.001687422053553137</v>
       </c>
       <c r="DN6">
-        <v>0.001646197067786599</v>
+        <v>0.001643077717372446</v>
       </c>
       <c r="DO6">
-        <v>0.003835474957936015</v>
+        <v>0.003834269592804069</v>
       </c>
       <c r="DP6">
-        <v>0.01660607268379978</v>
+        <v>0.01661603206673489</v>
       </c>
       <c r="DQ6">
-        <v>0.004598887789371594</v>
+        <v>0.004598349841076128</v>
       </c>
       <c r="DR6">
-        <v>0.001593282065607682</v>
+        <v>0.001590116454033246</v>
       </c>
       <c r="DS6">
-        <v>0.0005487895225978871</v>
+        <v>0.0005447107590824889</v>
       </c>
       <c r="DT6">
-        <v>0.01621530866770902</v>
+        <v>0.01622492642358118</v>
       </c>
       <c r="DU6">
-        <v>0.01128439246466526</v>
+        <v>0.01128969934658081</v>
       </c>
       <c r="DV6">
-        <v>0.009901429407718031</v>
+        <v>0.00990552722844096</v>
       </c>
       <c r="DW6">
-        <v>0.01627606067021065</v>
+        <v>0.01628573153877315</v>
       </c>
       <c r="DX6">
-        <v>0.002150189688539853</v>
+        <v>0.002147510955766249</v>
       </c>
       <c r="DY6">
-        <v>0.0007009273688625728</v>
+        <v>0.0006969816124907298</v>
       </c>
       <c r="DZ6">
-        <v>0.0007121109793230881</v>
+        <v>0.0007081750002691085</v>
       </c>
       <c r="EA6">
-        <v>0.005471586425307312</v>
+        <v>0.005471811437416506</v>
       </c>
       <c r="EB6">
-        <v>0.001525142762801862</v>
+        <v>0.001521917580159132</v>
       </c>
       <c r="EC6">
-        <v>0.004919720202582733</v>
+        <v>0.004919462743356153</v>
       </c>
       <c r="ED6">
-        <v>0.004639099591027424</v>
+        <v>0.004638596798066457</v>
       </c>
       <c r="EE6">
-        <v>0.002233751491980736</v>
+        <v>0.002231145813460618</v>
       </c>
       <c r="EF6">
-        <v>0.002282171593974564</v>
+        <v>0.002279608246929586</v>
       </c>
       <c r="EG6">
-        <v>0.0004327031678177187</v>
+        <v>0.0004285229153248298</v>
       </c>
       <c r="EH6">
-        <v>6.188692254836077E-05</v>
+        <v>5.738248241394736E-05</v>
       </c>
       <c r="EI6">
-        <v>0.0001284755052903251</v>
+        <v>0.0001240292805007542</v>
       </c>
       <c r="EJ6">
-        <v>0.0001472608660638629</v>
+        <v>0.0001428310644539182</v>
       </c>
       <c r="EK6">
-        <v>0.0007184405295837244</v>
+        <v>0.0007145100841653314</v>
       </c>
       <c r="EL6">
-        <v>0.0009545731393071209</v>
+        <v>0.0009508491338028628</v>
       </c>
       <c r="EM6">
-        <v>0.001423802858628918</v>
+        <v>0.001420489079154347</v>
       </c>
       <c r="EN6">
-        <v>0.003293623835623835</v>
+        <v>0.003291944754899219</v>
       </c>
       <c r="EO6">
-        <v>0.001072245144152583</v>
+        <v>0.001068624013886966</v>
       </c>
       <c r="EP6">
-        <v>0.0008818749363135764</v>
+        <v>0.0008780873741036125</v>
       </c>
       <c r="EQ6">
-        <v>0.001942092279970882</v>
+        <v>0.001939231617174113</v>
       </c>
       <c r="ER6">
-        <v>0.0003237964133331897</v>
+        <v>0.0003195209486581679</v>
       </c>
       <c r="ES6">
-        <v>0.000212692748758197</v>
+        <v>0.0002083201512432772</v>
       </c>
       <c r="ET6">
-        <v>0.0001451939359787515</v>
+        <v>0.0001407623273466009</v>
       </c>
       <c r="EU6">
-        <v>0.001719685070812666</v>
+        <v>0.001716629967590175</v>
       </c>
       <c r="EV6">
-        <v>0.006500636267681212</v>
+        <v>0.006501760930886243</v>
       </c>
       <c r="EW6">
-        <v>0.005537433228018731</v>
+        <v>0.005537715806968498</v>
       </c>
       <c r="EX6">
-        <v>0.00724289269824562</v>
+        <v>0.007244666282215857</v>
       </c>
       <c r="EY6">
-        <v>0.003100901927687991</v>
+        <v>0.003099054359035457</v>
       </c>
       <c r="EZ6">
-        <v>0.0001998532482294959</v>
+        <v>0.0001954694257279477</v>
       </c>
       <c r="FA6">
-        <v>0.00110970104569493</v>
+        <v>0.001106112661406701</v>
       </c>
       <c r="FB6">
-        <v>0.002501059002987843</v>
+        <v>0.002498687019168701</v>
       </c>
       <c r="FC6">
-        <v>0.007525913309899756</v>
+        <v>0.007527934325814428</v>
       </c>
       <c r="FD6">
-        <v>0.008339538343402959</v>
+        <v>0.008342270674380177</v>
       </c>
       <c r="FE6">
-        <v>0.00413253177016813</v>
+        <v>0.004131586108187233</v>
       </c>
       <c r="FF6">
-        <v>0.001694830569789215</v>
+        <v>0.001691753737416044</v>
       </c>
       <c r="FG6">
-        <v>0.001022252742094011</v>
+        <v>0.001018587905763398</v>
       </c>
       <c r="FH6">
-        <v>0.0004129007470023007</v>
+        <v>0.0004087031821608226</v>
       </c>
       <c r="FI6">
-        <v>1.229555450630258E-05</v>
+        <v>7.747758912546098E-06</v>
       </c>
       <c r="FJ6">
-        <v>5.958149845342872E-05</v>
+        <v>5.50750427924315E-05</v>
       </c>
       <c r="FK6">
-        <v>0.002677155810239103</v>
+        <v>0.002674937779784602</v>
       </c>
       <c r="FL6">
-        <v>0.009309689383351541</v>
+        <v>0.009313269872902111</v>
       </c>
       <c r="FM6">
-        <v>0.01256281451730773</v>
+        <v>0.01256923906500898</v>
       </c>
       <c r="FN6">
-        <v>0.009390741386689076</v>
+        <v>0.009394392736289975</v>
       </c>
       <c r="FO6">
-        <v>0.001976721581396837</v>
+        <v>0.001973891193410572</v>
       </c>
       <c r="FP6">
-        <v>0.0002996010423368801</v>
+        <v>0.0002953044247583402</v>
       </c>
       <c r="FQ6">
-        <v>0.0008041132031115276</v>
+        <v>0.0008002576573835565</v>
       </c>
       <c r="FR6">
-        <v>0.002032202283681404</v>
+        <v>0.002029420399929387</v>
       </c>
       <c r="FS6">
-        <v>0.001979207081499184</v>
+        <v>0.001976378866471699</v>
       </c>
       <c r="FT6">
-        <v>0.006332650260763936</v>
+        <v>0.006333628061505182</v>
       </c>
       <c r="FU6">
-        <v>0.00696639468686007</v>
+        <v>0.006967926541296228</v>
       </c>
       <c r="FV6">
-        <v>0.006381134762760416</v>
+        <v>0.00638215495127877</v>
       </c>
       <c r="FW6">
-        <v>0.006271328258238836</v>
+        <v>0.006272252447964853</v>
       </c>
       <c r="FX6">
-        <v>0.001080333044485624</v>
+        <v>0.001076718985100443</v>
       </c>
       <c r="FY6">
-        <v>0.001024145442171948</v>
+        <v>0.001020482260542234</v>
       </c>
       <c r="FZ6">
-        <v>0.003601978148321154</v>
+        <v>0.003600568647634259</v>
       </c>
       <c r="GA6">
-        <v>0.003890636760207451</v>
+        <v>0.003889479620510094</v>
       </c>
       <c r="GB6">
-        <v>0.00643323126490563</v>
+        <v>0.006434296999007215</v>
       </c>
       <c r="GC6">
-        <v>0.006083509250504883</v>
+        <v>0.006084269238683834</v>
       </c>
       <c r="GD6">
-        <v>0.00428779617656156</v>
+        <v>0.004286986255132387</v>
       </c>
       <c r="GE6">
-        <v>0.001569752164638775</v>
+        <v>0.001566565981950755</v>
       </c>
       <c r="GF6">
-        <v>3.907775860913199E-05</v>
+        <v>3.455337746847375E-05</v>
       </c>
       <c r="GG6">
-        <v>0.001283559652854027</v>
+        <v>0.001280123265174718</v>
       </c>
       <c r="GH6">
-        <v>0.00259480120684793</v>
+        <v>0.002592511177539596</v>
       </c>
       <c r="GI6">
-        <v>0.004672069792385061</v>
+        <v>0.004671595823759476</v>
       </c>
       <c r="GJ6">
-        <v>0.002236393392089523</v>
+        <v>0.002233790023261541</v>
       </c>
       <c r="GK6">
-        <v>0.001008635741533294</v>
+        <v>0.001004959000483423</v>
       </c>
       <c r="GL6">
-        <v>0.0001706605470274078</v>
+        <v>0.0001662512026856674</v>
       </c>
       <c r="GM6">
-        <v>7.370314303492549E-05</v>
+        <v>6.920903328031647E-05</v>
       </c>
       <c r="GN6">
-        <v>0.0003182016531028103</v>
+        <v>0.0003139212971854356</v>
       </c>
       <c r="GO6">
-        <v>0.0005280443217436475</v>
+        <v>0.0005239474216502982</v>
       </c>
       <c r="GP6">
-        <v>0.0009861094406057129</v>
+        <v>0.0009824130058437588</v>
       </c>
       <c r="GQ6">
-        <v>0.001522576362696184</v>
+        <v>0.001519348936367509</v>
       </c>
       <c r="GR6">
-        <v>0.001095838145124088</v>
+        <v>0.001092237641137496</v>
       </c>
       <c r="GS6">
-        <v>3.581982147497765E-05</v>
+        <v>3.129259206925759E-05</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.112188985722799E-05</v>
+        <v>6.511045849146912E-06</v>
       </c>
       <c r="C2">
-        <v>2.691975765443031E-05</v>
+        <v>1.770209115530338E-05</v>
       </c>
       <c r="D2">
-        <v>4.974130736146944E-05</v>
+        <v>3.592285900211504E-05</v>
       </c>
       <c r="E2">
-        <v>8.178986695006118E-05</v>
+        <v>6.337857230628808E-05</v>
       </c>
       <c r="F2">
-        <v>9.127052782835767E-05</v>
+        <v>6.82469776578047E-05</v>
       </c>
       <c r="G2">
-        <v>9.129987982998088E-05</v>
+        <v>6.82469776578047E-05</v>
       </c>
       <c r="H2">
-        <v>9.175073325419327E-05</v>
+        <v>6.82469776578047E-05</v>
       </c>
       <c r="I2">
-        <v>9.191901740203299E-05</v>
+        <v>6.82469776578047E-05</v>
       </c>
       <c r="J2">
-        <v>9.286742368985828E-05</v>
+        <v>6.82469776578047E-05</v>
       </c>
       <c r="K2">
-        <v>9.928053560753299E-05</v>
+        <v>7.004519584112886E-05</v>
       </c>
       <c r="L2">
-        <v>0.0001054601765282048</v>
+        <v>7.160974223360467E-05</v>
       </c>
       <c r="M2">
-        <v>0.00010640858281603</v>
+        <v>7.160974223360467E-05</v>
       </c>
       <c r="N2">
-        <v>0.0001110250217567687</v>
+        <v>7.160974223360467E-05</v>
       </c>
       <c r="O2">
-        <v>0.0001454878213143688</v>
+        <v>0.0001014817718440329</v>
       </c>
       <c r="P2">
-        <v>0.0001743287009441376</v>
+        <v>0.0001257270464638793</v>
       </c>
       <c r="Q2">
-        <v>0.0001843910198149673</v>
+        <v>0.0001311776100556967</v>
       </c>
       <c r="R2">
-        <v>0.0002159149864102933</v>
+        <v>0.0001581082791968838</v>
       </c>
       <c r="S2">
-        <v>0.0002244194093011217</v>
+        <v>0.0001619996069595169</v>
       </c>
       <c r="T2">
-        <v>0.0002247612706767332</v>
+        <v>0.0001619996069595169</v>
       </c>
       <c r="U2">
-        <v>0.0002268322810501476</v>
+        <v>0.0001619996069595169</v>
       </c>
       <c r="V2">
-        <v>0.0002296659516137717</v>
+        <v>0.0001619996069595169</v>
       </c>
       <c r="W2">
-        <v>0.0002307683007996208</v>
+        <v>0.0001619996069595169</v>
       </c>
       <c r="X2">
-        <v>0.0002389728606942987</v>
+        <v>0.0001655908138325357</v>
       </c>
       <c r="Y2">
-        <v>0.0002642508453698045</v>
+        <v>0.0001862701292743487</v>
       </c>
       <c r="Z2">
-        <v>0.0003070191548207865</v>
+        <v>0.000224454811829292</v>
       </c>
       <c r="AA2">
-        <v>0.000444818453051853</v>
+        <v>0.0003577522133916987</v>
       </c>
       <c r="AB2">
-        <v>0.0005025506003107439</v>
+        <v>0.0004109136032183142</v>
       </c>
       <c r="AC2">
-        <v>0.0005725374094123212</v>
+        <v>0.0004763401943580743</v>
       </c>
       <c r="AD2">
-        <v>0.0007441374172094871</v>
+        <v>0.0006434673753690878</v>
       </c>
       <c r="AE2">
-        <v>0.0008741315355407489</v>
+        <v>0.0007689528842831839</v>
       </c>
       <c r="AF2">
-        <v>0.0008937966952883067</v>
+        <v>0.0007840145475563405</v>
       </c>
       <c r="AG2">
-        <v>0.0009046517836489597</v>
+        <v>0.0007902585624495827</v>
       </c>
       <c r="AH2">
-        <v>0.0009079132084070927</v>
+        <v>0.0007902585624495827</v>
       </c>
       <c r="AI2">
-        <v>0.0009107468789707168</v>
+        <v>0.0007902585624495827</v>
       </c>
       <c r="AJ2">
-        <v>0.0009215606228319004</v>
+        <v>0.00079646119728553</v>
       </c>
       <c r="AK2">
-        <v>0.0009282115342465224</v>
+        <v>0.0007984974194823198</v>
       </c>
       <c r="AL2">
-        <v>0.0009300233921232635</v>
+        <v>0.0007984974194823198</v>
       </c>
       <c r="AM2">
-        <v>0.0009302369272805224</v>
+        <v>0.0007984974194823198</v>
       </c>
       <c r="AN2">
-        <v>0.0009358518296084437</v>
+        <v>0.0007994967415855983</v>
       </c>
       <c r="AO2">
-        <v>0.0009526831073923801</v>
+        <v>0.0008117220856499757</v>
       </c>
       <c r="AP2">
-        <v>0.0009674803052024281</v>
+        <v>0.000821911600355123</v>
       </c>
       <c r="AQ2">
-        <v>0.0009949633738496272</v>
+        <v>0.0008447978962238457</v>
       </c>
       <c r="AR2">
-        <v>0.0010279403894263</v>
+        <v>0.0008731828640231975</v>
       </c>
       <c r="AS2">
-        <v>0.001053155259102616</v>
+        <v>0.0008937990101845457</v>
       </c>
       <c r="AT2">
-        <v>0.001074770782825137</v>
+        <v>0.0009108127148190969</v>
       </c>
       <c r="AU2">
-        <v>0.001086442342675309</v>
+        <v>0.0009178739033980716</v>
       </c>
       <c r="AV2">
-        <v>0.001086886039829613</v>
+        <v>0.0009178739033980716</v>
       </c>
       <c r="AW2">
-        <v>0.001089305340798557</v>
+        <v>0.0009178739033980716</v>
       </c>
       <c r="AX2">
-        <v>0.00189092753050811</v>
+        <v>0.00171556510911236</v>
       </c>
       <c r="AY2">
-        <v>0.06279846674863632</v>
+        <v>0.0626708666943154</v>
       </c>
       <c r="AZ2">
-        <v>0.09116364838451169</v>
+        <v>0.09105582304482944</v>
       </c>
       <c r="BA2">
-        <v>0.09778528569950955</v>
+        <v>0.09767853480790892</v>
       </c>
       <c r="BB2">
-        <v>0.09801311046658495</v>
+        <v>0.09790193510360749</v>
       </c>
       <c r="BC2">
-        <v>0.1235457861388213</v>
+        <v>0.1234519494287364</v>
       </c>
       <c r="BD2">
-        <v>0.1245832258255036</v>
+        <v>0.1244856609433472</v>
       </c>
       <c r="BE2">
-        <v>0.1278012244841941</v>
+        <v>0.1277018067927597</v>
       </c>
       <c r="BF2">
-        <v>0.1294553043629606</v>
+        <v>0.1293526888332306</v>
       </c>
       <c r="BG2">
-        <v>0.1758134737678595</v>
+        <v>0.1757461075995173</v>
       </c>
       <c r="BH2">
-        <v>0.1934553175413906</v>
+        <v>0.1933985036134921</v>
       </c>
       <c r="BI2">
-        <v>0.1950005587215543</v>
+        <v>0.1949404533499826</v>
       </c>
       <c r="BJ2">
-        <v>0.1958051210612261</v>
+        <v>0.1957410872342988</v>
       </c>
       <c r="BK2">
-        <v>0.196034000388288</v>
+        <v>0.1959655429969451</v>
       </c>
       <c r="BL2">
-        <v>0.1960874765956015</v>
+        <v>0.1960144447865578</v>
       </c>
       <c r="BM2">
-        <v>0.1960874846789474</v>
+        <v>0.1960144447865578</v>
       </c>
       <c r="BN2">
-        <v>0.215594604428534</v>
+        <v>0.2155337209841377</v>
       </c>
       <c r="BO2">
-        <v>0.2275180942754718</v>
+        <v>0.2274628450718998</v>
       </c>
       <c r="BP2">
-        <v>0.2342366216892259</v>
+        <v>0.2341825302628674</v>
       </c>
       <c r="BQ2">
-        <v>0.2352149870766666</v>
+        <v>0.2351571166721156</v>
       </c>
       <c r="BR2">
-        <v>0.2381788592386193</v>
+        <v>0.2381189174664377</v>
       </c>
       <c r="BS2">
-        <v>0.2388051959005789</v>
+        <v>0.2387411723922504</v>
       </c>
       <c r="BT2">
-        <v>0.2406785274765309</v>
+        <v>0.2406114946946191</v>
       </c>
       <c r="BU2">
-        <v>0.2445451704268947</v>
+        <v>0.2444768426942112</v>
       </c>
       <c r="BV2">
-        <v>0.2490058338696331</v>
+        <v>0.2489367220661605</v>
       </c>
       <c r="BW2">
-        <v>0.2494328803341511</v>
+        <v>0.2493595153974603</v>
       </c>
       <c r="BX2">
-        <v>0.2666722921128483</v>
+        <v>0.2666091333099378</v>
       </c>
       <c r="BY2">
-        <v>0.2786147399595427</v>
+        <v>0.2785572317020499</v>
       </c>
       <c r="BZ2">
-        <v>0.2835806108957957</v>
+        <v>0.2835227530649747</v>
       </c>
       <c r="CA2">
-        <v>0.2911854821981718</v>
+        <v>0.2911295444336711</v>
       </c>
       <c r="CB2">
-        <v>0.2931851781725016</v>
+        <v>0.2931263398125567</v>
       </c>
       <c r="CC2">
-        <v>0.2933736276800825</v>
+        <v>0.2933103309845554</v>
       </c>
       <c r="CD2">
-        <v>0.2940381011215526</v>
+        <v>0.2939707554889445</v>
       </c>
       <c r="CE2">
-        <v>0.2944261805165708</v>
+        <v>0.294354548237598</v>
       </c>
       <c r="CF2">
-        <v>0.297151329281588</v>
+        <v>0.2970774203238775</v>
       </c>
       <c r="CG2">
-        <v>0.3080439831417587</v>
+        <v>0.3079748218671224</v>
       </c>
       <c r="CH2">
-        <v>0.3136741684694838</v>
+        <v>0.3136052289569012</v>
       </c>
       <c r="CI2">
-        <v>0.332190278231792</v>
+        <v>0.3321326428613114</v>
       </c>
       <c r="CJ2">
-        <v>0.3337223251121251</v>
+        <v>0.3336613869503768</v>
       </c>
       <c r="CK2">
-        <v>0.3346355985004014</v>
+        <v>0.3345708253788912</v>
       </c>
       <c r="CL2">
-        <v>0.3400891554303939</v>
+        <v>0.340024452163867</v>
       </c>
       <c r="CM2">
-        <v>0.3400962044699034</v>
+        <v>0.3400268868565638</v>
       </c>
       <c r="CN2">
-        <v>0.3548372282806725</v>
+        <v>0.3547759680934198</v>
       </c>
       <c r="CO2">
-        <v>0.3678951341130478</v>
+        <v>0.367840483807067</v>
       </c>
       <c r="CP2">
-        <v>0.4072200056082333</v>
+        <v>0.4071945557627</v>
       </c>
       <c r="CQ2">
-        <v>0.4528349110226735</v>
+        <v>0.4528440713035192</v>
       </c>
       <c r="CR2">
-        <v>0.4706688367937389</v>
+        <v>0.4706887145127763</v>
       </c>
       <c r="CS2">
-        <v>0.4750621121373423</v>
+        <v>0.4750811478292889</v>
       </c>
       <c r="CT2">
-        <v>0.4868463059860683</v>
+        <v>0.4868708561190375</v>
       </c>
       <c r="CU2">
-        <v>0.5251562184942828</v>
+        <v>0.5252090961847671</v>
       </c>
       <c r="CV2">
-        <v>0.5615200280274796</v>
+        <v>0.5615995595536678</v>
       </c>
       <c r="CW2">
-        <v>0.5891495816727982</v>
+        <v>0.5892482552458638</v>
       </c>
       <c r="CX2">
-        <v>0.5981159505576966</v>
+        <v>0.5982177151362512</v>
       </c>
       <c r="CY2">
-        <v>0.599780017036335</v>
+        <v>0.5998785923654457</v>
       </c>
       <c r="CZ2">
-        <v>0.6012561328173861</v>
+        <v>0.6013513572523784</v>
       </c>
       <c r="DA2">
-        <v>0.6016209887327024</v>
+        <v>0.6017119065482633</v>
       </c>
       <c r="DB2">
-        <v>0.6023948383227685</v>
+        <v>0.6024818012688531</v>
       </c>
       <c r="DC2">
-        <v>0.6083336522465318</v>
+        <v>0.6084211023868796</v>
       </c>
       <c r="DD2">
-        <v>0.624937634033386</v>
+        <v>0.6250347438138032</v>
       </c>
       <c r="DE2">
-        <v>0.6384135073603958</v>
+        <v>0.6385175864898629</v>
       </c>
       <c r="DF2">
-        <v>0.648569967230017</v>
+        <v>0.6486781608880158</v>
       </c>
       <c r="DG2">
-        <v>0.6584563061031058</v>
+        <v>0.6585683819754117</v>
       </c>
       <c r="DH2">
-        <v>0.6609271562713874</v>
+        <v>0.6610367367585904</v>
       </c>
       <c r="DI2">
-        <v>0.6610783744694463</v>
+        <v>0.6611834646007395</v>
       </c>
       <c r="DJ2">
-        <v>0.6651042910177655</v>
+        <v>0.6652082231795764</v>
       </c>
       <c r="DK2">
-        <v>0.6752760858871899</v>
+        <v>0.6753841457662094</v>
       </c>
       <c r="DL2">
-        <v>0.6770984211637965</v>
+        <v>0.6772034279104958</v>
       </c>
       <c r="DM2">
-        <v>0.6782679385487833</v>
+        <v>0.6783693307152032</v>
       </c>
       <c r="DN2">
-        <v>0.6810198685134567</v>
+        <v>0.6811190070339787</v>
       </c>
       <c r="DO2">
-        <v>0.6853127947583484</v>
+        <v>0.6854110049477774</v>
       </c>
       <c r="DP2">
-        <v>0.7020896945429829</v>
+        <v>0.702197713088468</v>
       </c>
       <c r="DQ2">
-        <v>0.7081068174657409</v>
+        <v>0.708215390554176</v>
       </c>
       <c r="DR2">
-        <v>0.7098544642433063</v>
+        <v>0.7099599199645007</v>
       </c>
       <c r="DS2">
-        <v>0.7099433812321649</v>
+        <v>0.7100442930160645</v>
       </c>
       <c r="DT2">
-        <v>0.7213455310857952</v>
+        <v>0.7214516287385012</v>
       </c>
       <c r="DU2">
-        <v>0.7357607569007466</v>
+        <v>0.7358746317809999</v>
       </c>
       <c r="DV2">
-        <v>0.746654529760903</v>
+        <v>0.7467731532866126</v>
       </c>
       <c r="DW2">
-        <v>0.7698405594632632</v>
+        <v>0.7699745034380021</v>
       </c>
       <c r="DX2">
-        <v>0.7791795853433779</v>
+        <v>0.7793169408226487</v>
       </c>
       <c r="DY2">
-        <v>0.7805413389258971</v>
+        <v>0.7806752451552541</v>
       </c>
       <c r="DZ2">
-        <v>0.7808117131024263</v>
+        <v>0.7809412314545002</v>
       </c>
       <c r="EA2">
-        <v>0.7862087283331446</v>
+        <v>0.7863382679122122</v>
       </c>
       <c r="EB2">
-        <v>0.7892703240938428</v>
+        <v>0.789397876351253</v>
       </c>
       <c r="EC2">
-        <v>0.7940583840323784</v>
+        <v>0.7941854337923094</v>
       </c>
       <c r="ED2">
-        <v>0.8014648324373016</v>
+        <v>0.8015936316123924</v>
       </c>
       <c r="EE2">
-        <v>0.8061075368777031</v>
+        <v>0.806235708544115</v>
       </c>
       <c r="EF2">
-        <v>0.8083092574494395</v>
+        <v>0.8084347022691654</v>
       </c>
       <c r="EG2">
-        <v>0.8101276228260971</v>
+        <v>0.8102500110992393</v>
       </c>
       <c r="EH2">
-        <v>0.8101968333752086</v>
+        <v>0.8103146607627763</v>
       </c>
       <c r="EI2">
-        <v>0.8101991453481789</v>
+        <v>0.8103146607627763</v>
       </c>
       <c r="EJ2">
-        <v>0.8102856658470683</v>
+        <v>0.8103966352632993</v>
       </c>
       <c r="EK2">
-        <v>0.8119359635258834</v>
+        <v>0.8120437318509844</v>
       </c>
       <c r="EL2">
-        <v>0.8131138167107632</v>
+        <v>0.8132179776246865</v>
       </c>
       <c r="EM2">
-        <v>0.8142575912960806</v>
+        <v>0.8143581154899476</v>
       </c>
       <c r="EN2">
-        <v>0.8181408282462314</v>
+        <v>0.8182400717607911</v>
       </c>
       <c r="EO2">
-        <v>0.8204513302165714</v>
+        <v>0.8205479404405424</v>
       </c>
       <c r="EP2">
-        <v>0.8223503831921931</v>
+        <v>0.8224440062639528</v>
       </c>
       <c r="EQ2">
-        <v>0.8249110704593215</v>
+        <v>0.8250022754092649</v>
       </c>
       <c r="ER2">
-        <v>0.8254439574524809</v>
+        <v>0.8255310002960445</v>
       </c>
       <c r="ES2">
-        <v>0.8254449750379679</v>
+        <v>0.8255310002960445</v>
       </c>
       <c r="ET2">
-        <v>0.825817872753181</v>
+        <v>0.8258995983080768</v>
       </c>
       <c r="EU2">
-        <v>0.8288846192138131</v>
+        <v>0.8289643618768474</v>
       </c>
       <c r="EV2">
-        <v>0.8369392771104152</v>
+        <v>0.8370213266731712</v>
       </c>
       <c r="EW2">
-        <v>0.8443617500151327</v>
+        <v>0.8444455627747215</v>
       </c>
       <c r="EX2">
-        <v>0.8540376768909226</v>
+        <v>0.8541251909025807</v>
       </c>
       <c r="EY2">
-        <v>0.8594295665217068</v>
+        <v>0.8595170973521495</v>
       </c>
       <c r="EZ2">
-        <v>0.8601206856128348</v>
+        <v>0.8602041904224582</v>
       </c>
       <c r="FA2">
-        <v>0.860848017453498</v>
+        <v>0.8609275273866297</v>
       </c>
       <c r="FB2">
-        <v>0.8634465112201412</v>
+        <v>0.863523635546469</v>
       </c>
       <c r="FC2">
-        <v>0.87132770611897</v>
+        <v>0.8714069881603123</v>
       </c>
       <c r="FD2">
-        <v>0.882675274973301</v>
+        <v>0.8827596959417358</v>
       </c>
       <c r="FE2">
-        <v>0.8873123699137745</v>
+        <v>0.8873961585491493</v>
       </c>
       <c r="FF2">
-        <v>0.8908444305684333</v>
+        <v>0.8909266364996682</v>
       </c>
       <c r="FG2">
-        <v>0.8923209575494792</v>
+        <v>0.8923998129402431</v>
       </c>
       <c r="FH2">
-        <v>0.8927275836042593</v>
+        <v>0.892802168299484</v>
       </c>
       <c r="FI2">
-        <v>0.8928303843429396</v>
+        <v>0.8929004370414171</v>
       </c>
       <c r="FJ2">
-        <v>0.8928308921842331</v>
+        <v>0.8929004370414171</v>
       </c>
       <c r="FK2">
-        <v>0.8953104684524027</v>
+        <v>0.8953775254292582</v>
       </c>
       <c r="FL2">
-        <v>0.9031453493518261</v>
+        <v>0.9032145242119131</v>
       </c>
       <c r="FM2">
-        <v>0.9118103222405937</v>
+        <v>0.9118823288942681</v>
       </c>
       <c r="FN2">
-        <v>0.9213790031177602</v>
+        <v>0.9214546187879085</v>
       </c>
       <c r="FO2">
-        <v>0.9244033862789361</v>
+        <v>0.9244769826231908</v>
       </c>
       <c r="FP2">
-        <v>0.9251304296396031</v>
+        <v>0.9252000308592623</v>
       </c>
       <c r="FQ2">
-        <v>0.9251962874087577</v>
+        <v>0.9252613248593252</v>
       </c>
       <c r="FR2">
-        <v>0.926403864693256</v>
+        <v>0.9264653202964902</v>
       </c>
       <c r="FS2">
-        <v>0.9281910787703135</v>
+        <v>0.9282494510356739</v>
       </c>
       <c r="FT2">
-        <v>0.9338535316976244</v>
+        <v>0.9339121534763888</v>
       </c>
       <c r="FU2">
-        <v>0.9405939276110977</v>
+        <v>0.9406537259748086</v>
       </c>
       <c r="FV2">
-        <v>0.9472638460254758</v>
+        <v>0.947324760360831</v>
       </c>
       <c r="FW2">
-        <v>0.9532817989482231</v>
+        <v>0.9533432685403596</v>
       </c>
       <c r="FX2">
-        <v>0.9546375501308193</v>
+        <v>0.9546955653107522</v>
       </c>
       <c r="FY2">
-        <v>0.9557021382171531</v>
+        <v>0.95575644857366</v>
       </c>
       <c r="FZ2">
-        <v>0.9591538411728435</v>
+        <v>0.9592064997145646</v>
       </c>
       <c r="GA2">
-        <v>0.9640065034105497</v>
+        <v>0.9640587150152007</v>
       </c>
       <c r="GB2">
-        <v>0.97064897902528</v>
+        <v>0.9707022829997348</v>
       </c>
       <c r="GC2">
-        <v>0.9760084632564802</v>
+        <v>0.9760617561798562</v>
       </c>
       <c r="GD2">
-        <v>0.9792595364147461</v>
+        <v>0.9793110049741588</v>
       </c>
       <c r="GE2">
-        <v>0.9808217773946916</v>
+        <v>0.9808699691308987</v>
       </c>
       <c r="GF2">
-        <v>0.9810879604412746</v>
+        <v>0.9811317606956691</v>
       </c>
       <c r="GG2">
-        <v>0.9829870134168963</v>
+        <v>0.9830278265190795</v>
       </c>
       <c r="GH2">
-        <v>0.985581950983585</v>
+        <v>0.9856203754204987</v>
       </c>
       <c r="GI2">
-        <v>0.990887857915473</v>
+        <v>0.9909262252228138</v>
       </c>
       <c r="GJ2">
-        <v>0.993769984578475</v>
+        <v>0.9938062102139792</v>
       </c>
       <c r="GK2">
-        <v>0.9946085496277103</v>
+        <v>0.994640876051469</v>
       </c>
       <c r="GL2">
-        <v>0.9948065240851689</v>
+        <v>0.9948344003651609</v>
       </c>
       <c r="GM2">
-        <v>0.9948116823466027</v>
+        <v>0.9948349426536417</v>
       </c>
       <c r="GN2">
-        <v>0.994911207635325</v>
+        <v>0.9949299331286066</v>
       </c>
       <c r="GO2">
-        <v>0.9957010187251862</v>
+        <v>0.995715803076482</v>
       </c>
       <c r="GP2">
-        <v>0.9964980372149549</v>
+        <v>0.9965088866229002</v>
       </c>
       <c r="GQ2">
-        <v>0.9985170653890366</v>
+        <v>0.9985250308279571</v>
       </c>
       <c r="GR2">
-        <v>0.9998630186717585</v>
+        <v>0.9998675212719127</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.00346149457641E-05</v>
+        <v>7.714169263213267E-06</v>
       </c>
       <c r="C3">
-        <v>2.421989986909432E-05</v>
+        <v>1.958085163508043E-05</v>
       </c>
       <c r="D3">
-        <v>2.528918736331495E-05</v>
+        <v>1.958085163508043E-05</v>
       </c>
       <c r="E3">
-        <v>2.893962284358478E-05</v>
+        <v>2.09080064977874E-05</v>
       </c>
       <c r="F3">
-        <v>3.056117783482047E-05</v>
+        <v>2.09080064977874E-05</v>
       </c>
       <c r="G3">
-        <v>3.265552812350075E-05</v>
+        <v>2.09080064977874E-05</v>
       </c>
       <c r="H3">
-        <v>6.509131394818919E-05</v>
+        <v>5.103329402063044E-05</v>
       </c>
       <c r="I3">
-        <v>7.188123351149048E-05</v>
+        <v>5.550132707400554E-05</v>
       </c>
       <c r="J3">
-        <v>8.823754342308657E-05</v>
+        <v>6.953999849142807E-05</v>
       </c>
       <c r="K3">
-        <v>9.18879789033564E-05</v>
+        <v>7.086715335413504E-05</v>
       </c>
       <c r="L3">
-        <v>9.925364726354584E-05</v>
+        <v>7.591119086926974E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001006207435561569</v>
+        <v>7.591119086926974E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001028283620442249</v>
+        <v>7.591119086926974E-05</v>
       </c>
       <c r="O3">
-        <v>0.0001057122740286377</v>
+        <v>7.647148185654426E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001103432837036077</v>
+        <v>7.877964634408477E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0001126671533910474</v>
+        <v>7.877964634408477E-05</v>
       </c>
       <c r="R3">
-        <v>0.0001185815996590806</v>
+        <v>8.237181734277315E-05</v>
       </c>
       <c r="S3">
-        <v>0.0001189503286170876</v>
+        <v>8.237181734277315E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001237490425911512</v>
+        <v>8.484776059955515E-05</v>
       </c>
       <c r="U3">
-        <v>0.0001241661638588967</v>
+        <v>8.484776059955515E-05</v>
       </c>
       <c r="V3">
-        <v>0.000137072590789139</v>
+        <v>9.543501709340578E-05</v>
       </c>
       <c r="W3">
-        <v>0.0001680095946219281</v>
+        <v>0.0001240608570807872</v>
       </c>
       <c r="X3">
-        <v>0.0002235779703215877</v>
+        <v>0.0001773290066505085</v>
       </c>
       <c r="Y3">
-        <v>0.0003109394298494094</v>
+        <v>0.0002624043579670644</v>
       </c>
       <c r="Z3">
-        <v>0.0003707604535260839</v>
+        <v>0.0003199270439288599</v>
       </c>
       <c r="AA3">
-        <v>0.0003817335479667756</v>
+        <v>0.0003285801094247183</v>
       </c>
       <c r="AB3">
-        <v>0.0003909300939170693</v>
+        <v>0.000335455837542657</v>
       </c>
       <c r="AC3">
-        <v>0.0003948513702958753</v>
+        <v>0.0003370539535725032</v>
       </c>
       <c r="AD3">
-        <v>0.0003969457205845556</v>
+        <v>0.0003370539535725032</v>
       </c>
       <c r="AE3">
-        <v>0.0003986724453752228</v>
+        <v>0.0003370539535725032</v>
       </c>
       <c r="AF3">
-        <v>0.0004074636583277074</v>
+        <v>0.0003435241687019678</v>
       </c>
       <c r="AG3">
-        <v>0.0004109680146087668</v>
+        <v>0.0003447051794980779</v>
       </c>
       <c r="AH3">
-        <v>0.0004701619542888305</v>
+        <v>0.0004016005030026732</v>
       </c>
       <c r="AI3">
-        <v>0.0005042682891044899</v>
+        <v>0.0004333970813342649</v>
       </c>
       <c r="AJ3">
-        <v>0.0005091947390778631</v>
+        <v>0.0004360008173123297</v>
       </c>
       <c r="AK3">
-        <v>0.0005420719029001659</v>
+        <v>0.0004665676788294608</v>
       </c>
       <c r="AL3">
-        <v>0.0006621286022512737</v>
+        <v>0.0005843527884960145</v>
       </c>
       <c r="AM3">
-        <v>0.0006945643880759622</v>
+        <v>0.0006144780760188576</v>
       </c>
       <c r="AN3">
-        <v>0.0007181381879485485</v>
+        <v>0.0006357374423690448</v>
       </c>
       <c r="AO3">
-        <v>0.0007186500700957819</v>
+        <v>0.0006357374423690448</v>
       </c>
       <c r="AP3">
-        <v>0.0007422435649682618</v>
+        <v>0.000657016512464814</v>
       </c>
       <c r="AQ3">
-        <v>0.0007451274769526746</v>
+        <v>0.0006575768034520885</v>
       </c>
       <c r="AR3">
-        <v>0.0007860879067312883</v>
+        <v>0.0006962305203505764</v>
       </c>
       <c r="AS3">
-        <v>0.0007867010616279743</v>
+        <v>0.0006962305203505764</v>
       </c>
       <c r="AT3">
-        <v>0.000786728333888827</v>
+        <v>0.0006962305203505764</v>
       </c>
       <c r="AU3">
-        <v>0.0008255197636791639</v>
+        <v>0.0007327142741027119</v>
       </c>
       <c r="AV3">
-        <v>0.000858420177501341</v>
+        <v>0.0007633043959440259</v>
       </c>
       <c r="AW3">
-        <v>0.0008586080533403256</v>
+        <v>0.0007633043959440259</v>
       </c>
       <c r="AX3">
-        <v>0.002415512444925442</v>
+        <v>0.002318575239091969</v>
       </c>
       <c r="AY3">
-        <v>0.03227880228351791</v>
+        <v>0.03219280115759206</v>
       </c>
       <c r="AZ3">
-        <v>0.03465209557069054</v>
+        <v>0.03456482341894707</v>
       </c>
       <c r="BA3">
-        <v>0.0348573447195812</v>
+        <v>0.03476783880839576</v>
       </c>
       <c r="BB3">
-        <v>0.05738740259780891</v>
+        <v>0.05730557639879454</v>
       </c>
       <c r="BC3">
-        <v>0.09092002241656907</v>
+        <v>0.09085076168649936</v>
       </c>
       <c r="BD3">
-        <v>0.09355331240233646</v>
+        <v>0.09348289609961705</v>
       </c>
       <c r="BE3">
-        <v>0.0935540995546322</v>
+        <v>0.09348289609961705</v>
       </c>
       <c r="BF3">
-        <v>0.1011431435136143</v>
+        <v>0.1010729851196449</v>
       </c>
       <c r="BG3">
-        <v>0.1445564032789708</v>
+        <v>0.1445031979142077</v>
       </c>
       <c r="BH3">
-        <v>0.1486736737567175</v>
+        <v>0.1486199717901679</v>
       </c>
       <c r="BI3">
-        <v>0.1591769216999487</v>
+        <v>0.1591255588650379</v>
       </c>
       <c r="BJ3">
-        <v>0.1596090427376131</v>
+        <v>0.1595555468871483</v>
       </c>
       <c r="BK3">
-        <v>0.1612673558286501</v>
+        <v>0.1612122714609185</v>
       </c>
       <c r="BL3">
-        <v>0.1612718306899259</v>
+        <v>0.1612144234076682</v>
       </c>
       <c r="BM3">
-        <v>0.1628310215814986</v>
+        <v>0.1627719817661384</v>
       </c>
       <c r="BN3">
-        <v>0.1769100045054034</v>
+        <v>0.1768548916492713</v>
       </c>
       <c r="BO3">
-        <v>0.1834837942698729</v>
+        <v>0.1834292756447813</v>
       </c>
       <c r="BP3">
-        <v>0.1904903182320035</v>
+        <v>0.1904365859962923</v>
       </c>
       <c r="BQ3">
-        <v>0.1914705770267053</v>
+        <v>0.1914149551794558</v>
       </c>
       <c r="BR3">
-        <v>0.1916157805759205</v>
+        <v>0.1915578983056031</v>
       </c>
       <c r="BS3">
-        <v>0.1916169062973144</v>
+        <v>0.1915578983056031</v>
       </c>
       <c r="BT3">
-        <v>0.1923745019332196</v>
+        <v>0.1923135054549951</v>
       </c>
       <c r="BU3">
-        <v>0.1936169369265044</v>
+        <v>0.1935541672577302</v>
       </c>
       <c r="BV3">
-        <v>0.1947289074204943</v>
+        <v>0.1946643066275896</v>
       </c>
       <c r="BW3">
-        <v>0.1957607371149174</v>
+        <v>0.1956942696108565</v>
       </c>
       <c r="BX3">
-        <v>0.2083036640471244</v>
+        <v>0.2082404414069754</v>
       </c>
       <c r="BY3">
-        <v>0.214293319014751</v>
+        <v>0.2142304312169151</v>
       </c>
       <c r="BZ3">
-        <v>0.2229431499679997</v>
+        <v>0.2228817782803407</v>
       </c>
       <c r="CA3">
-        <v>0.2343186889065163</v>
+        <v>0.2342600436967943</v>
       </c>
       <c r="CB3">
-        <v>0.2389359715815604</v>
+        <v>0.2388770518036105</v>
       </c>
       <c r="CC3">
-        <v>0.2389381852288484</v>
+        <v>0.2388770518036105</v>
       </c>
       <c r="CD3">
-        <v>0.2401976940220409</v>
+        <v>0.2401347949879814</v>
       </c>
       <c r="CE3">
-        <v>0.2428169226078843</v>
+        <v>0.2427528617571221</v>
       </c>
       <c r="CF3">
-        <v>0.2483850585777892</v>
+        <v>0.2483211453911801</v>
       </c>
       <c r="CG3">
-        <v>0.2565024155339158</v>
+        <v>0.256439782009059</v>
       </c>
       <c r="CH3">
-        <v>0.2682784614702677</v>
+        <v>0.2682187322709973</v>
       </c>
       <c r="CI3">
-        <v>0.2814558993990452</v>
+        <v>0.2813996968222823</v>
       </c>
       <c r="CJ3">
-        <v>0.2832034497895999</v>
+        <v>0.2831456983219537</v>
       </c>
       <c r="CK3">
-        <v>0.2855842743767318</v>
+        <v>0.2855252552275891</v>
       </c>
       <c r="CL3">
-        <v>0.2873553120671595</v>
+        <v>0.2872947544568167</v>
       </c>
       <c r="CM3">
-        <v>0.2907955030485657</v>
+        <v>0.2907341481750312</v>
       </c>
       <c r="CN3">
-        <v>0.2985877453064495</v>
+        <v>0.2985275257254424</v>
       </c>
       <c r="CO3">
-        <v>0.3131967822274894</v>
+        <v>0.3131407249795189</v>
       </c>
       <c r="CP3">
-        <v>0.3657130559436452</v>
+        <v>0.3656779939754323</v>
       </c>
       <c r="CQ3">
-        <v>0.4100525297039956</v>
+        <v>0.4100348320561341</v>
       </c>
       <c r="CR3">
-        <v>0.4319557815856112</v>
+        <v>0.4319454853127788</v>
       </c>
       <c r="CS3">
-        <v>0.435050615368884</v>
+        <v>0.4350393684748257</v>
       </c>
       <c r="CT3">
-        <v>0.4542957832648661</v>
+        <v>0.4542907574069389</v>
       </c>
       <c r="CU3">
-        <v>0.5003626710158801</v>
+        <v>0.5003757765473424</v>
       </c>
       <c r="CV3">
-        <v>0.5435099507826742</v>
+        <v>0.543539891233253</v>
       </c>
       <c r="CW3">
-        <v>0.5752566176110872</v>
+        <v>0.5752983304669618</v>
       </c>
       <c r="CX3">
-        <v>0.582176134273688</v>
+        <v>0.5822185948828049</v>
       </c>
       <c r="CY3">
-        <v>0.5848022850594939</v>
+        <v>0.5848435869257546</v>
       </c>
       <c r="CZ3">
-        <v>0.5858160765540146</v>
+        <v>0.5858555036991429</v>
       </c>
       <c r="DA3">
-        <v>0.5858473139338457</v>
+        <v>0.5858844300485124</v>
       </c>
       <c r="DB3">
-        <v>0.5872477589262765</v>
+        <v>0.5872831720157266</v>
       </c>
       <c r="DC3">
-        <v>0.5964021938767978</v>
+        <v>0.5964393471490009</v>
       </c>
       <c r="DD3">
-        <v>0.6150103917762227</v>
+        <v>0.615053483234027</v>
       </c>
       <c r="DE3">
-        <v>0.6312667966883588</v>
+        <v>0.6313147820033087</v>
       </c>
       <c r="DF3">
-        <v>0.6474346926009733</v>
+        <v>0.6474875324700914</v>
       </c>
       <c r="DG3">
-        <v>0.656084523554222</v>
+        <v>0.656138879533517</v>
       </c>
       <c r="DH3">
-        <v>0.6573169125475611</v>
+        <v>0.6573694908753169</v>
       </c>
       <c r="DI3">
-        <v>0.6577549906151933</v>
+        <v>0.6578054385726517</v>
       </c>
       <c r="DJ3">
-        <v>0.6612278654964228</v>
+        <v>0.6612775307041806</v>
       </c>
       <c r="DK3">
-        <v>0.6717306954396562</v>
+        <v>0.6717826995934374</v>
       </c>
       <c r="DL3">
-        <v>0.6738354849282802</v>
+        <v>0.6738860988254445</v>
       </c>
       <c r="DM3">
-        <v>0.6767951778122834</v>
+        <v>0.6768447810780562</v>
       </c>
       <c r="DN3">
-        <v>0.6781481879049706</v>
+        <v>0.6781960670817614</v>
       </c>
       <c r="DO3">
-        <v>0.6828654488794743</v>
+        <v>0.6829130978840294</v>
       </c>
       <c r="DP3">
-        <v>0.6981180777970357</v>
+        <v>0.698170174925698</v>
       </c>
       <c r="DQ3">
-        <v>0.7038970982658008</v>
+        <v>0.7039494367032032</v>
       </c>
       <c r="DR3">
-        <v>0.7079413339439422</v>
+        <v>0.7079931433479965</v>
       </c>
       <c r="DS3">
-        <v>0.7084509029411881</v>
+        <v>0.7085006137209414</v>
       </c>
       <c r="DT3">
-        <v>0.7221842628669609</v>
+        <v>0.7222377471298781</v>
       </c>
       <c r="DU3">
-        <v>0.7322314818126568</v>
+        <v>0.7322871027046707</v>
       </c>
       <c r="DV3">
-        <v>0.7466474487347403</v>
+        <v>0.7467071462258443</v>
       </c>
       <c r="DW3">
-        <v>0.7665332846272598</v>
+        <v>0.7665994876471449</v>
       </c>
       <c r="DX3">
-        <v>0.7709854363031964</v>
+        <v>0.7710512914273957</v>
       </c>
       <c r="DY3">
-        <v>0.774819079682476</v>
+        <v>0.7748843122584934</v>
       </c>
       <c r="DZ3">
-        <v>0.774834076225895</v>
+        <v>0.7748969905596054</v>
       </c>
       <c r="EA3">
-        <v>0.7793040129017355</v>
+        <v>0.779366587237301</v>
       </c>
       <c r="EB3">
-        <v>0.7817915305882908</v>
+        <v>0.7818528846201011</v>
       </c>
       <c r="EC3">
-        <v>0.7884265203524294</v>
+        <v>0.7884884957915247</v>
       </c>
       <c r="ED3">
-        <v>0.7964415593091091</v>
+        <v>0.796504768975006</v>
       </c>
       <c r="EE3">
-        <v>0.7997836894910453</v>
+        <v>0.7998460583492362</v>
       </c>
       <c r="EF3">
-        <v>0.8027707580749005</v>
+        <v>0.8028321284580514</v>
       </c>
       <c r="EG3">
-        <v>0.8040731124678614</v>
+        <v>0.8041327362680486</v>
       </c>
       <c r="EH3">
-        <v>0.8040779111818355</v>
+        <v>0.8041352122113054</v>
       </c>
       <c r="EI3">
-        <v>0.8041431967114826</v>
+        <v>0.8041982018297859</v>
       </c>
       <c r="EJ3">
-        <v>0.804411032250035</v>
+        <v>0.8044638314007759</v>
       </c>
       <c r="EK3">
-        <v>0.8051939266858035</v>
+        <v>0.8052447485841223</v>
       </c>
       <c r="EL3">
-        <v>0.8056587557832912</v>
+        <v>0.8057074591902755</v>
       </c>
       <c r="EM3">
-        <v>0.8073488375741564</v>
+        <v>0.8073959665709648</v>
       </c>
       <c r="EN3">
-        <v>0.8128540565444013</v>
+        <v>0.8129013052666738</v>
       </c>
       <c r="EO3">
-        <v>0.815179813031831</v>
+        <v>0.8152257696192711</v>
       </c>
       <c r="EP3">
-        <v>0.8185221774137659</v>
+        <v>0.818567293297498</v>
       </c>
       <c r="EQ3">
-        <v>0.8214674018978473</v>
+        <v>0.821511500725404</v>
       </c>
       <c r="ER3">
-        <v>0.8216639509667849</v>
+        <v>0.8217058121715746</v>
       </c>
       <c r="ES3">
-        <v>0.8218256531159109</v>
+        <v>0.8218652612239398</v>
       </c>
       <c r="ET3">
-        <v>0.8220559680346661</v>
+        <v>0.8220933535138656</v>
       </c>
       <c r="EU3">
-        <v>0.8243149675224565</v>
+        <v>0.8243510312229585</v>
       </c>
       <c r="EV3">
-        <v>0.8301101459911342</v>
+        <v>0.8301464581754378</v>
       </c>
       <c r="EW3">
-        <v>0.8389437409433896</v>
+        <v>0.8389816508394288</v>
       </c>
       <c r="EX3">
-        <v>0.848998294889046</v>
+        <v>0.8490383446713345</v>
       </c>
       <c r="EY3">
-        <v>0.8550686032562367</v>
+        <v>0.8551090236954872</v>
       </c>
       <c r="EZ3">
-        <v>0.8560603823508762</v>
+        <v>0.8560989182942501</v>
       </c>
       <c r="FA3">
-        <v>0.856285223919661</v>
+        <v>0.8563215348037301</v>
       </c>
       <c r="FB3">
-        <v>0.8594156077027416</v>
+        <v>0.8594509837517856</v>
       </c>
       <c r="FC3">
-        <v>0.8678654726570711</v>
+        <v>0.8679022760201336</v>
       </c>
       <c r="FD3">
-        <v>0.8769314436080706</v>
+        <v>0.8769699478708912</v>
       </c>
       <c r="FE3">
-        <v>0.8824524335782303</v>
+        <v>0.8824910645697266</v>
       </c>
       <c r="FF3">
-        <v>0.8863292379572767</v>
+        <v>0.8863672655665042</v>
       </c>
       <c r="FG3">
-        <v>0.88717044945273</v>
+        <v>0.8872065257055922</v>
       </c>
       <c r="FH3">
-        <v>0.8872370221723702</v>
+        <v>0.8872708030856505</v>
       </c>
       <c r="FI3">
-        <v>0.8872612767752391</v>
+        <v>0.8872927435573119</v>
       </c>
       <c r="FJ3">
-        <v>0.8873026087870157</v>
+        <v>0.8873317690212117</v>
       </c>
       <c r="FK3">
-        <v>0.8885518592802637</v>
+        <v>0.8885792493503755</v>
       </c>
       <c r="FL3">
-        <v>0.895279971243899</v>
+        <v>0.8953080240727936</v>
       </c>
       <c r="FM3">
-        <v>0.9090196436696377</v>
+        <v>0.9090514727848015</v>
       </c>
       <c r="FN3">
-        <v>0.9204174136080341</v>
+        <v>0.9204519790729502</v>
       </c>
       <c r="FO3">
-        <v>0.9234660050915569</v>
+        <v>0.9234995994010632</v>
       </c>
       <c r="FP3">
-        <v>0.9237514346900141</v>
+        <v>0.923782830844711</v>
       </c>
       <c r="FQ3">
-        <v>0.9242754893171816</v>
+        <v>0.9243047932800127</v>
       </c>
       <c r="FR3">
-        <v>0.9257476447092248</v>
+        <v>0.9257752774902929</v>
       </c>
       <c r="FS3">
-        <v>0.9271873821014431</v>
+        <v>0.9272133293053317</v>
       </c>
       <c r="FT3">
-        <v>0.9322436827741144</v>
+        <v>0.9322695503584759</v>
       </c>
       <c r="FU3">
-        <v>0.9381677637420954</v>
+        <v>0.9381939370502234</v>
       </c>
       <c r="FV3">
-        <v>0.9451810953041893</v>
+        <v>0.9452080580246551</v>
       </c>
       <c r="FW3">
-        <v>0.9529545992621744</v>
+        <v>0.9529826889543078</v>
       </c>
       <c r="FX3">
-        <v>0.9544134492542895</v>
+        <v>0.9544398618563135</v>
       </c>
       <c r="FY3">
-        <v>0.9545924833133218</v>
+        <v>0.9546166505149285</v>
       </c>
       <c r="FZ3">
-        <v>0.9582451417935797</v>
+        <v>0.9582686060795227</v>
       </c>
       <c r="GA3">
-        <v>0.9660609057513364</v>
+        <v>0.9660855157747654</v>
       </c>
       <c r="GB3">
-        <v>0.9726393937157805</v>
+        <v>0.9726646000565152</v>
       </c>
       <c r="GC3">
-        <v>0.977166313691313</v>
+        <v>0.9771912053376952</v>
       </c>
       <c r="GD3">
-        <v>0.9796154582780757</v>
+        <v>0.9796391125808865</v>
       </c>
       <c r="GE3">
-        <v>0.9803070594743377</v>
+        <v>0.9803286959853896</v>
       </c>
       <c r="GF3">
-        <v>0.9805310332831272</v>
+        <v>0.98055044434954</v>
       </c>
       <c r="GG3">
-        <v>0.9817124430767418</v>
+        <v>0.9817300538539815</v>
       </c>
       <c r="GH3">
-        <v>0.9845589566613567</v>
+        <v>0.9845755065492258</v>
       </c>
       <c r="GI3">
-        <v>0.9892579470359593</v>
+        <v>0.9892742586384178</v>
       </c>
       <c r="GJ3">
-        <v>0.9919170627215871</v>
+        <v>0.9919322302194602</v>
       </c>
       <c r="GK3">
-        <v>0.9934986047130391</v>
+        <v>0.9935121496029561</v>
       </c>
       <c r="GL3">
-        <v>0.9940472532100737</v>
+        <v>0.9940587168291873</v>
       </c>
       <c r="GM3">
-        <v>0.9940474107041728</v>
+        <v>0.9940587168291873</v>
       </c>
       <c r="GN3">
-        <v>0.9940670398610667</v>
+        <v>0.9940760298009154</v>
       </c>
       <c r="GO3">
-        <v>0.9951168039553928</v>
+        <v>0.9951239351479683</v>
       </c>
       <c r="GP3">
-        <v>0.9970177188451186</v>
+        <v>0.9970233692492805</v>
       </c>
       <c r="GQ3">
-        <v>0.9989891518344632</v>
+        <v>0.9989933527642169</v>
       </c>
       <c r="GR3">
-        <v>0.9999937421290336</v>
+        <v>0.9999960642518043</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.703352430092923E-06</v>
+        <v>2.282135313004294E-06</v>
       </c>
       <c r="C4">
-        <v>4.871209590460254E-05</v>
+        <v>4.388780842271693E-05</v>
       </c>
       <c r="D4">
-        <v>5.915744130518486E-05</v>
+        <v>5.191458770449169E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001419737365526802</v>
+        <v>0.0001323457294940152</v>
       </c>
       <c r="F4">
-        <v>0.0001627554753600972</v>
+        <v>0.0001507136743516772</v>
       </c>
       <c r="G4">
-        <v>0.0001636306406098749</v>
+        <v>0.0001507136743516772</v>
       </c>
       <c r="H4">
-        <v>0.0001728493150808511</v>
+        <v>0.0001575132163669411</v>
       </c>
       <c r="I4">
-        <v>0.0001774426488172575</v>
+        <v>0.0001596852821921585</v>
       </c>
       <c r="J4">
-        <v>0.0001778714631226495</v>
+        <v>0.0001596852821921585</v>
       </c>
       <c r="K4">
-        <v>0.0001908144703799008</v>
+        <v>0.0001702108764663379</v>
       </c>
       <c r="L4">
-        <v>0.0002004514693268709</v>
+        <v>0.0001774289360921873</v>
       </c>
       <c r="M4">
-        <v>0.0002008916075216131</v>
+        <v>0.0001774289360921873</v>
       </c>
       <c r="N4">
-        <v>0.0002047516047001029</v>
+        <v>0.0001788673267882002</v>
       </c>
       <c r="O4">
-        <v>0.000222261486695279</v>
+        <v>0.000193961904262844</v>
       </c>
       <c r="P4">
-        <v>0.0002223604855645978</v>
+        <v>0.000193961904262844</v>
       </c>
       <c r="Q4">
-        <v>0.0002229205786324563</v>
+        <v>0.000193961904262844</v>
       </c>
       <c r="R4">
-        <v>0.0002258722530630712</v>
+        <v>0.0001944915528510044</v>
       </c>
       <c r="S4">
-        <v>0.0002259105012608763</v>
+        <v>0.0001944915528510044</v>
       </c>
       <c r="T4">
-        <v>0.0002285216313110337</v>
+        <v>0.000194680499834104</v>
       </c>
       <c r="U4">
-        <v>0.0002309439015720291</v>
+        <v>0.000194680499834104</v>
       </c>
       <c r="V4">
-        <v>0.0002630277257308634</v>
+        <v>0.0002243557480587736</v>
       </c>
       <c r="W4">
-        <v>0.0002997997186206619</v>
+        <v>0.0002587213294766963</v>
       </c>
       <c r="X4">
-        <v>0.0003165347016603064</v>
+        <v>0.0002730406502357399</v>
       </c>
       <c r="Y4">
-        <v>0.0003337603226717951</v>
+        <v>0.0002878508354873542</v>
       </c>
       <c r="Z4">
-        <v>0.0003460389319671735</v>
+        <v>0.0002977117250563639</v>
       </c>
       <c r="AA4">
-        <v>0.0003775482201589782</v>
+        <v>0.00032681217205874</v>
       </c>
       <c r="AB4">
-        <v>0.00037978897443039</v>
+        <v>0.00032681217205874</v>
       </c>
       <c r="AC4">
-        <v>0.0003813307463419138</v>
+        <v>0.00032681217205874</v>
       </c>
       <c r="AD4">
-        <v>0.0003859240800783202</v>
+        <v>0.0003289842378839574</v>
       </c>
       <c r="AE4">
-        <v>0.0003899868528451735</v>
+        <v>0.0003306254977870022</v>
       </c>
       <c r="AF4">
-        <v>0.0003908781637940247</v>
+        <v>0.0003306254977870022</v>
       </c>
       <c r="AG4">
-        <v>0.0003976958198027859</v>
+        <v>0.0003350229128232264</v>
       </c>
       <c r="AH4">
-        <v>0.0004117637829954803</v>
+        <v>0.0003466739824093558</v>
       </c>
       <c r="AI4">
-        <v>0.0004122039211902225</v>
+        <v>0.0003466739824093558</v>
       </c>
       <c r="AJ4">
-        <v>0.0004146261914512179</v>
+        <v>0.0003466739824093558</v>
       </c>
       <c r="AK4">
-        <v>0.0004266669497602456</v>
+        <v>0.000356296911179523</v>
       </c>
       <c r="AL4">
-        <v>0.0004319399234576502</v>
+        <v>0.0003591489307460544</v>
       </c>
       <c r="AM4">
-        <v>0.0004446386997289169</v>
+        <v>0.0003694301812762004</v>
       </c>
       <c r="AN4">
-        <v>0.0004509333773676898</v>
+        <v>0.0003733043764905976</v>
       </c>
       <c r="AO4">
-        <v>0.0004532771385331905</v>
+        <v>0.0003733043764905976</v>
       </c>
       <c r="AP4">
-        <v>0.0004813526239220478</v>
+        <v>0.0003989694353510377</v>
       </c>
       <c r="AQ4">
-        <v>0.0004838822167768843</v>
+        <v>0.0003990768074942275</v>
       </c>
       <c r="AR4">
-        <v>0.0004884759155132698</v>
+        <v>0.0004012492384879394</v>
       </c>
       <c r="AS4">
-        <v>0.0004987025199264048</v>
+        <v>0.0004090571757925957</v>
       </c>
       <c r="AT4">
-        <v>0.0005390662416100881</v>
+        <v>0.0004470161442556248</v>
       </c>
       <c r="AU4">
-        <v>0.0005624856722661382</v>
+        <v>0.0004680229987475552</v>
       </c>
       <c r="AV4">
-        <v>0.0005693033282748995</v>
+        <v>0.0004724204137837793</v>
       </c>
       <c r="AW4">
-        <v>0.0005735044010338164</v>
+        <v>0.0004742000375300702</v>
       </c>
       <c r="AX4">
-        <v>0.0005745633598730469</v>
+        <v>0.0004742000375300702</v>
       </c>
       <c r="AY4">
-        <v>0.04168886500048342</v>
+        <v>0.0416050601907022</v>
       </c>
       <c r="AZ4">
-        <v>0.04232134716418773</v>
+        <v>0.04223541097403393</v>
       </c>
       <c r="BA4">
-        <v>0.0781410151086365</v>
+        <v>0.0780691929723174</v>
       </c>
       <c r="BB4">
-        <v>0.07814814720692721</v>
+        <v>0.07807390497480921</v>
       </c>
       <c r="BC4">
-        <v>0.08582507876637802</v>
+        <v>0.08575195747818236</v>
       </c>
       <c r="BD4">
-        <v>0.09354678732325925</v>
+        <v>0.09347480765190279</v>
       </c>
       <c r="BE4">
-        <v>0.09489422304593516</v>
+        <v>0.09482044207831901</v>
       </c>
       <c r="BF4">
-        <v>0.1009250986998467</v>
+        <v>0.1008516787150386</v>
       </c>
       <c r="BG4">
-        <v>0.1636437401006682</v>
+        <v>0.1635968530515642</v>
       </c>
       <c r="BH4">
-        <v>0.1643825903282684</v>
+        <v>0.1643336210074474</v>
       </c>
       <c r="BI4">
-        <v>0.1731748598237143</v>
+        <v>0.1731275263828259</v>
       </c>
       <c r="BJ4">
-        <v>0.1747537391331086</v>
+        <v>0.174704711250245</v>
       </c>
       <c r="BK4">
-        <v>0.179727252347698</v>
+        <v>0.1796780972781126</v>
       </c>
       <c r="BL4">
-        <v>0.181182918364163</v>
+        <v>0.181132011966739</v>
       </c>
       <c r="BM4">
-        <v>0.1812743029489188</v>
+        <v>0.1812210153538969</v>
       </c>
       <c r="BN4">
-        <v>0.2034900296740448</v>
+        <v>0.2034445753824328</v>
       </c>
       <c r="BO4">
-        <v>0.2185330568107841</v>
+        <v>0.2184921242869572</v>
       </c>
       <c r="BP4">
-        <v>0.2248526500481272</v>
+        <v>0.2248122118040005</v>
       </c>
       <c r="BQ4">
-        <v>0.2297878507649153</v>
+        <v>0.2297472676457194</v>
       </c>
       <c r="BR4">
-        <v>0.2373622768302485</v>
+        <v>0.2373227673296142</v>
       </c>
       <c r="BS4">
-        <v>0.2402533063643435</v>
+        <v>0.2402127082232403</v>
       </c>
       <c r="BT4">
-        <v>0.2412602283065602</v>
+        <v>0.2412176716587216</v>
       </c>
       <c r="BU4">
-        <v>0.2461954290233482</v>
+        <v>0.2461527275004405</v>
       </c>
       <c r="BV4">
-        <v>0.252773175645877</v>
+        <v>0.2527310875884963</v>
       </c>
       <c r="BW4">
-        <v>0.252997237063019</v>
+        <v>0.2529528290630884</v>
       </c>
       <c r="BX4">
-        <v>0.2618134480570909</v>
+        <v>0.2617706869905498</v>
       </c>
       <c r="BY4">
-        <v>0.2907963543938749</v>
+        <v>0.2907645509434362</v>
       </c>
       <c r="BZ4">
-        <v>0.2973975600150573</v>
+        <v>0.2973663808608392</v>
       </c>
       <c r="CA4">
-        <v>0.2989961011233233</v>
+        <v>0.298963236604709</v>
       </c>
       <c r="CB4">
-        <v>0.3069345331677676</v>
+        <v>0.306902910324212</v>
       </c>
       <c r="CC4">
-        <v>0.3070070114636084</v>
+        <v>0.3069729986936842</v>
       </c>
       <c r="CD4">
-        <v>0.3134352453947171</v>
+        <v>0.3134017770623901</v>
       </c>
       <c r="CE4">
-        <v>0.3134816545620538</v>
+        <v>0.3134457842676044</v>
       </c>
       <c r="CF4">
-        <v>0.3135505591720997</v>
+        <v>0.3135122973013607</v>
       </c>
       <c r="CG4">
-        <v>0.3286081938080007</v>
+        <v>0.328574460449126</v>
       </c>
       <c r="CH4">
-        <v>0.3350705676371502</v>
+        <v>0.3350373944777887</v>
       </c>
       <c r="CI4">
-        <v>0.348312156877267</v>
+        <v>0.3482826737868724</v>
       </c>
       <c r="CJ4">
-        <v>0.3543206105324652</v>
+        <v>0.3542914780729539</v>
       </c>
       <c r="CK4">
-        <v>0.3555899153596248</v>
+        <v>0.3555589455319061</v>
       </c>
       <c r="CL4">
-        <v>0.3563997518631514</v>
+        <v>0.3563667325370918</v>
       </c>
       <c r="CM4">
-        <v>0.3565233177860604</v>
+        <v>0.3564879321200791</v>
       </c>
       <c r="CN4">
-        <v>0.3639474963600157</v>
+        <v>0.3639131149454192</v>
       </c>
       <c r="CO4">
-        <v>0.3846313331730509</v>
+        <v>0.3846040778096011</v>
       </c>
       <c r="CP4">
-        <v>0.4192538911861971</v>
+        <v>0.419240197187579</v>
       </c>
       <c r="CQ4">
-        <v>0.4523429422873453</v>
+        <v>0.4523421016547494</v>
       </c>
       <c r="CR4">
-        <v>0.4890696501797426</v>
+        <v>0.489083342368708</v>
       </c>
       <c r="CS4">
-        <v>0.4955361135086575</v>
+        <v>0.4955503677852013</v>
       </c>
       <c r="CT4">
-        <v>0.5096893491964585</v>
+        <v>0.5097077144364527</v>
       </c>
       <c r="CU4">
-        <v>0.5541706726438486</v>
+        <v>0.5542071509035361</v>
       </c>
       <c r="CV4">
-        <v>0.5956514242634298</v>
+        <v>0.595704630220537</v>
       </c>
       <c r="CW4">
-        <v>0.6274931624361564</v>
+        <v>0.6275586458922573</v>
       </c>
       <c r="CX4">
-        <v>0.6350838960005537</v>
+        <v>0.6351504606041618</v>
       </c>
       <c r="CY4">
-        <v>0.6357414329628203</v>
+        <v>0.6358058777535077</v>
       </c>
       <c r="CZ4">
-        <v>0.6361931623968973</v>
+        <v>0.6362553923561912</v>
       </c>
       <c r="DA4">
-        <v>0.6367827629630624</v>
+        <v>0.6368428417441466</v>
       </c>
       <c r="DB4">
-        <v>0.6370903156054131</v>
+        <v>0.6371481129906847</v>
       </c>
       <c r="DC4">
-        <v>0.6443295246899831</v>
+        <v>0.6443882409287993</v>
       </c>
       <c r="DD4">
-        <v>0.658269048890048</v>
+        <v>0.6583317774246937</v>
       </c>
       <c r="DE4">
-        <v>0.6754015649068796</v>
+        <v>0.6754697798972608</v>
       </c>
       <c r="DF4">
-        <v>0.68624913228438</v>
+        <v>0.6863199320571358</v>
       </c>
       <c r="DG4">
-        <v>0.6928048102081752</v>
+        <v>0.6928762132576468</v>
       </c>
       <c r="DH4">
-        <v>0.6961870292140828</v>
+        <v>0.6962575703984319</v>
       </c>
       <c r="DI4">
-        <v>0.6962181577342965</v>
+        <v>0.6962862899016609</v>
       </c>
       <c r="DJ4">
-        <v>0.6996699882362094</v>
+        <v>0.6997372906771107</v>
       </c>
       <c r="DK4">
-        <v>0.7084989957295471</v>
+        <v>0.7085679510118035</v>
       </c>
       <c r="DL4">
-        <v>0.7126990479885225</v>
+        <v>0.7127675189878929</v>
       </c>
       <c r="DM4">
-        <v>0.7127081128880023</v>
+        <v>0.7127741646839212</v>
       </c>
       <c r="DN4">
-        <v>0.7164944723707178</v>
+        <v>0.7165598488875506</v>
       </c>
       <c r="DO4">
-        <v>0.7180464384816565</v>
+        <v>0.7181101081310648</v>
       </c>
       <c r="DP4">
-        <v>0.7329147296284232</v>
+        <v>0.7329828403724407</v>
       </c>
       <c r="DQ4">
-        <v>0.7442459229781702</v>
+        <v>0.7443168417879463</v>
       </c>
       <c r="DR4">
-        <v>0.7451833777943733</v>
+        <v>0.7452523060254083</v>
       </c>
       <c r="DS4">
-        <v>0.7454076964415005</v>
+        <v>0.745474304848745</v>
       </c>
       <c r="DT4">
-        <v>0.7555222358610665</v>
+        <v>0.7555910906218742</v>
       </c>
       <c r="DU4">
-        <v>0.7723003728982345</v>
+        <v>0.7723745505029324</v>
       </c>
       <c r="DV4">
-        <v>0.780567992423788</v>
+        <v>0.7806435636848255</v>
       </c>
       <c r="DW4">
-        <v>0.7930173037093705</v>
+        <v>0.7930961992556642</v>
       </c>
       <c r="DX4">
-        <v>0.8025968181596395</v>
+        <v>0.8026777130459105</v>
       </c>
       <c r="DY4">
-        <v>0.8040765955747208</v>
+        <v>0.8041557502650506</v>
       </c>
       <c r="DZ4">
-        <v>0.8040777806070528</v>
+        <v>0.8041557502650506</v>
       </c>
       <c r="EA4">
-        <v>0.8076241911035381</v>
+        <v>0.8077013747013407</v>
       </c>
       <c r="EB4">
-        <v>0.8121798168421085</v>
+        <v>0.8122566803203546</v>
       </c>
       <c r="EC4">
-        <v>0.817189382954629</v>
+        <v>0.8172661358912747</v>
       </c>
       <c r="ED4">
-        <v>0.8219270420827531</v>
+        <v>0.8220035589421262</v>
       </c>
       <c r="EE4">
-        <v>0.8256446358694149</v>
+        <v>0.8257204457015366</v>
       </c>
       <c r="EF4">
-        <v>0.827759379448058</v>
+        <v>0.8278337422392835</v>
       </c>
       <c r="EG4">
-        <v>0.8288160184874216</v>
+        <v>0.8288884457256038</v>
       </c>
       <c r="EH4">
-        <v>0.8288461118256947</v>
+        <v>0.8289161295689631</v>
       </c>
       <c r="EI4">
-        <v>0.828949753909747</v>
+        <v>0.8290173961145345</v>
       </c>
       <c r="EJ4">
-        <v>0.8291233117397871</v>
+        <v>0.8291886106852211</v>
       </c>
       <c r="EK4">
-        <v>0.8297278710050938</v>
+        <v>0.8297910256785415</v>
       </c>
       <c r="EL4">
-        <v>0.8307740252450591</v>
+        <v>0.8308352395247774</v>
       </c>
       <c r="EM4">
-        <v>0.8322206197620446</v>
+        <v>0.8322800785257394</v>
       </c>
       <c r="EN4">
-        <v>0.8351483485940336</v>
+        <v>0.8352067356608148</v>
       </c>
       <c r="EO4">
-        <v>0.8392367003594191</v>
+        <v>0.8392945515727502</v>
       </c>
       <c r="EP4">
-        <v>0.8406320013793482</v>
+        <v>0.8406880733951616</v>
       </c>
       <c r="EQ4">
-        <v>0.8428320610530954</v>
+        <v>0.8428867254172669</v>
       </c>
       <c r="ER4">
-        <v>0.8441857416754129</v>
+        <v>0.8442386076265082</v>
       </c>
       <c r="ES4">
-        <v>0.8441938591479471</v>
+        <v>0.844244305458177</v>
       </c>
       <c r="ET4">
-        <v>0.8441945825630656</v>
+        <v>0.844244305458177</v>
       </c>
       <c r="EU4">
-        <v>0.8456340755804587</v>
+        <v>0.8456820396808828</v>
       </c>
       <c r="EV4">
-        <v>0.8510713702684335</v>
+        <v>0.8511194213035908</v>
       </c>
       <c r="EW4">
-        <v>0.8599692387578195</v>
+        <v>0.8600189744264959</v>
       </c>
       <c r="EX4">
-        <v>0.8669020593599719</v>
+        <v>0.8669525724268926</v>
       </c>
       <c r="EY4">
-        <v>0.8723808240455669</v>
+        <v>0.8724314431933418</v>
       </c>
       <c r="EZ4">
-        <v>0.873295503423077</v>
+        <v>0.8733441214770075</v>
       </c>
       <c r="FA4">
-        <v>0.8740009868825921</v>
+        <v>0.8740475072598327</v>
       </c>
       <c r="FB4">
-        <v>0.8756592429874313</v>
+        <v>0.875704105569859</v>
       </c>
       <c r="FC4">
-        <v>0.8811505926723041</v>
+        <v>0.881195567145905</v>
       </c>
       <c r="FD4">
-        <v>0.8907434311218084</v>
+        <v>0.8907904110868918</v>
       </c>
       <c r="FE4">
-        <v>0.8958923943263295</v>
+        <v>0.8959393281075109</v>
       </c>
       <c r="FF4">
-        <v>0.8970364687606756</v>
+        <v>0.8970815073565193</v>
       </c>
       <c r="FG4">
-        <v>0.8977487453898008</v>
+        <v>0.8977916894452667</v>
       </c>
       <c r="FH4">
-        <v>0.8981367344375356</v>
+        <v>0.8981774342335582</v>
       </c>
       <c r="FI4">
-        <v>0.8981631227040213</v>
+        <v>0.89820141129455</v>
       </c>
       <c r="FJ4">
-        <v>0.898176684273243</v>
+        <v>0.8982125557363702</v>
       </c>
       <c r="FK4">
-        <v>0.8988138808366768</v>
+        <v>0.8988476230960041</v>
       </c>
       <c r="FL4">
-        <v>0.9047173167979016</v>
+        <v>0.9047513612029036</v>
       </c>
       <c r="FM4">
-        <v>0.9178534180440718</v>
+        <v>0.9178911038157014</v>
       </c>
       <c r="FN4">
-        <v>0.9269919665196461</v>
+        <v>0.9270314480433965</v>
       </c>
       <c r="FO4">
-        <v>0.9303999648240744</v>
+        <v>0.9304385963846459</v>
       </c>
       <c r="FP4">
-        <v>0.9314384361644805</v>
+        <v>0.9314751237842349</v>
       </c>
       <c r="FQ4">
-        <v>0.9315316181791332</v>
+        <v>0.931565925431138</v>
       </c>
       <c r="FR4">
-        <v>0.9328965874008029</v>
+        <v>0.9329291014515206</v>
       </c>
       <c r="FS4">
-        <v>0.9339110748425855</v>
+        <v>0.9339416338794536</v>
       </c>
       <c r="FT4">
-        <v>0.9367756416781992</v>
+        <v>0.9368050998571386</v>
       </c>
       <c r="FU4">
-        <v>0.9450432612037527</v>
+        <v>0.9450741130390317</v>
       </c>
       <c r="FV4">
-        <v>0.9512336948485078</v>
+        <v>0.9512649813322998</v>
       </c>
       <c r="FW4">
-        <v>0.9560171135740061</v>
+        <v>0.9560481851070948</v>
       </c>
       <c r="FX4">
-        <v>0.9605635479131039</v>
+        <v>0.9605942950830948</v>
       </c>
       <c r="FY4">
-        <v>0.9610861899331116</v>
+        <v>0.9611147550110634</v>
       </c>
       <c r="FZ4">
-        <v>0.964198050254534</v>
+        <v>0.9642256286465195</v>
       </c>
       <c r="GA4">
-        <v>0.9674103406701932</v>
+        <v>0.9674369787433899</v>
       </c>
       <c r="GB4">
-        <v>0.9723670737857456</v>
+        <v>0.9723935769250821</v>
       </c>
       <c r="GC4">
-        <v>0.9776821434807345</v>
+        <v>0.9777086771252249</v>
       </c>
       <c r="GD4">
-        <v>0.9799206743522739</v>
+        <v>0.9799458181067394</v>
       </c>
       <c r="GE4">
-        <v>0.9809395059938072</v>
+        <v>0.9809626967400797</v>
       </c>
       <c r="GF4">
-        <v>0.9809399924287793</v>
+        <v>0.9809626967400797</v>
       </c>
       <c r="GG4">
-        <v>0.9826156104326221</v>
+        <v>0.9826366649648569</v>
       </c>
       <c r="GH4">
-        <v>0.9858762758455053</v>
+        <v>0.9858964123930145</v>
       </c>
       <c r="GI4">
-        <v>0.9908629815593377</v>
+        <v>0.9908829970109184</v>
       </c>
       <c r="GJ4">
-        <v>0.9942809073631963</v>
+        <v>0.9943000774349864</v>
       </c>
       <c r="GK4">
-        <v>0.9951751198118809</v>
+        <v>0.9951922793405302</v>
       </c>
       <c r="GL4">
-        <v>0.9952005556614212</v>
+        <v>0.995215303544859</v>
       </c>
       <c r="GM4">
-        <v>0.9952740526512035</v>
+        <v>0.9952864110785896</v>
       </c>
       <c r="GN4">
-        <v>0.9955857957333137</v>
+        <v>0.9955958746995549</v>
       </c>
       <c r="GO4">
-        <v>0.9957620553431988</v>
+        <v>0.9957697922974607</v>
       </c>
       <c r="GP4">
-        <v>0.9967299603876545</v>
+        <v>0.996735720821622</v>
       </c>
       <c r="GQ4">
-        <v>0.9982268059017564</v>
+        <v>0.9982308340198865</v>
       </c>
       <c r="GR4">
-        <v>0.9997982657115765</v>
+        <v>0.9998005959622517</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.374584748022908E-05</v>
+        <v>2.318217983202615E-05</v>
       </c>
       <c r="C5">
-        <v>3.591204621392414E-05</v>
+        <v>3.478343956425893E-05</v>
       </c>
       <c r="D5">
-        <v>3.593556473240935E-05</v>
+        <v>3.478343956425893E-05</v>
       </c>
       <c r="E5">
-        <v>5.775075125489851E-05</v>
+        <v>5.603474646733989E-05</v>
       </c>
       <c r="F5">
-        <v>5.852774927789086E-05</v>
+        <v>5.624555504528899E-05</v>
       </c>
       <c r="G5">
-        <v>6.789177507292246E-05</v>
+        <v>6.50443341825747E-05</v>
       </c>
       <c r="H5">
-        <v>6.81045888182642E-05</v>
+        <v>6.50443341825747E-05</v>
       </c>
       <c r="I5">
-        <v>9.59096952096405E-05</v>
+        <v>9.228621860006515E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001157663617749995</v>
+        <v>0.0001115787905161144</v>
       </c>
       <c r="K5">
-        <v>0.0001233833556082718</v>
+        <v>0.0001186303458814375</v>
       </c>
       <c r="L5">
-        <v>0.0001272495315236454</v>
+        <v>0.0001219306715189109</v>
       </c>
       <c r="M5">
-        <v>0.0001275155628678222</v>
+        <v>0.0001219306715189109</v>
       </c>
       <c r="N5">
-        <v>0.0001360420616811864</v>
+        <v>0.0001298918317207332</v>
       </c>
       <c r="O5">
-        <v>0.0001362013200277004</v>
+        <v>0.0001298918317207332</v>
       </c>
       <c r="P5">
-        <v>0.0001367675326153066</v>
+        <v>0.0001298918317207332</v>
       </c>
       <c r="Q5">
-        <v>0.0001370450833392313</v>
+        <v>0.0001298918317207332</v>
       </c>
       <c r="R5">
-        <v>0.0001407898372572627</v>
+        <v>0.0001330707220296955</v>
       </c>
       <c r="S5">
-        <v>0.0001423452640232161</v>
+        <v>0.0001340600448158854</v>
       </c>
       <c r="T5">
-        <v>0.0001709420193972641</v>
+        <v>0.0001620936651328043</v>
       </c>
       <c r="U5">
-        <v>0.00017108565860412</v>
+        <v>0.0001620936651328043</v>
       </c>
       <c r="V5">
-        <v>0.0002045701748711801</v>
+        <v>0.0001950155829799754</v>
       </c>
       <c r="W5">
-        <v>0.0002272974153737054</v>
+        <v>0.0002171790439993596</v>
       </c>
       <c r="X5">
-        <v>0.0002281733986545311</v>
+        <v>0.0002174888487029354</v>
       </c>
       <c r="Y5">
-        <v>0.0002319055150728391</v>
+        <v>0.0002206551001246775</v>
       </c>
       <c r="Z5">
-        <v>0.0002353263464979608</v>
+        <v>0.0002235100323766188</v>
       </c>
       <c r="AA5">
-        <v>0.0002412683080678977</v>
+        <v>0.0002288863715733972</v>
       </c>
       <c r="AB5">
-        <v>0.0002675027134936549</v>
+        <v>0.0002545573825748052</v>
       </c>
       <c r="AC5">
-        <v>0.0003217134423070407</v>
+        <v>0.0003082077885414605</v>
       </c>
       <c r="AD5">
-        <v>0.0003702382912448843</v>
+        <v>0.0003561716903682225</v>
       </c>
       <c r="AE5">
-        <v>0.0003864379118902921</v>
+        <v>0.0003718068148497882</v>
       </c>
       <c r="AF5">
-        <v>0.0004424297906646904</v>
+        <v>0.000427238566333544</v>
       </c>
       <c r="AG5">
-        <v>0.0004486954368275422</v>
+        <v>0.0004329386256612291</v>
       </c>
       <c r="AH5">
-        <v>0.0004540251167108813</v>
+        <v>0.0004377026159477542</v>
       </c>
       <c r="AI5">
-        <v>0.0004549219036512516</v>
+        <v>0.0004380332265949509</v>
       </c>
       <c r="AJ5">
-        <v>0.0004788957871264892</v>
+        <v>0.0004614434674585227</v>
       </c>
       <c r="AK5">
-        <v>0.0004913030768549071</v>
+        <v>0.0004732858446553504</v>
       </c>
       <c r="AL5">
-        <v>0.0005203526462190434</v>
+        <v>0.0005017723286777295</v>
       </c>
       <c r="AM5">
-        <v>0.0005621294913045934</v>
+        <v>0.0005429874857750884</v>
       </c>
       <c r="AN5">
-        <v>0.0005899345976959697</v>
+        <v>0.0005702293701925789</v>
       </c>
       <c r="AO5">
-        <v>0.0005952133861804227</v>
+        <v>0.0005749424634927474</v>
       </c>
       <c r="AP5">
-        <v>0.0005965089713520638</v>
+        <v>0.0005756719161560861</v>
       </c>
       <c r="AQ5">
-        <v>0.0005965314982415707</v>
+        <v>0.0005756719161560861</v>
       </c>
       <c r="AR5">
-        <v>0.0006120494889018987</v>
+        <v>0.0005906253358150254</v>
       </c>
       <c r="AS5">
-        <v>0.0006159156648172723</v>
+        <v>0.0005939256614524987</v>
       </c>
       <c r="AT5">
-        <v>0.0006277273325587276</v>
+        <v>0.0006051723512678109</v>
       </c>
       <c r="AU5">
-        <v>0.0006334223176340705</v>
+        <v>0.0006103016868539422</v>
       </c>
       <c r="AV5">
-        <v>0.0006534875571948642</v>
+        <v>0.0006298028546650806</v>
       </c>
       <c r="AW5">
-        <v>0.0006535110757133494</v>
+        <v>0.0006298028546650806</v>
       </c>
       <c r="AX5">
-        <v>0.004134896299509592</v>
+        <v>0.004111004032094124</v>
       </c>
       <c r="AY5">
-        <v>0.03814860255498635</v>
+        <v>0.03812787844701827</v>
       </c>
       <c r="AZ5">
-        <v>0.1031430011323292</v>
+        <v>0.1031288466172218</v>
       </c>
       <c r="BA5">
-        <v>0.1076452040337809</v>
+        <v>0.1076309775499617</v>
       </c>
       <c r="BB5">
-        <v>0.1093655144961252</v>
+        <v>0.1093509106139479</v>
       </c>
       <c r="BC5">
-        <v>0.1161596293474093</v>
+        <v>0.116145205130209</v>
       </c>
       <c r="BD5">
-        <v>0.1162347191457657</v>
+        <v>0.1162197368980742</v>
       </c>
       <c r="BE5">
-        <v>0.1239216463775072</v>
+        <v>0.1239069418184852</v>
       </c>
       <c r="BF5">
-        <v>0.1413358339963294</v>
+        <v>0.1413224751017393</v>
       </c>
       <c r="BG5">
-        <v>0.1437940941425208</v>
+        <v>0.143780438870574</v>
       </c>
       <c r="BH5">
-        <v>0.1756921674443065</v>
+        <v>0.175681448052149</v>
       </c>
       <c r="BI5">
-        <v>0.1774141436066143</v>
+        <v>0.1774030469989794</v>
       </c>
       <c r="BJ5">
-        <v>0.1801705899462786</v>
+        <v>0.1801592296997575</v>
       </c>
       <c r="BK5">
-        <v>0.180210183309412</v>
+        <v>0.1801982611351738</v>
       </c>
       <c r="BL5">
-        <v>0.1802106878350009</v>
+        <v>0.1801982611351738</v>
       </c>
       <c r="BM5">
-        <v>0.1836457867598103</v>
+        <v>0.1836331709317488</v>
       </c>
       <c r="BN5">
-        <v>0.2055020772813997</v>
+        <v>0.20549129482531</v>
       </c>
       <c r="BO5">
-        <v>0.2138797880980207</v>
+        <v>0.2138693591731396</v>
       </c>
       <c r="BP5">
-        <v>0.2233916458898164</v>
+        <v>0.223381695016454</v>
       </c>
       <c r="BQ5">
-        <v>0.2247646391597631</v>
+        <v>0.2247542727553795</v>
       </c>
       <c r="BR5">
-        <v>0.2300892034432142</v>
+        <v>0.2300788553588526</v>
       </c>
       <c r="BS5">
-        <v>0.2305202287737795</v>
+        <v>0.230509361737815</v>
       </c>
       <c r="BT5">
-        <v>0.2336696713048416</v>
+        <v>0.2336585837778445</v>
       </c>
       <c r="BU5">
-        <v>0.2413285457371971</v>
+        <v>0.2413177328188955</v>
       </c>
       <c r="BV5">
-        <v>0.2416912533492578</v>
+        <v>0.2416799139786117</v>
       </c>
       <c r="BW5">
-        <v>0.2442398274934723</v>
+        <v>0.2442282016612275</v>
       </c>
       <c r="BX5">
-        <v>0.2760074067981144</v>
+        <v>0.2759987025184567</v>
       </c>
       <c r="BY5">
-        <v>0.2917764594529468</v>
+        <v>0.2917689202149971</v>
       </c>
       <c r="BZ5">
-        <v>0.292465748797859</v>
+        <v>0.2924577189636395</v>
       </c>
       <c r="CA5">
-        <v>0.2976068331853263</v>
+        <v>0.2975988015264966</v>
       </c>
       <c r="CB5">
-        <v>0.2976456063744776</v>
+        <v>0.2976370126978822</v>
       </c>
       <c r="CC5">
-        <v>0.3081057761455158</v>
+        <v>0.3080977646375459</v>
       </c>
       <c r="CD5">
-        <v>0.3092915521195604</v>
+        <v>0.3092831045256006</v>
       </c>
       <c r="CE5">
-        <v>0.3096308176121342</v>
+        <v>0.3096218409920717</v>
       </c>
       <c r="CF5">
-        <v>0.3200512373840425</v>
+        <v>0.3200428385683721</v>
       </c>
       <c r="CG5">
-        <v>0.3318419651259562</v>
+        <v>0.3318342945635854</v>
       </c>
       <c r="CH5">
-        <v>0.3377176702973434</v>
+        <v>0.337710078565877</v>
       </c>
       <c r="CI5">
-        <v>0.3486640080577399</v>
+        <v>0.3486570518722745</v>
       </c>
       <c r="CJ5">
-        <v>0.3490453229993933</v>
+        <v>0.34903784240452</v>
       </c>
       <c r="CK5">
-        <v>0.3494825085898238</v>
+        <v>0.3494745097196951</v>
       </c>
       <c r="CL5">
-        <v>0.3495898719374738</v>
+        <v>0.3495813185802328</v>
       </c>
       <c r="CM5">
-        <v>0.3495931667370016</v>
+        <v>0.3495840474667502</v>
       </c>
       <c r="CN5">
-        <v>0.3703492132826742</v>
+        <v>0.3703418065863639</v>
       </c>
       <c r="CO5">
-        <v>0.3913571158228339</v>
+        <v>0.3913514493522482</v>
       </c>
       <c r="CP5">
-        <v>0.4268355910462485</v>
+        <v>0.4268332535550834</v>
       </c>
       <c r="CQ5">
-        <v>0.4860743627495759</v>
+        <v>0.4860779629292549</v>
       </c>
       <c r="CR5">
-        <v>0.497490591499687</v>
+        <v>0.4974948788156573</v>
       </c>
       <c r="CS5">
-        <v>0.5008729950256499</v>
+        <v>0.5008770874278504</v>
       </c>
       <c r="CT5">
-        <v>0.5352966742721528</v>
+        <v>0.5353039798455718</v>
       </c>
       <c r="CU5">
-        <v>0.587388643131916</v>
+        <v>0.5874011017141149</v>
       </c>
       <c r="CV5">
-        <v>0.6281549922395847</v>
+        <v>0.6281713603676656</v>
       </c>
       <c r="CW5">
-        <v>0.6376380350320111</v>
+        <v>0.6376548780479532</v>
       </c>
       <c r="CX5">
-        <v>0.6387042742086723</v>
+        <v>0.6387206680144355</v>
       </c>
       <c r="CY5">
-        <v>0.6388680370450877</v>
+        <v>0.6388838825559535</v>
       </c>
       <c r="CZ5">
-        <v>0.6393368208748265</v>
+        <v>0.6393521515796722</v>
       </c>
       <c r="DA5">
-        <v>0.6394715326318777</v>
+        <v>0.6394863118522489</v>
       </c>
       <c r="DB5">
-        <v>0.6459733094895609</v>
+        <v>0.6459882362785242</v>
       </c>
       <c r="DC5">
-        <v>0.6593007241978381</v>
+        <v>0.6593165479560982</v>
       </c>
       <c r="DD5">
-        <v>0.6817000117075419</v>
+        <v>0.6817177284545209</v>
       </c>
       <c r="DE5">
-        <v>0.6972917403662559</v>
+        <v>0.6973106026861795</v>
       </c>
       <c r="DF5">
-        <v>0.7021598369596985</v>
+        <v>0.7021786674831252</v>
       </c>
       <c r="DG5">
-        <v>0.7054430458878327</v>
+        <v>0.7054616706067123</v>
       </c>
       <c r="DH5">
-        <v>0.7055557267493662</v>
+        <v>0.7055737975649542</v>
       </c>
       <c r="DI5">
-        <v>0.7073019515111432</v>
+        <v>0.707319647773557</v>
       </c>
       <c r="DJ5">
-        <v>0.7130483573853605</v>
+        <v>0.7130661182826453</v>
       </c>
       <c r="DK5">
-        <v>0.7242271071406698</v>
+        <v>0.7242455291009425</v>
       </c>
       <c r="DL5">
-        <v>0.7244829424350699</v>
+        <v>0.7245008262092683</v>
       </c>
       <c r="DM5">
-        <v>0.7276236579663231</v>
+        <v>0.7276413202913337</v>
       </c>
       <c r="DN5">
-        <v>0.728060004456772</v>
+        <v>0.7280771484144006</v>
       </c>
       <c r="DO5">
-        <v>0.7365520492708904</v>
+        <v>0.7365695593126903</v>
       </c>
       <c r="DP5">
-        <v>0.7547772068719614</v>
+        <v>0.7547961516162419</v>
       </c>
       <c r="DQ5">
-        <v>0.7578485424047332</v>
+        <v>0.7578672580824544</v>
       </c>
       <c r="DR5">
-        <v>0.7585925693884472</v>
+        <v>0.7586108004796556</v>
       </c>
       <c r="DS5">
-        <v>0.7631466896887624</v>
+        <v>0.7631648545113762</v>
       </c>
       <c r="DT5">
-        <v>0.7804563063098736</v>
+        <v>0.780475805315856</v>
       </c>
       <c r="DU5">
-        <v>0.7928485940386198</v>
+        <v>0.7928688873444001</v>
       </c>
       <c r="DV5">
-        <v>0.7998099344862436</v>
+        <v>0.7998304258170401</v>
       </c>
       <c r="DW5">
-        <v>0.8118821092219968</v>
+        <v>0.8119033597067326</v>
       </c>
       <c r="DX5">
-        <v>0.8157675621369485</v>
+        <v>0.8157886729387331</v>
       </c>
       <c r="DY5">
-        <v>0.8157819963266325</v>
+        <v>0.8158025424384231</v>
       </c>
       <c r="DZ5">
-        <v>0.8162606019361563</v>
+        <v>0.81628063432028</v>
       </c>
       <c r="EA5">
-        <v>0.8223955635018687</v>
+        <v>0.8224157031811852</v>
       </c>
       <c r="EB5">
-        <v>0.825911391424911</v>
+        <v>0.8259313508393945</v>
       </c>
       <c r="EC5">
-        <v>0.82971427574167</v>
+        <v>0.8297340864078275</v>
       </c>
       <c r="ED5">
-        <v>0.8321906383874651</v>
+        <v>0.8322101546637762</v>
       </c>
       <c r="EE5">
-        <v>0.8347348307317755</v>
+        <v>0.8347540600654012</v>
       </c>
       <c r="EF5">
-        <v>0.835406833567066</v>
+        <v>0.8354255704065008</v>
       </c>
       <c r="EG5">
-        <v>0.8361555370506777</v>
+        <v>0.8361737898170422</v>
       </c>
       <c r="EH5">
-        <v>0.8367462522377476</v>
+        <v>0.8367640035851843</v>
       </c>
       <c r="EI5">
-        <v>0.8367894061338029</v>
+        <v>0.8368065959444407</v>
       </c>
       <c r="EJ5">
-        <v>0.8368914484215694</v>
+        <v>0.8369080831608848</v>
       </c>
       <c r="EK5">
-        <v>0.8378266085010997</v>
+        <v>0.8378427796387948</v>
       </c>
       <c r="EL5">
-        <v>0.8392957942689409</v>
+        <v>0.8393115604367855</v>
       </c>
       <c r="EM5">
-        <v>0.8404173989443902</v>
+        <v>0.840432721980747</v>
       </c>
       <c r="EN5">
-        <v>0.8440331921652443</v>
+        <v>0.8440483459121623</v>
       </c>
       <c r="EO5">
-        <v>0.8449683522447746</v>
+        <v>0.8449830423900723</v>
       </c>
       <c r="EP5">
-        <v>0.8459101864241589</v>
+        <v>0.8459244137005992</v>
       </c>
       <c r="EQ5">
-        <v>0.8476717784855996</v>
+        <v>0.8476856328960729</v>
       </c>
       <c r="ER5">
-        <v>0.8477916742879752</v>
+        <v>0.8478049755873001</v>
       </c>
       <c r="ES5">
-        <v>0.8478179086934009</v>
+        <v>0.8478306465983014</v>
       </c>
       <c r="ET5">
-        <v>0.8482840010031987</v>
+        <v>0.8482962238065714</v>
       </c>
       <c r="EU5">
-        <v>0.8506599587511915</v>
+        <v>0.8506718761410593</v>
       </c>
       <c r="EV5">
-        <v>0.8595260095571232</v>
+        <v>0.8595383340940433</v>
       </c>
       <c r="EW5">
-        <v>0.8661899224112574</v>
+        <v>0.8662024123180114</v>
       </c>
       <c r="EX5">
-        <v>0.8722180932793072</v>
+        <v>0.8722306787564856</v>
       </c>
       <c r="EY5">
-        <v>0.8745225378288655</v>
+        <v>0.8745348100409589</v>
       </c>
       <c r="EZ5">
-        <v>0.8749003904605946</v>
+        <v>0.8749121378831461</v>
       </c>
       <c r="FA5">
-        <v>0.8770179811142429</v>
+        <v>0.8770293947566391</v>
       </c>
       <c r="FB5">
-        <v>0.8809218860287906</v>
+        <v>0.8809331620141184</v>
       </c>
       <c r="FC5">
-        <v>0.8885788268611885</v>
+        <v>0.8885903772429178</v>
       </c>
       <c r="FD5">
-        <v>0.897231632671788</v>
+        <v>0.8972435667879664</v>
       </c>
       <c r="FE5">
-        <v>0.8991609749295567</v>
+        <v>0.8991725545974044</v>
       </c>
       <c r="FF5">
-        <v>0.900129258478362</v>
+        <v>0.9001403781812827</v>
       </c>
       <c r="FG5">
-        <v>0.9006012756680301</v>
+        <v>0.9006118809199277</v>
       </c>
       <c r="FH5">
-        <v>0.9006231941875503</v>
+        <v>0.9006332355711737</v>
       </c>
       <c r="FI5">
-        <v>0.9006394201271951</v>
+        <v>0.9006488970175442</v>
       </c>
       <c r="FJ5">
-        <v>0.9006766033963812</v>
+        <v>0.9006855180944041</v>
       </c>
       <c r="FK5">
-        <v>0.9043926623150407</v>
+        <v>0.9044014187320001</v>
       </c>
       <c r="FL5">
-        <v>0.9166044490477379</v>
+        <v>0.9166139799469225</v>
       </c>
       <c r="FM5">
-        <v>0.9254646398537979</v>
+        <v>0.9254745772566534</v>
       </c>
       <c r="FN5">
-        <v>0.9314445791229035</v>
+        <v>0.9314546068007377</v>
       </c>
       <c r="FO5">
-        <v>0.932628212596995</v>
+        <v>0.9326378039536098</v>
       </c>
       <c r="FP5">
-        <v>0.932781895823631</v>
+        <v>0.9327909377786876</v>
       </c>
       <c r="FQ5">
-        <v>0.9339803409973984</v>
+        <v>0.9339889482574423</v>
       </c>
       <c r="FR5">
-        <v>0.9353429749675718</v>
+        <v>0.9353511655592259</v>
       </c>
       <c r="FS5">
-        <v>0.937145293928121</v>
+        <v>0.9371531161252974</v>
       </c>
       <c r="FT5">
-        <v>0.9434886910892708</v>
+        <v>0.9434966434662094</v>
       </c>
       <c r="FU5">
-        <v>0.9498631109497416</v>
+        <v>0.9498711969124879</v>
       </c>
       <c r="FV5">
-        <v>0.9545750468466024</v>
+        <v>0.9545830838676503</v>
       </c>
       <c r="FW5">
-        <v>0.9608961547082402</v>
+        <v>0.9609043194618626</v>
       </c>
       <c r="FX5">
-        <v>0.9609015774781214</v>
+        <v>0.9609091765523676</v>
       </c>
       <c r="FY5">
-        <v>0.9651272853856253</v>
+        <v>0.9651347821342102</v>
       </c>
       <c r="FZ5">
-        <v>0.9693086018941008</v>
+        <v>0.9693159914432022</v>
       </c>
       <c r="GA5">
-        <v>0.9735748698007168</v>
+        <v>0.973582161477322</v>
       </c>
       <c r="GB5">
-        <v>0.9781799799999159</v>
+        <v>0.9781872110062115</v>
       </c>
       <c r="GC5">
-        <v>0.9808537220413905</v>
+        <v>0.9808606803285264</v>
       </c>
       <c r="GD5">
-        <v>0.9822993944097463</v>
+        <v>0.9823059451454476</v>
       </c>
       <c r="GE5">
-        <v>0.9834654265842232</v>
+        <v>0.9834715390662224</v>
       </c>
       <c r="GF5">
-        <v>0.9838678657754143</v>
+        <v>0.9838734561672801</v>
       </c>
       <c r="GG5">
-        <v>0.9870898385048889</v>
+        <v>0.9870952163689604</v>
       </c>
       <c r="GH5">
-        <v>0.9905172622298662</v>
+        <v>0.9905224501230275</v>
       </c>
       <c r="GI5">
-        <v>0.9946720355389228</v>
+        <v>0.9946771133183685</v>
       </c>
       <c r="GJ5">
-        <v>0.9970144190876505</v>
+        <v>0.9970191877674115</v>
       </c>
       <c r="GK5">
-        <v>0.9970625113035978</v>
+        <v>0.9970667189887481</v>
       </c>
       <c r="GL5">
-        <v>0.9971411480318765</v>
+        <v>0.9971447980759605</v>
       </c>
       <c r="GM5">
-        <v>0.9971470899934464</v>
+        <v>0.9971501744151572</v>
       </c>
       <c r="GN5">
-        <v>0.9971598050271681</v>
+        <v>0.9971623245701351</v>
       </c>
       <c r="GO5">
-        <v>0.9979911468089708</v>
+        <v>0.9979931913518949</v>
       </c>
       <c r="GP5">
-        <v>0.9982854125225297</v>
+        <v>0.9982869230987336</v>
       </c>
       <c r="GQ5">
-        <v>0.9995462896949304</v>
+        <v>0.9995473724306582</v>
       </c>
       <c r="GR5">
-        <v>0.9999836119353579</v>
+        <v>0.9999841764108334</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.628548731770658E-06</v>
+        <v>1.074924480543935E-06</v>
       </c>
       <c r="C6">
-        <v>1.516057512427752E-05</v>
+        <v>6.056739253370624E-06</v>
       </c>
       <c r="D6">
-        <v>1.604283246060685E-05</v>
+        <v>6.056739253370624E-06</v>
       </c>
       <c r="E6">
-        <v>2.732291092509447E-05</v>
+        <v>1.278813433995741E-05</v>
       </c>
       <c r="F6">
-        <v>3.876919689642613E-05</v>
+        <v>1.968588224099094E-05</v>
       </c>
       <c r="G6">
-        <v>3.877941365284683E-05</v>
+        <v>1.968588224099094E-05</v>
       </c>
       <c r="H6">
-        <v>7.493446514162849E-05</v>
+        <v>5.131399740028349E-05</v>
       </c>
       <c r="I6">
-        <v>8.426460152582198E-05</v>
+        <v>5.609374566161909E-05</v>
       </c>
       <c r="J6">
-        <v>0.0001590440046050654</v>
+        <v>0.0001263799799110643</v>
       </c>
       <c r="K6">
-        <v>0.0001591591914498085</v>
+        <v>0.0001263799799110643</v>
       </c>
       <c r="L6">
-        <v>0.0001714317024551622</v>
+        <v>0.0001341046751767852</v>
       </c>
       <c r="M6">
-        <v>0.0001992048615987968</v>
+        <v>0.0001573435700867583</v>
       </c>
       <c r="N6">
-        <v>0.0002008843080679526</v>
+        <v>0.0001573435700867583</v>
       </c>
       <c r="O6">
-        <v>0.0002554264643138728</v>
+        <v>0.0002073748650058403</v>
       </c>
       <c r="P6">
-        <v>0.0002745177941000097</v>
+        <v>0.0002219243404329655</v>
       </c>
       <c r="Q6">
-        <v>0.0002793211952978027</v>
+        <v>0.0002221733959908753</v>
       </c>
       <c r="R6">
-        <v>0.0002838757584853491</v>
+        <v>0.0002221733959908753</v>
       </c>
       <c r="S6">
-        <v>0.0002930359848625461</v>
+        <v>0.0002267830857006856</v>
       </c>
       <c r="T6">
-        <v>0.0002937566001922194</v>
+        <v>0.0002267830857006856</v>
       </c>
       <c r="U6">
-        <v>0.0002945254325238781</v>
+        <v>0.0002267830857006856</v>
       </c>
       <c r="V6">
-        <v>0.0002974667892449964</v>
+        <v>0.0002267830857006856</v>
       </c>
       <c r="W6">
-        <v>0.0003041123535186454</v>
+        <v>0.0002288759148531666</v>
       </c>
       <c r="X6">
-        <v>0.0003043829425897877</v>
+        <v>0.0002288759148531666</v>
       </c>
       <c r="Y6">
-        <v>0.0003164833310880538</v>
+        <v>0.0002364283371329836</v>
       </c>
       <c r="Z6">
-        <v>0.0003225327857371564</v>
+        <v>0.0002379245355096047</v>
       </c>
       <c r="AA6">
-        <v>0.0003365318203136044</v>
+        <v>0.0002473772637668179</v>
       </c>
       <c r="AB6">
-        <v>0.0003400948939603235</v>
+        <v>0.0002473772637668179</v>
       </c>
       <c r="AC6">
-        <v>0.0003446494571478699</v>
+        <v>0.0002473772637668179</v>
       </c>
       <c r="AD6">
-        <v>0.0003448069994043571</v>
+        <v>0.0002473772637668179</v>
       </c>
       <c r="AE6">
-        <v>0.0003677364103485374</v>
+        <v>0.0002657681758103691</v>
       </c>
       <c r="AF6">
-        <v>0.0003758536896827883</v>
+        <v>0.0002693340066764521</v>
       </c>
       <c r="AG6">
-        <v>0.0003846690220457833</v>
+        <v>0.000273598500847037</v>
       </c>
       <c r="AH6">
-        <v>0.000395544318993603</v>
+        <v>0.0002799247605350348</v>
       </c>
       <c r="AI6">
-        <v>0.0004116725786577275</v>
+        <v>0.000291508575363795</v>
       </c>
       <c r="AJ6">
-        <v>0.0004305205234338424</v>
+        <v>0.0003058144530005429</v>
       </c>
       <c r="AK6">
-        <v>0.0004434345519656123</v>
+        <v>0.0003141812266420401</v>
       </c>
       <c r="AL6">
-        <v>0.0004807450535019727</v>
+        <v>0.0003469658020059113</v>
       </c>
       <c r="AM6">
-        <v>0.0004943169410608318</v>
+        <v>0.0003559910098104826</v>
       </c>
       <c r="AN6">
-        <v>0.0004985952212370015</v>
+        <v>0.0003559910098104826</v>
       </c>
       <c r="AO6">
-        <v>0.0005055406775229994</v>
+        <v>0.0003583839931571489</v>
       </c>
       <c r="AP6">
-        <v>0.0005238502402769449</v>
+        <v>0.00037215101808901</v>
       </c>
       <c r="AQ6">
-        <v>0.0005363541407918267</v>
+        <v>0.0003801073051574981</v>
       </c>
       <c r="AR6">
-        <v>0.0005714887122385873</v>
+        <v>0.0004107140481158573</v>
       </c>
       <c r="AS6">
-        <v>0.0005817759766621932</v>
+        <v>0.0004164517611897664</v>
       </c>
       <c r="AT6">
-        <v>0.000693753831273183</v>
+        <v>0.0005239689678716044</v>
       </c>
       <c r="AU6">
-        <v>0.0007193539003273348</v>
+        <v>0.0005450328728590644</v>
       </c>
       <c r="AV6">
-        <v>0.0007239084635148812</v>
+        <v>0.0005450328728590644</v>
       </c>
       <c r="AW6">
-        <v>0.0007257536851908631</v>
+        <v>0.0005450328728590644</v>
       </c>
       <c r="AX6">
-        <v>0.002201873945974092</v>
+        <v>0.002017885092873702</v>
       </c>
       <c r="AY6">
-        <v>0.05006205891674615</v>
+        <v>0.04991535348397005</v>
       </c>
       <c r="AZ6">
-        <v>0.07535317695817607</v>
+        <v>0.07522402384528686</v>
       </c>
       <c r="BA6">
-        <v>0.07788440936240638</v>
+        <v>0.07775291064491931</v>
       </c>
       <c r="BB6">
-        <v>0.07891434870481691</v>
+        <v>0.07877919187104145</v>
       </c>
       <c r="BC6">
-        <v>0.09159718922706704</v>
+        <v>0.09146856187422582</v>
       </c>
       <c r="BD6">
-        <v>0.09217745019096085</v>
+        <v>0.09204477158864241</v>
       </c>
       <c r="BE6">
-        <v>0.09410407317029475</v>
+        <v>0.09396852038107925</v>
       </c>
       <c r="BF6">
-        <v>0.1096791298116397</v>
+        <v>0.1095526350353049</v>
       </c>
       <c r="BG6">
-        <v>0.1657452951203151</v>
+        <v>0.1656632578766744</v>
       </c>
       <c r="BH6">
-        <v>0.1681543364195138</v>
+        <v>0.1680698467451946</v>
       </c>
       <c r="BI6">
-        <v>0.170436037013469</v>
+        <v>0.1703489835803311</v>
       </c>
       <c r="BJ6">
-        <v>0.1713091484494217</v>
+        <v>0.1712182997925473</v>
       </c>
       <c r="BK6">
-        <v>0.172986836118505</v>
+        <v>0.1728928956420053</v>
       </c>
       <c r="BL6">
-        <v>0.1734732105685328</v>
+        <v>0.1733751367618814</v>
       </c>
       <c r="BM6">
-        <v>0.1736063855540166</v>
+        <v>0.1735038696311158</v>
       </c>
       <c r="BN6">
-        <v>0.2094026770280254</v>
+        <v>0.2093268976164873</v>
       </c>
       <c r="BO6">
-        <v>0.2187298174120955</v>
+        <v>0.2186576337467178</v>
       </c>
       <c r="BP6">
-        <v>0.2226317389727676</v>
+        <v>0.2225584080334762</v>
       </c>
       <c r="BQ6">
-        <v>0.2237899192204588</v>
+        <v>0.2237130422800227</v>
       </c>
       <c r="BR6">
-        <v>0.2345225376624033</v>
+        <v>0.2344504852131532</v>
       </c>
       <c r="BS6">
-        <v>0.2346501576476584</v>
+        <v>0.2345736582256768</v>
       </c>
       <c r="BT6">
-        <v>0.2375804955683229</v>
+        <v>0.2375019994613977</v>
       </c>
       <c r="BU6">
-        <v>0.2418489422440877</v>
+        <v>0.241769619299352</v>
       </c>
       <c r="BV6">
-        <v>0.2456175321992696</v>
+        <v>0.2455369454149106</v>
       </c>
       <c r="BW6">
-        <v>0.2476959306848532</v>
+        <v>0.2476126024039635</v>
       </c>
       <c r="BX6">
-        <v>0.2668415014732237</v>
+        <v>0.2667703527420273</v>
       </c>
       <c r="BY6">
-        <v>0.2783487119470641</v>
+        <v>0.2782830648973526</v>
       </c>
       <c r="BZ6">
-        <v>0.2847824706119915</v>
+        <v>0.2847178897574632</v>
       </c>
       <c r="CA6">
-        <v>0.2882956357566555</v>
+        <v>0.2882295677563033</v>
       </c>
       <c r="CB6">
-        <v>0.2916128825932521</v>
+        <v>0.2915451561646819</v>
       </c>
       <c r="CC6">
-        <v>0.2927510143401177</v>
+        <v>0.2926797243829178</v>
       </c>
       <c r="CD6">
-        <v>0.2952616165434985</v>
+        <v>0.295187962945662</v>
       </c>
       <c r="CE6">
-        <v>0.2954994607132924</v>
+        <v>0.2954214565066752</v>
       </c>
       <c r="CF6">
-        <v>0.2992137641662388</v>
+        <v>0.2991344486597985</v>
       </c>
       <c r="CG6">
-        <v>0.3158050148494283</v>
+        <v>0.3157356457677276</v>
       </c>
       <c r="CH6">
-        <v>0.3230339271470982</v>
+        <v>0.3229663194269445</v>
       </c>
       <c r="CI6">
-        <v>0.3399335618429862</v>
+        <v>0.3398761701535751</v>
       </c>
       <c r="CJ6">
-        <v>0.3418128661203717</v>
+        <v>0.3417525588754918</v>
       </c>
       <c r="CK6">
-        <v>0.3445930410348528</v>
+        <v>0.344530605824398</v>
       </c>
       <c r="CL6">
-        <v>0.3468407963274102</v>
+        <v>0.346775767681316</v>
       </c>
       <c r="CM6">
-        <v>0.3484626776941955</v>
+        <v>0.3483945084395847</v>
       </c>
       <c r="CN6">
-        <v>0.3625042352723945</v>
+        <v>0.3624437833627435</v>
       </c>
       <c r="CO6">
-        <v>0.3833554011309974</v>
+        <v>0.3833086198946092</v>
       </c>
       <c r="CP6">
-        <v>0.4291493500166866</v>
+        <v>0.4291380457851492</v>
       </c>
       <c r="CQ6">
-        <v>0.4641244914568823</v>
+        <v>0.4641392058428824</v>
       </c>
       <c r="CR6">
-        <v>0.4895291695029884</v>
+        <v>0.4895615354891807</v>
       </c>
       <c r="CS6">
-        <v>0.4919414386023201</v>
+        <v>0.4919713549797515</v>
       </c>
       <c r="CT6">
-        <v>0.5127845394605909</v>
+        <v>0.5128281194604251</v>
       </c>
       <c r="CU6">
-        <v>0.5519951440751931</v>
+        <v>0.5520684455638246</v>
       </c>
       <c r="CV6">
-        <v>0.5900300616413834</v>
+        <v>0.5901320567695302</v>
       </c>
       <c r="CW6">
-        <v>0.6201705108824976</v>
+        <v>0.62029429787846</v>
       </c>
       <c r="CX6">
-        <v>0.6256457453079551</v>
+        <v>0.625769760505306</v>
       </c>
       <c r="CY6">
-        <v>0.6270164698643984</v>
+        <v>0.6271371248783487</v>
       </c>
       <c r="CZ6">
-        <v>0.627877289599845</v>
+        <v>0.6279941386439886</v>
       </c>
       <c r="DA6">
-        <v>0.6281977233130397</v>
+        <v>0.6283102939526537</v>
       </c>
       <c r="DB6">
-        <v>0.6288082196081786</v>
+        <v>0.6289167654316792</v>
       </c>
       <c r="DC6">
-        <v>0.6388936630234738</v>
+        <v>0.6390064675427073</v>
       </c>
       <c r="DD6">
-        <v>0.6561204827328345</v>
+        <v>0.6562437893256666</v>
       </c>
       <c r="DE6">
-        <v>0.6724574054055513</v>
+        <v>0.6725904360758043</v>
       </c>
       <c r="DF6">
-        <v>0.6849584009203135</v>
+        <v>0.6850978020927482</v>
       </c>
       <c r="DG6">
-        <v>0.6949253543307297</v>
+        <v>0.6950689106085186</v>
       </c>
       <c r="DH6">
-        <v>0.6970338319175519</v>
+        <v>0.6971746729955892</v>
       </c>
       <c r="DI6">
-        <v>0.6976580490432557</v>
+        <v>0.6977948773006727</v>
       </c>
       <c r="DJ6">
-        <v>0.7019976592219508</v>
+        <v>0.7021337228565451</v>
       </c>
       <c r="DK6">
-        <v>0.7155902517816624</v>
+        <v>0.7157336402516856</v>
       </c>
       <c r="DL6">
-        <v>0.7167976051313784</v>
+        <v>0.7169374905900455</v>
       </c>
       <c r="DM6">
-        <v>0.7184881078009894</v>
+        <v>0.7186249126435986</v>
       </c>
       <c r="DN6">
-        <v>0.7201343048687759</v>
+        <v>0.7202679903609711</v>
       </c>
       <c r="DO6">
-        <v>0.723969779826712</v>
+        <v>0.7241022599537752</v>
       </c>
       <c r="DP6">
-        <v>0.7405758525105117</v>
+        <v>0.7407182920205101</v>
       </c>
       <c r="DQ6">
-        <v>0.7451747402998833</v>
+        <v>0.7453166418615862</v>
       </c>
       <c r="DR6">
-        <v>0.746768022365491</v>
+        <v>0.7469067583156195</v>
       </c>
       <c r="DS6">
-        <v>0.7473168118880888</v>
+        <v>0.7474514690747019</v>
       </c>
       <c r="DT6">
-        <v>0.7635321205557979</v>
+        <v>0.7636763954982831</v>
       </c>
       <c r="DU6">
-        <v>0.7748165130204632</v>
+        <v>0.774966094844864</v>
       </c>
       <c r="DV6">
-        <v>0.7847179424281812</v>
+        <v>0.784871622073305</v>
       </c>
       <c r="DW6">
-        <v>0.8009940030983917</v>
+        <v>0.8011573536120781</v>
       </c>
       <c r="DX6">
-        <v>0.8031441927869316</v>
+        <v>0.8033048645678443</v>
       </c>
       <c r="DY6">
-        <v>0.8038451201557942</v>
+        <v>0.8040018461803351</v>
       </c>
       <c r="DZ6">
-        <v>0.8045572311351173</v>
+        <v>0.8047100211806042</v>
       </c>
       <c r="EA6">
-        <v>0.8100288175604247</v>
+        <v>0.8101818326180207</v>
       </c>
       <c r="EB6">
-        <v>0.8115539603232266</v>
+        <v>0.8117037501981799</v>
       </c>
       <c r="EC6">
-        <v>0.8164736805258093</v>
+        <v>0.8166232129415361</v>
       </c>
       <c r="ED6">
-        <v>0.8211127801168366</v>
+        <v>0.8212618097396025</v>
       </c>
       <c r="EE6">
-        <v>0.8233465316088173</v>
+        <v>0.8234929555530631</v>
       </c>
       <c r="EF6">
-        <v>0.8256287032027919</v>
+        <v>0.8257725637999928</v>
       </c>
       <c r="EG6">
-        <v>0.8260614063706097</v>
+        <v>0.8262010867153176</v>
       </c>
       <c r="EH6">
-        <v>0.826123293293158</v>
+        <v>0.8262584691977315</v>
       </c>
       <c r="EI6">
-        <v>0.8262517687984483</v>
+        <v>0.8263824984782322</v>
       </c>
       <c r="EJ6">
-        <v>0.8263990296645122</v>
+        <v>0.8265253295426861</v>
       </c>
       <c r="EK6">
-        <v>0.8271174701940959</v>
+        <v>0.8272398396268514</v>
       </c>
       <c r="EL6">
-        <v>0.828072043333403</v>
+        <v>0.8281906887606543</v>
       </c>
       <c r="EM6">
-        <v>0.8294958461920319</v>
+        <v>0.8296111778398086</v>
       </c>
       <c r="EN6">
-        <v>0.8327894700276557</v>
+        <v>0.8329031225947079</v>
       </c>
       <c r="EO6">
-        <v>0.8338617151718083</v>
+        <v>0.8339717466085949</v>
       </c>
       <c r="EP6">
-        <v>0.8347435901081218</v>
+        <v>0.8348498339826985</v>
       </c>
       <c r="EQ6">
-        <v>0.8366856823880927</v>
+        <v>0.8367890655998727</v>
       </c>
       <c r="ER6">
-        <v>0.837009478801426</v>
+        <v>0.8371085865485308</v>
       </c>
       <c r="ES6">
-        <v>0.8372221715501842</v>
+        <v>0.8373169066997741</v>
       </c>
       <c r="ET6">
-        <v>0.837367365486163</v>
+        <v>0.8374576690271207</v>
       </c>
       <c r="EU6">
-        <v>0.8390870505569756</v>
+        <v>0.8391742989947109</v>
       </c>
       <c r="EV6">
-        <v>0.8455876868246568</v>
+        <v>0.8456760599255971</v>
       </c>
       <c r="EW6">
-        <v>0.8511251200526755</v>
+        <v>0.8512137757325656</v>
       </c>
       <c r="EX6">
-        <v>0.8583680127509211</v>
+        <v>0.8584584420147815</v>
       </c>
       <c r="EY6">
-        <v>0.8614689146786091</v>
+        <v>0.861557496373817</v>
       </c>
       <c r="EZ6">
-        <v>0.8616687679268386</v>
+        <v>0.8617529657995449</v>
       </c>
       <c r="FA6">
-        <v>0.8627784689725335</v>
+        <v>0.8628590784609516</v>
       </c>
       <c r="FB6">
-        <v>0.8652795279755213</v>
+        <v>0.8653577654801202</v>
       </c>
       <c r="FC6">
-        <v>0.872805441285421</v>
+        <v>0.8728856998059347</v>
       </c>
       <c r="FD6">
-        <v>0.881144979628824</v>
+        <v>0.8812279704803149</v>
       </c>
       <c r="FE6">
-        <v>0.8852775113989921</v>
+        <v>0.8853595565885021</v>
       </c>
       <c r="FF6">
-        <v>0.8869723419687814</v>
+        <v>0.8870513103259181</v>
       </c>
       <c r="FG6">
-        <v>0.8879945947108754</v>
+        <v>0.8880698982316815</v>
       </c>
       <c r="FH6">
-        <v>0.8884074954578777</v>
+        <v>0.8884786014138423</v>
       </c>
       <c r="FI6">
-        <v>0.888419791012384</v>
+        <v>0.8884863491727548</v>
       </c>
       <c r="FJ6">
-        <v>0.8884793725108374</v>
+        <v>0.8885414242155473</v>
       </c>
       <c r="FK6">
-        <v>0.8911565283210765</v>
+        <v>0.8912163619953318</v>
       </c>
       <c r="FL6">
-        <v>0.900466217704428</v>
+        <v>0.900529631868234</v>
       </c>
       <c r="FM6">
-        <v>0.9130290322217358</v>
+        <v>0.9130988709332429</v>
       </c>
       <c r="FN6">
-        <v>0.9224197736084249</v>
+        <v>0.9224932636695329</v>
       </c>
       <c r="FO6">
-        <v>0.9243964951898217</v>
+        <v>0.9244671548629435</v>
       </c>
       <c r="FP6">
-        <v>0.9246960962321585</v>
+        <v>0.9247624592877018</v>
       </c>
       <c r="FQ6">
-        <v>0.9255002094352701</v>
+        <v>0.9255627169450854</v>
       </c>
       <c r="FR6">
-        <v>0.9275324117189515</v>
+        <v>0.9275921373450148</v>
       </c>
       <c r="FS6">
-        <v>0.9295116188004507</v>
+        <v>0.9295685162114865</v>
       </c>
       <c r="FT6">
-        <v>0.9358442690612147</v>
+        <v>0.9359021442729917</v>
       </c>
       <c r="FU6">
-        <v>0.9428106637480748</v>
+        <v>0.9428700708142879</v>
       </c>
       <c r="FV6">
-        <v>0.9491917985108351</v>
+        <v>0.9492522257655667</v>
       </c>
       <c r="FW6">
-        <v>0.955463126769074</v>
+        <v>0.9555244782135315</v>
       </c>
       <c r="FX6">
-        <v>0.9565434598135596</v>
+        <v>0.9566011971986319</v>
       </c>
       <c r="FY6">
-        <v>0.9575676052557316</v>
+        <v>0.9576216794591741</v>
       </c>
       <c r="FZ6">
-        <v>0.9611695834040528</v>
+        <v>0.9612222481068083</v>
       </c>
       <c r="GA6">
-        <v>0.9650602201642602</v>
+        <v>0.9651117277273185</v>
       </c>
       <c r="GB6">
-        <v>0.9714934514291658</v>
+        <v>0.9715460247263257</v>
       </c>
       <c r="GC6">
-        <v>0.9775769606796707</v>
+        <v>0.9776302939650096</v>
       </c>
       <c r="GD6">
-        <v>0.9818647568562323</v>
+        <v>0.9819172802201419</v>
       </c>
       <c r="GE6">
-        <v>0.983434509020871</v>
+        <v>0.9834838462020926</v>
       </c>
       <c r="GF6">
-        <v>0.9834735867794802</v>
+        <v>0.9835183995795611</v>
       </c>
       <c r="GG6">
-        <v>0.9847571464323341</v>
+        <v>0.9847985228447358</v>
       </c>
       <c r="GH6">
-        <v>0.9873519476391821</v>
+        <v>0.9873910340222753</v>
       </c>
       <c r="GI6">
-        <v>0.9920240174315672</v>
+        <v>0.9920626298460348</v>
       </c>
       <c r="GJ6">
-        <v>0.9942604108236567</v>
+        <v>0.9942964198692963</v>
       </c>
       <c r="GK6">
-        <v>0.99526904656519</v>
+        <v>0.9953013788697798</v>
       </c>
       <c r="GL6">
-        <v>0.9954397071122174</v>
+        <v>0.9954676300724654</v>
       </c>
       <c r="GM6">
-        <v>0.9955134102552523</v>
+        <v>0.9955368391057458</v>
       </c>
       <c r="GN6">
-        <v>0.9958316119083551</v>
+        <v>0.9958507604029312</v>
       </c>
       <c r="GO6">
-        <v>0.9963596562300988</v>
+        <v>0.9963747078245815</v>
       </c>
       <c r="GP6">
-        <v>0.9973457656707045</v>
+        <v>0.9973571208304253</v>
       </c>
       <c r="GQ6">
-        <v>0.9988683420334007</v>
+        <v>0.9988764697667928</v>
       </c>
       <c r="GR6">
-        <v>0.9999641801785247</v>
+        <v>0.9999687074079303</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>98</v>
       </c>
       <c r="E2">
-        <v>0.001086886039829613</v>
+        <v>0.00171556510911236</v>
       </c>
       <c r="F2">
-        <v>0.5251562184942828</v>
+        <v>0.5252090961847671</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.03227880228351791</v>
+        <v>0.03476783880839576</v>
       </c>
       <c r="F3">
-        <v>0.5003626710158801</v>
+        <v>0.5003757765473424</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>97</v>
       </c>
       <c r="E4">
-        <v>0.04168886500048342</v>
+        <v>0.0780691929723174</v>
       </c>
       <c r="F4">
-        <v>0.5096893491964585</v>
+        <v>0.5097077144364527</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>96</v>
       </c>
       <c r="E5">
-        <v>0.0006534875571948642</v>
+        <v>0.004111004032094124</v>
       </c>
       <c r="F5">
-        <v>0.5008729950256499</v>
+        <v>0.5008770874278504</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.05006205891674615</v>
+        <v>0.07775291064491931</v>
       </c>
       <c r="F6">
-        <v>0.5127845394605909</v>
+        <v>0.5128281194604251</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.001086886039829613</v>
+        <v>0.00171556510911236</v>
       </c>
       <c r="F2">
-        <v>0.7020896945429829</v>
+        <v>0.702197713088468</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.03227880228351791</v>
+        <v>0.03476783880839576</v>
       </c>
       <c r="F3">
-        <v>0.7038970982658008</v>
+        <v>0.7039494367032032</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.04168886500048342</v>
+        <v>0.0780691929723174</v>
       </c>
       <c r="F4">
-        <v>0.7084989957295471</v>
+        <v>0.7085679510118035</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.0006534875571948642</v>
+        <v>0.004111004032094124</v>
       </c>
       <c r="F5">
-        <v>0.7021598369596985</v>
+        <v>0.7021786674831252</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>113</v>
       </c>
       <c r="E6">
-        <v>0.05006205891674615</v>
+        <v>0.07775291064491931</v>
       </c>
       <c r="F6">
-        <v>0.7019976592219508</v>
+        <v>0.7021337228565451</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>133</v>
       </c>
       <c r="E2">
-        <v>0.001086886039829613</v>
+        <v>0.00171556510911236</v>
       </c>
       <c r="F2">
-        <v>0.8014648324373016</v>
+        <v>0.8015936316123924</v>
       </c>
       <c r="G2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.03227880228351791</v>
+        <v>0.03476783880839576</v>
       </c>
       <c r="F3">
-        <v>0.8027707580749005</v>
+        <v>0.8028321284580514</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.04168886500048342</v>
+        <v>0.0780691929723174</v>
       </c>
       <c r="F4">
-        <v>0.8025968181596395</v>
+        <v>0.8026777130459105</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.0006534875571948642</v>
+        <v>0.004111004032094124</v>
       </c>
       <c r="F5">
-        <v>0.8118821092219968</v>
+        <v>0.8119033597067326</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.05006205891674615</v>
+        <v>0.07775291064491931</v>
       </c>
       <c r="F6">
-        <v>0.8009940030983917</v>
+        <v>0.8011573536120781</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.001086886039829613</v>
+        <v>0.00171556510911236</v>
       </c>
       <c r="F2">
-        <v>0.9031453493518261</v>
+        <v>0.9032145242119131</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>0.03227880228351791</v>
+        <v>0.03476783880839576</v>
       </c>
       <c r="F3">
-        <v>0.9090196436696377</v>
+        <v>0.9090514727848015</v>
       </c>
       <c r="G3">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.04168886500048342</v>
+        <v>0.0780691929723174</v>
       </c>
       <c r="F4">
-        <v>0.9047173167979016</v>
+        <v>0.9047513612029036</v>
       </c>
       <c r="G4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.0006534875571948642</v>
+        <v>0.004111004032094124</v>
       </c>
       <c r="F5">
-        <v>0.900129258478362</v>
+        <v>0.9001403781812827</v>
       </c>
       <c r="G5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>167</v>
       </c>
       <c r="E6">
-        <v>0.05006205891674615</v>
+        <v>0.07775291064491931</v>
       </c>
       <c r="F6">
-        <v>0.900466217704428</v>
+        <v>0.900529631868234</v>
       </c>
       <c r="G6">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6">
         <v>43</v>

--- a/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
@@ -1994,19 +1994,19 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.511045849146912E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.119104530615647E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.822076784681166E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.745571330417305E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.868405351516612E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.798218183324158E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.564546392475809E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2033,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.987202961042828E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.424527461984638E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.450563591817414E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.693066914118703E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.891327762633154E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2060,34 +2060,34 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>3.591206873018776E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.067931544181303E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.81846825549433E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001332974015624067</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.316138982661544E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.542659113976014E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001671271810110135</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001254855089140962</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.506166327315661E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>6.244014893242215E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.202634835947178E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.036222196789821E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -2108,28 +2108,28 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.993221032784826E-07</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.222534406437737E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.018951470514728E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.288629586872274E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.838496779935187E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.061614616134824E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.701370463455117E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>7.06118857897465E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2138,460 +2138,460 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0007976912057142888</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.06095530158520305</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="AZ2">
-        <v>0.02838495635051404</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.006622711763079479</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0002234002956985703</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.02555001432512891</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001033711514610813</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.003216145849412496</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001650882040470914</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.04639341876628663</v>
+        <v>0.1882863559840093</v>
       </c>
       <c r="BH2">
-        <v>0.01765239601397483</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001541949736490522</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0008006338843161827</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0002244557626463156</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.890178961269971E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01951927619757983</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01192912408776208</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.006719685190967634</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0009745864092482086</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.002961800794322044</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0006222549258127084</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001870322302368729</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.003865347999592061</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.004459879371949362</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0004227933312997901</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0172496179124775</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0119480983921121</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.004965521362924758</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.007606791368696387</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001996795378885629</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001839911719987561</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0006604245043890176</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.000383792748653496</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002722872086279475</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.010897401543245</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.005630407089778826</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01852741390441014</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001528744089065401</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0009094384285144101</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.005453626784975753</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>2.434692696826444E-06</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01474908123685602</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.01306451571364718</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.03935407195563303</v>
+        <v>0.1073314519729719</v>
       </c>
       <c r="CQ2">
-        <v>0.0456495155408192</v>
+        <v>0.1797312136062998</v>
       </c>
       <c r="CR2">
-        <v>0.01784464320925704</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.004392433316512637</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01178970828974857</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.03833824006572958</v>
+        <v>0.09564903663664769</v>
       </c>
       <c r="CV2">
-        <v>0.03639046336890067</v>
+        <v>0.0732489362057273</v>
       </c>
       <c r="CW2">
-        <v>0.02764869569219592</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.008969459890387424</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.001660877229194508</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.001472764886932725</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.000360549295884926</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0007698947205897345</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.005939301118026526</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01661364142692355</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01348284267605968</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01016057439815285</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.009890221087395852</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.002468354783178757</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0001467278421490958</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.004024758578836865</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01017592258663304</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001819282144286399</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.00116590280470736</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.00274967631877545</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.004291997913798724</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.01678670814069063</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.006017677465708009</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.001744529410324679</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>8.437305156388813E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01140733572243672</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01442300304249865</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.01089852150561274</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0232013501513895</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.009342437384646553</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001358304332605391</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.00026598629924608</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.005397036457711939</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.003059608439040864</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.004787557441056365</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.00740819782008297</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.004642076931722627</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.00219899372505034</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001815308830073976</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>6.464966353691463E-05</v>
+        <v>0</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2">
-        <v>8.197450052307296E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001647096587685144</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001174245773702026</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001140137865261129</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.003881956270843469</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.002307868679751311</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.001896065823410429</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.00255826914531205</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.00052872488677965</v>
+        <v>0</v>
       </c>
       <c r="ES2">
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.000368598012032303</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003064763568770563</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.008056964796323755</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.007424236101550259</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.009679628127859198</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.005391906449568861</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0006870930703086318</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0007233369641714394</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.002596108159839372</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.007883352613843162</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01135270778142351</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004636462607413554</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.003530477950518903</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.00147317644057492</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0004023553592409155</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>9.82687419331021E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
         <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.002477088387841099</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.007836998782654918</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.00866780468235504</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.009572289893640293</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003022363835282268</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0007230482360714872</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>6.129400006299059E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001203995437164963</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001784130739183654</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.005662702440714824</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.006741572498419811</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.006671034386022492</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.006018508179528586</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001352296770392576</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.001060883262907892</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003450051140904628</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.004852215300636024</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.006643567984534114</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.005359473180121448</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.003249248794302498</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.001558964156739991</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.000261791564770371</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001896065823410429</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.002592548901419204</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.005305849802315129</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.002879984991165362</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0008346658374897976</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0001935243136919041</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>5.422884807831768E-07</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>9.499047496489525E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0007858699478754612</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0007930835464181513</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.002016144205056924</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001342490443955661</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0001324787280879271</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.714169263213267E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.186668237186716E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.32715486270697E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2785,19 +2785,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.012528752284304E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.468033053375098E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.403867141742254E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.32715486270697E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.044037515134705E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2806,49 +2806,49 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.602909872745068E-07</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.308164487540505E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3.592170998688389E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2.475943256782007E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1.058725649385062E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2.862583998738141E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>5.326814956972126E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>8.507535131655596E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>5.752268596179549E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>8.653065495858347E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.87572811793878E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.598116029846159E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2857,43 +2857,43 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.470215129464627E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.18101079611009E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.68953235045953E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.179657833159166E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.603735978064839E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.056686151713106E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0001177851096665537</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.012528752284304E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.125936635018722E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.127907009576925E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>5.602909872745068E-07</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.865371689848788E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -2902,469 +2902,469 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.648375375213553E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>3.059012184131394E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001555270843147943</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.02987422591850009</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.002372022261355012</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002030153894486953</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.02253773759039878</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.03354518528770481</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="BD3">
-        <v>0.00263213441311768</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007590089020027884</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.04343021279456275</v>
+        <v>0.158245283852428</v>
       </c>
       <c r="BH3">
-        <v>0.004116773875960249</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01050558707487002</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0004299880221104305</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.00165672457377012</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>2.151946749706533E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001557558358470274</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01408290988313291</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.006574383995509935</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.007007310351510978</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0009783691831635095</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0001429431261473516</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.000755607149392022</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001240661802735065</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001110139369859414</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001029962983266885</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0125461717961189</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.005989989809939671</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.00865134706342561</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01137826541645363</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.004617008106816201</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001257743184370929</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.002618066769140677</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.005568283634058022</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.008118636617878898</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01177895026193824</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01318096455128495</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001746001499671452</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002379556905635382</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.001769499229227617</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.003439393718214433</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.007793377550411217</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0146131992540765</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.05253726899591336</v>
+        <v>0.2656396869845708</v>
       </c>
       <c r="CQ3">
-        <v>0.04435683808070179</v>
+        <v>0.1691724558531119</v>
       </c>
       <c r="CR3">
-        <v>0.02191065325664474</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.003093883162046872</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01925138893211323</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.04608501914040355</v>
+        <v>0.1895519252785251</v>
       </c>
       <c r="CV3">
-        <v>0.04316411468591047</v>
+        <v>0.1551073381846429</v>
       </c>
       <c r="CW3">
-        <v>0.03175843923370877</v>
+        <v>0.02060660815439711</v>
       </c>
       <c r="CX3">
-        <v>0.006920264415843104</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.002624992042949659</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.001011916773388355</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>2.892634936960766E-05</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.001398741967214149</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.00915617513327438</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01861413608502607</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01626129876928175</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01617275046678267</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.00865134706342561</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.001230611341799953</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0004359476973348267</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.003472092131528893</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01050516888925676</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.002103399232007128</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002958682252611701</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0013512860037052</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004717030802268003</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01525707704166857</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.005779261777505207</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.004043706644793253</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0005074703729449953</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01373713340893663</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.01004935557479261</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01442004352117367</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01989234142130054</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.00445180378025082</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.003833020831097735</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>1.267830111191561E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.004469596677695669</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.002486297382800014</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.00663561117142361</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.008016273183481257</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003341289374230188</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002986070108815296</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001300607809997187</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>2.475943256782007E-06</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>6.29896184804775E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0002656295709900669</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0007809171833463506</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0004627106061531605</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.001688507380689218</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.005505338695708992</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.002324464352597279</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.003341523678226903</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.002944207427905991</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0001943114461705408</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0001594490523651519</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0002280922899258481</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.002257677709092879</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.005795426952479279</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.008835192663990982</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.01005669383190579</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.00607067902415268</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0009898945987628284</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0002226165094799801</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.003129448948055552</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.008451292268347928</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.00906767185075759</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005521116698835373</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.003876200996777639</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0008392601390879913</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>6.427738005832594E-05</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>2.194047166135648E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>3.902546389980088E-05</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001247480329163817</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.006728774722418194</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01374344871200779</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01140050628814867</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.003047620328113</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.000283231443647841</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0005219624353017015</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.001470484210280163</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001438051815038831</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005056221053144147</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.005924386691747459</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.007014120974431728</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.007774630929652668</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001457172902005624</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0001767886586149886</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.003651955564594155</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00781690969524273</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.006579084281749765</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.004526605281180012</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002447907243191303</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0006895834045030588</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.000221748364150391</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001179609504441481</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.002845452695244271</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.004698752089192049</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.002657971581042416</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001579919383495832</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0005465672262312453</v>
+        <v>0</v>
       </c>
       <c r="GM3">
         <v>0</v>
       </c>
       <c r="GN3">
-        <v>1.731297172800338E-05</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001047905347052935</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001899434101312187</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.00196998351493634</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001002711487587425</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>3.935748196727629E-06</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,46 +3540,46 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.282135313004294E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.160567310971263E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>8.026779281774761E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.043114178952355E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.836794485766201E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.799542015263908E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.172065825217368E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.052559427417943E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.218059625849401E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.438390696012908E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.509457747464374E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3588,34 +3588,34 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>5.296485881604484E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1.889469830996143E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>2.967524822466961E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3.436558141792267E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.431932075904356E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.481018525161439E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>9.860889569009687E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.910044700237604E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.172065825217368E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.641259903044865E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.397415036224118E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.16510695861294E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -3645,499 +3645,499 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>9.62292877016723E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.852019566531409E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.028125053014602E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>3.874195214397223E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.566505886044005E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.07372143189851E-07</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.172430993711835E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>7.807937304656324E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.795896846302912E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.100685449193032E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>4.397415036224118E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1.779623746290895E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.04113086015317213</v>
+        <v>0.1209460029112895</v>
       </c>
       <c r="AZ4">
-        <v>0.0006303507833317368</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.03583378199828347</v>
+        <v>0.06332971687399563</v>
       </c>
       <c r="BB4">
-        <v>4.712002491807062E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.007678052503373158</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.007722850173720429</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.001345634426416226</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.006031236636719597</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.06274517433652559</v>
+        <v>0.3560447634116821</v>
       </c>
       <c r="BH4">
-        <v>0.0007367679558831667</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.008793905375378512</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001577184867419096</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.004973386027867606</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.001453914688626428</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>8.900338715790048E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.02222356002853592</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01504754890452435</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006320087517043314</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.004935055841718917</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.007575499683894807</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.002889940893626121</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.00100496343548123</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.004935055841718917</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.006578360088055821</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0002217414745920192</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.008817857927461484</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.02899386395288639</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.006601829917402955</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001596855743869818</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.007939673719503009</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>7.008836947226066E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.006428778368705924</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>4.400720521426801E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.651303375632044E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01506216314776525</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.006462934028662794</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01324527930908369</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.006008804286081401</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001267467458952226</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0008077870051856888</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.000121199582987309</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.007425182825340158</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.0206909628641819</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.03463611937797793</v>
+        <v>0.0503027480262707</v>
       </c>
       <c r="CQ4">
-        <v>0.03310190446717034</v>
+        <v>0.03361510201481981</v>
       </c>
       <c r="CR4">
-        <v>0.03674124071395866</v>
+        <v>0.07320013966191015</v>
       </c>
       <c r="CS4">
-        <v>0.006467025416493269</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01415734665125139</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.04449943646708345</v>
+        <v>0.1575859864580014</v>
       </c>
       <c r="CV4">
-        <v>0.04149747931700083</v>
+        <v>0.124933717268574</v>
       </c>
       <c r="CW4">
-        <v>0.03185401567172034</v>
+        <v>0.02004182337345667</v>
       </c>
       <c r="CX4">
-        <v>0.007591814711904457</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.0006554171493459135</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0004495146026835051</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0005874493879554608</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0003052712465380659</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.007240127938114586</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01394353649589438</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01713800247256704</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01085015215987511</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.006556281200511037</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.003381357140785166</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>2.871950322894795E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.003451000775449816</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.008830660334692849</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.004199567976089458</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>6.645696028314099E-06</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.003785684203629506</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.001550259243514186</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01487273224137584</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01133400141550566</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0009354642374619124</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0002219988233367638</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01011678577312926</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.01678345988105811</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.008269013181893121</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01245263557083874</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.009581513790246346</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.00147803721914011</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
         <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003545624436290087</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.004555305619013842</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.005009455570920134</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.004737423050851455</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.003716886759410391</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.002113296537746961</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.001054703486320327</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>2.768384335925084E-05</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0001012665455714089</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0001712145706865834</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0006024149933203515</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.001044213846235975</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001444839000961884</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.002926657135075427</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.004087815911935421</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.00139352182241134</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.002198652022105332</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.001351882209241152</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>5.697831668841527E-06</v>
+        <v>0</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001437734222705834</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00543738162270787</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.008899553122905177</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.00693359800039668</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.005478870766449106</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0009126782836656769</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0007033857828252756</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.001656598310026265</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.005491461576046006</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.009594843940986838</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.005148917020618985</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.001142179249008353</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0007101820887473555</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0003857447882915974</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>2.397706099176526E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>1.114444182013714E-05</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0006350673596339717</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.005903738106899489</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01313974261279782</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.009140344227695158</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003407148341249319</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001036527399589012</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>9.08016469031334E-05</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.001363176020382635</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001012532427932986</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00286346597768493</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.008269013181893121</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.006190868293268043</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.004783203774795063</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.004546109976000019</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.00052045992796861</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003110873635456167</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.003211350096870362</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.004956598181692242</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.005315100200142823</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002237140981514491</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001016878633340284</v>
+        <v>0</v>
       </c>
       <c r="GF4">
         <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001673968224777193</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.003259747428157613</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.004986584617903926</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.00341708042406801</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0008922019055438586</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>2.302420432876559E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>7.110753373062415E-05</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0003094636209653392</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0001739175979057103</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0009659285241613018</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001495113198264533</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001569761942365127</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.000199404037748536</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.318217983202615E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.160125973223278E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.125130690308096E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.10808577949106E-07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>8.798779137285713E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.724188441749045E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.929257191604921E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>7.051555365323179E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.300325637473332E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.961160201822328E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4361,556 +4361,556 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>3.17889030896233E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>9.89322786189893E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.803362031691895E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>3.292191784717104E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.216346101938423E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>3.098047035758215E-07</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>3.166251421742074E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>2.854932251941316E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.376339196778422E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.567101100140801E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>5.365040596665536E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.79639018267619E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.563512448156575E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.543175148375582E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>5.700059327685118E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.76399028652513E-06</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.306106471966745E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.341024086357179E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.184237719682772E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.848648402237909E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>4.121515709735897E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.724188441749045E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>4.713093300168581E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>7.29452663338806E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.495341965893925E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>3.300325637473332E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.124668981531217E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>5.129335586131278E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.950116781113844E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.003481201177429043</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.03401687441492415</v>
+        <v>0.03500131853337169</v>
       </c>
       <c r="AZ5">
-        <v>0.06500096817020355</v>
+        <v>0.3051668491728869</v>
       </c>
       <c r="BA5">
-        <v>0.004502130932739833</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001719933063986263</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.006794294516261026</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>7.453176786527531E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.007687204920410993</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01741553328325412</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.002457963768834612</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.03190100918157501</v>
+        <v>0.01655205040100713</v>
       </c>
       <c r="BI5">
-        <v>0.0017215989468304</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002756182700778146</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.903143541621501E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.003434909796575006</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.02185812389356125</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.008378064347829527</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.009512335843314438</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001372577738925551</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.005324582603473048</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0004305063789624514</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.003149222040029483</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007659149041050963</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0003621811597161638</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002548287682615828</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.03177050085722922</v>
+        <v>0.01541408422461228</v>
       </c>
       <c r="BY5">
-        <v>0.01577021769654043</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0006887987486423471</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.005141082562857132</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>3.821117138559301E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01046075193966375</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001185339888054679</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0003387364664711641</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01042099757630034</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01179145599521335</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.005875784002291632</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01094697330639744</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.000380790532245546</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.000436667315175108</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001068088605376599</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.728886517400904E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02075775911961369</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.02100964276588428</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.03548180420283519</v>
+        <v>0.04777476082368178</v>
       </c>
       <c r="CQ5">
-        <v>0.05924470937417155</v>
+        <v>0.2549752016646107</v>
       </c>
       <c r="CR5">
-        <v>0.01141691588640241</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.003382208612193109</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.03442689241772135</v>
+        <v>0.03857646687149553</v>
       </c>
       <c r="CU5">
-        <v>0.05209712186854305</v>
+        <v>0.1926518758154737</v>
       </c>
       <c r="CV5">
-        <v>0.04077025865355081</v>
+        <v>0.09388739249286021</v>
       </c>
       <c r="CW5">
-        <v>0.009483517680287601</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.00106578996648236</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0001632145415180674</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0004682690237186134</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0001341602725766941</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.006501924426275278</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01332831167757394</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.02240118049842272</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01559287423165857</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.004868064796945714</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.003283003123587111</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001121269582419628</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.00174585020860283</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.005746470509088235</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01117941081829725</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0002552971083256986</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.003140494082065395</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0004358281230669762</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.008492410898289717</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01822659230355166</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.003071106466212474</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0007435423972012329</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.004554054031720554</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.01731095080447989</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.01239308202854404</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.006961538472640016</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01207293388969241</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.003885313232000583</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>1.386949968994225E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0004780918818568652</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.006135068860905227</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.003515647658209346</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.003802735568433078</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.00247606825594873</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.00254390540162499</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0006715103410995728</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0007482194105413336</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0005902137681421395</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>4.259235925645208E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0001014872164441122</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0009346964779100536</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001468780797990586</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001121161543961532</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.003615623931415199</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0009346964779100536</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0009413713105270034</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.001761219195473637</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0001193426912271097</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>2.567101100140801E-05</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0004655772082700627</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002375652334487921</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.008866457952983974</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.006664078223968116</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.006028266438474201</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.002304131284473318</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0003773278421872623</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002117256873492918</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.003903767257479368</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.007657215228799403</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.008653189545048602</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001928987809438046</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.000967823583878283</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0004715027386450217</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>2.135465124595975E-05</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>1.56614463706063E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>3.662107685983809E-05</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.003715900637596003</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01221256121492242</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.008860597309730904</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.005980029544084295</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001183197152872136</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0001531338250777782</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001198010478754648</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001362217301783649</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001801950566071508</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.006343527340912048</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.006374553446278442</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.004711886955162444</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.006321235594212269</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>4.857090505028278E-06</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004225605581842551</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.004181209308991969</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.004266170034119785</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.004605049528889463</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002673469322314831</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.00144526481692117</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001165593920774816</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.000401917101057611</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.003221760201680327</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.003427233754067161</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.004154663195340956</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.002342074449042992</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>4.753122133657314E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>7.807908721230905E-05</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>5.376339196778422E-06</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>1.215015497793238E-05</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0008308667817598182</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0002937317468386191</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001260449331924575</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0004368039801751988</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>1.582358916709167E-05</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,58 +5086,58 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.074924480543935E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.981814772826689E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.731395086586781E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6.897747901033535E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.162811515929255E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.779748261335599E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.02862342494452E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.724695265720875E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.323889490997319E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.003129491908196E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.454947542712517E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.490555579098521E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>4.609689709810257E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5149,19 +5149,19 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>2.092829152480969E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>7.552422279817039E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.496198376621096E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>9.452728257213215E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5173,55 +5173,55 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.839091204355113E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.565830866082985E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>4.264494170584893E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>6.326259687997789E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.158381482876019E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.430587763674794E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>8.366773641497218E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.278457536387119E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>9.025207804571255E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>2.392983346666348E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.376702493186114E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>7.956287068488062E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.060674295835923E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>5.737713073909006E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.000107517206681838</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.106390498746007E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -5230,460 +5230,460 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001472852220014638</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.04789746839109635</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="AZ6">
-        <v>0.02530867036131681</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.002528886799632445</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001026281226122145</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01268937000318437</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0005762097144165876</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001923748792436835</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01558411465422562</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.05611062284136958</v>
+        <v>0.296618644663436</v>
       </c>
       <c r="BH6">
-        <v>0.002406588868520161</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002279136835136469</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0008693162122161877</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001674595849458044</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0004822411198761278</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001287328692343327</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.03582302798537149</v>
+        <v>0.06595861342606023</v>
       </c>
       <c r="BO6">
-        <v>0.009330736130230511</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.003900774286758421</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001154634246546524</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01073744293313049</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0001231730125235842</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002928341235720947</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.004267619837954237</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00376732611555863</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002075656989052894</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01915775033806385</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01151271215532528</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.006434824860110589</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.003511677998840073</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.003315588408378609</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001134568218235913</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002508238562744221</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0002334935610131878</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.003712992153123339</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01660119710792901</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.007230673659216946</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01690985072663062</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.001876388721916782</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002778046948906163</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.00224516185691804</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001618740758268657</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01404927492315881</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02086483653186566</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.04582942589054008</v>
+        <v>0.1797264636696493</v>
       </c>
       <c r="CQ6">
-        <v>0.03500116005773312</v>
+        <v>0.05661437704872473</v>
       </c>
       <c r="CR6">
-        <v>0.02542232964629838</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.002409819490570737</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.02085676448067355</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.03924032610339952</v>
+        <v>0.104811621692771</v>
       </c>
       <c r="CV6">
-        <v>0.03806361120570561</v>
+        <v>0.09143294881478232</v>
       </c>
       <c r="CW6">
-        <v>0.03016224110892989</v>
+        <v>0.00159823522370732</v>
       </c>
       <c r="CX6">
-        <v>0.005475462626845996</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.001367364373042714</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0008570137656398589</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0003161553086651464</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0006064714790254435</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.01008970211102812</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01723732178295938</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01634664675013761</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01250736601694386</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.00997110851577041</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.002105762387070585</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0006202043050835064</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.004338845555872391</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0135999173951406</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0012038503383599</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.001687422053553137</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001643077717372446</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.003834269592804069</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01661603206673489</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.004598349841076128</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001590116454033246</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0005447107590824889</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.01622492642358118</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.01128969934658081</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.00990552722844096</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01628573153877315</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.002147510955766249</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0006969816124907298</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0007081750002691085</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.005471811437416506</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.001521917580159132</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.004919462743356153</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.004638596798066457</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002231145813460618</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.002279608246929586</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0004285229153248298</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>5.738248241394736E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0001240292805007542</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0001428310644539182</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0007145100841653314</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0009508491338028628</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.001420489079154347</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.003291944754899219</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001068624013886966</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0008780873741036125</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001939231617174113</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0003195209486581679</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0002083201512432772</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0001407623273466009</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001716629967590175</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.006501760930886243</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.005537715806968498</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.007244666282215857</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.003099054359035457</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0001954694257279477</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001106112661406701</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.002498687019168701</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.007527934325814428</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.008342270674380177</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004131586108187233</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.001691753737416044</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001018587905763398</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0004087031821608226</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>7.747758912546098E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>5.50750427924315E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.002674937779784602</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.009313269872902111</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01256923906500898</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.009394392736289975</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001973891193410572</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0002953044247583402</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0008002576573835565</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002029420399929387</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001976378866471699</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.006333628061505182</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.006967926541296228</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.00638215495127877</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.006272252447964853</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001076718985100443</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001020482260542234</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.003600568647634259</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.003889479620510094</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.006434296999007215</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.006084269238683834</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.004286986255132387</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.001566565981950755</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>3.455337746847375E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001280123265174718</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.002592511177539596</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.004671595823759476</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.002233790023261541</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001004959000483423</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0001662512026856674</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>6.920903328031647E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0003139212971854356</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0005239474216502982</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0009824130058437588</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001519348936367509</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001092237641137496</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>3.129259206925759E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.511045849146912E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.770209115530338E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.592285900211504E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.337857230628808E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.82469776578047E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.82469776578047E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.82469776578047E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.82469776578047E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.82469776578047E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.004519584112886E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.160974223360467E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.160974223360467E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7.160974223360467E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001014817718440329</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001257270464638793</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001311776100556967</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001581082791968838</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001619996069595169</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001619996069595169</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001619996069595169</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001619996069595169</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001619996069595169</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001655908138325357</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001862701292743487</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.000224454811829292</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0003577522133916987</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0004109136032183142</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0004763401943580743</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0006434673753690878</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0007689528842831839</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0007840145475563405</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0007902585624495827</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0007902585624495827</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0007902585624495827</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.00079646119728553</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0007984974194823198</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0007984974194823198</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0007984974194823198</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0007994967415855983</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0008117220856499757</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.000821911600355123</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0008447978962238457</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0008731828640231975</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0008937990101845457</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0009108127148190969</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0009178739033980716</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0009178739033980716</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0009178739033980716</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.00171556510911236</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0626708666943154</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="AZ2">
-        <v>0.09105582304482944</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BA2">
-        <v>0.09767853480790892</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BB2">
-        <v>0.09790193510360749</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BC2">
-        <v>0.1234519494287364</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BD2">
-        <v>0.1244856609433472</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BE2">
-        <v>0.1277018067927597</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BF2">
-        <v>0.1293526888332306</v>
+        <v>0.3557530055943441</v>
       </c>
       <c r="BG2">
-        <v>0.1757461075995173</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BH2">
-        <v>0.1933985036134921</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BI2">
-        <v>0.1949404533499826</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BJ2">
-        <v>0.1957410872342988</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BK2">
-        <v>0.1959655429969451</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BL2">
-        <v>0.1960144447865578</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BM2">
-        <v>0.1960144447865578</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BN2">
-        <v>0.2155337209841377</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BO2">
-        <v>0.2274628450718998</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BP2">
-        <v>0.2341825302628674</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BQ2">
-        <v>0.2351571166721156</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BR2">
-        <v>0.2381189174664377</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BS2">
-        <v>0.2387411723922504</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BT2">
-        <v>0.2406114946946191</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BU2">
-        <v>0.2444768426942112</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BV2">
-        <v>0.2489367220661605</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BW2">
-        <v>0.2493595153974603</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BX2">
-        <v>0.2666091333099378</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BY2">
-        <v>0.2785572317020499</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="BZ2">
-        <v>0.2835227530649747</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CA2">
-        <v>0.2911295444336711</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CB2">
-        <v>0.2931263398125567</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CC2">
-        <v>0.2933103309845554</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CD2">
-        <v>0.2939707554889445</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CE2">
-        <v>0.294354548237598</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CF2">
-        <v>0.2970774203238775</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CG2">
-        <v>0.3079748218671224</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CH2">
-        <v>0.3136052289569012</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CI2">
-        <v>0.3321326428613114</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CJ2">
-        <v>0.3336613869503768</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CK2">
-        <v>0.3345708253788912</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CL2">
-        <v>0.340024452163867</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CM2">
-        <v>0.3400268868565638</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CN2">
-        <v>0.3547759680934198</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CO2">
-        <v>0.367840483807067</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="CP2">
-        <v>0.4071945557627</v>
+        <v>0.6513708135513253</v>
       </c>
       <c r="CQ2">
-        <v>0.4528440713035192</v>
+        <v>0.831102027157625</v>
       </c>
       <c r="CR2">
-        <v>0.4706887145127763</v>
+        <v>0.831102027157625</v>
       </c>
       <c r="CS2">
-        <v>0.4750811478292889</v>
+        <v>0.831102027157625</v>
       </c>
       <c r="CT2">
-        <v>0.4868708561190375</v>
+        <v>0.831102027157625</v>
       </c>
       <c r="CU2">
-        <v>0.5252090961847671</v>
+        <v>0.9267510637942727</v>
       </c>
       <c r="CV2">
-        <v>0.5615995595536678</v>
+        <v>1</v>
       </c>
       <c r="CW2">
-        <v>0.5892482552458638</v>
+        <v>1</v>
       </c>
       <c r="CX2">
-        <v>0.5982177151362512</v>
+        <v>1</v>
       </c>
       <c r="CY2">
-        <v>0.5998785923654457</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>0.6013513572523784</v>
+        <v>1</v>
       </c>
       <c r="DA2">
-        <v>0.6017119065482633</v>
+        <v>1</v>
       </c>
       <c r="DB2">
-        <v>0.6024818012688531</v>
+        <v>1</v>
       </c>
       <c r="DC2">
-        <v>0.6084211023868796</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0.6250347438138032</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.6385175864898629</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.6486781608880158</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.6585683819754117</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.6610367367585904</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.6611834646007395</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6652082231795764</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6753841457662094</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.6772034279104958</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6783693307152032</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.6811190070339787</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.6854110049477774</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.702197713088468</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.708215390554176</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.7099599199645007</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7100442930160645</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.7214516287385012</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7358746317809999</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7467731532866126</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7699745034380021</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7793169408226487</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7806752451552541</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7809412314545002</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.7863382679122122</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.789397876351253</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.7941854337923094</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.8015936316123924</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.806235708544115</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.8084347022691654</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8102500110992393</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8103146607627763</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8103146607627763</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8103966352632993</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8120437318509844</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8132179776246865</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8143581154899476</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8182400717607911</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8205479404405424</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8224440062639528</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8250022754092649</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8255310002960445</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8255310002960445</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8258995983080768</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8289643618768474</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8370213266731712</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8444455627747215</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8541251909025807</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8595170973521495</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8602041904224582</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8609275273866297</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.863523635546469</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8714069881603123</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8827596959417358</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8873961585491493</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8909266364996682</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8923998129402431</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.892802168299484</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8929004370414171</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8929004370414171</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8953775254292582</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9032145242119131</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9118823288942681</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9214546187879085</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9244769826231908</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9252000308592623</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9252613248593252</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9264653202964902</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9282494510356739</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9339121534763888</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9406537259748086</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.947324760360831</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9533432685403596</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9546955653107522</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.95575644857366</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9592064997145646</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9640587150152007</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9707022829997348</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9760617561798562</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9793110049741588</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9808699691308987</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9811317606956691</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9830278265190795</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9856203754204987</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9909262252228138</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9938062102139792</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.994640876051469</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9948344003651609</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9948349426536417</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9949299331286066</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.995715803076482</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9965088866229002</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9985250308279571</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9998675212719127</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.714169263213267E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.958085163508043E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.958085163508043E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.09080064977874E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.09080064977874E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.09080064977874E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.103329402063044E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.550132707400554E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.953999849142807E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.086715335413504E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.591119086926974E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.591119086926974E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.591119086926974E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.647148185654426E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.877964634408477E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.877964634408477E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.237181734277315E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>8.237181734277315E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>8.484776059955515E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>8.484776059955515E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>9.543501709340578E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001240608570807872</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001773290066505085</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002624043579670644</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003199270439288599</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003285801094247183</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.000335455837542657</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0003370539535725032</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0003370539535725032</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0003370539535725032</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003435241687019678</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0003447051794980779</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0004016005030026732</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0004333970813342649</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0004360008173123297</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0004665676788294608</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0005843527884960145</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0006144780760188576</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0006357374423690448</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0006357374423690448</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.000657016512464814</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0006575768034520885</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0006962305203505764</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0006962305203505764</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0006962305203505764</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0007327142741027119</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0007633043959440259</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0007633043959440259</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.002318575239091969</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.03219280115759206</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.03456482341894707</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.03476783880839576</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.05730557639879454</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.09085076168649936</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="BD3">
-        <v>0.09348289609961705</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="BE3">
-        <v>0.09348289609961705</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="BF3">
-        <v>0.1010729851196449</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="BG3">
-        <v>0.1445031979142077</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BH3">
-        <v>0.1486199717901679</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BI3">
-        <v>0.1591255588650379</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BJ3">
-        <v>0.1595555468871483</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BK3">
-        <v>0.1612122714609185</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BL3">
-        <v>0.1612144234076682</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BM3">
-        <v>0.1627719817661384</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BN3">
-        <v>0.1768548916492713</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BO3">
-        <v>0.1834292756447813</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BP3">
-        <v>0.1904365859962923</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BQ3">
-        <v>0.1914149551794558</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BR3">
-        <v>0.1915578983056031</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BS3">
-        <v>0.1915578983056031</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BT3">
-        <v>0.1923135054549951</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BU3">
-        <v>0.1935541672577302</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BV3">
-        <v>0.1946643066275896</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BW3">
-        <v>0.1956942696108565</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BX3">
-        <v>0.2082404414069754</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BY3">
-        <v>0.2142304312169151</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="BZ3">
-        <v>0.2228817782803407</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CA3">
-        <v>0.2342600436967943</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CB3">
-        <v>0.2388770518036105</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CC3">
-        <v>0.2388770518036105</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CD3">
-        <v>0.2401347949879814</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CE3">
-        <v>0.2427528617571221</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CF3">
-        <v>0.2483211453911801</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CG3">
-        <v>0.256439782009059</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CH3">
-        <v>0.2682187322709973</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CI3">
-        <v>0.2813996968222823</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CJ3">
-        <v>0.2831456983219537</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CK3">
-        <v>0.2855252552275891</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CL3">
-        <v>0.2872947544568167</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CM3">
-        <v>0.2907341481750312</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CN3">
-        <v>0.2985275257254424</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CO3">
-        <v>0.3131407249795189</v>
+        <v>0.1999219855447521</v>
       </c>
       <c r="CP3">
-        <v>0.3656779939754323</v>
+        <v>0.4655616725293229</v>
       </c>
       <c r="CQ3">
-        <v>0.4100348320561341</v>
+        <v>0.6347341283824348</v>
       </c>
       <c r="CR3">
-        <v>0.4319454853127788</v>
+        <v>0.6347341283824348</v>
       </c>
       <c r="CS3">
-        <v>0.4350393684748257</v>
+        <v>0.6347341283824348</v>
       </c>
       <c r="CT3">
-        <v>0.4542907574069389</v>
+        <v>0.6347341283824348</v>
       </c>
       <c r="CU3">
-        <v>0.5003757765473424</v>
+        <v>0.82428605366096</v>
       </c>
       <c r="CV3">
-        <v>0.543539891233253</v>
+        <v>0.9793933918456028</v>
       </c>
       <c r="CW3">
-        <v>0.5752983304669618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX3">
-        <v>0.5822185948828049</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY3">
-        <v>0.5848435869257546</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ3">
-        <v>0.5858555036991429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA3">
-        <v>0.5858844300485124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB3">
-        <v>0.5872831720157266</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC3">
-        <v>0.5964393471490009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD3">
-        <v>0.615053483234027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE3">
-        <v>0.6313147820033087</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF3">
-        <v>0.6474875324700914</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG3">
-        <v>0.656138879533517</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH3">
-        <v>0.6573694908753169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI3">
-        <v>0.6578054385726517</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ3">
-        <v>0.6612775307041806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK3">
-        <v>0.6717826995934374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL3">
-        <v>0.6738860988254445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM3">
-        <v>0.6768447810780562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN3">
-        <v>0.6781960670817614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO3">
-        <v>0.6829130978840294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP3">
-        <v>0.698170174925698</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ3">
-        <v>0.7039494367032032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR3">
-        <v>0.7079931433479965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS3">
-        <v>0.7085006137209414</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT3">
-        <v>0.7222377471298781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU3">
-        <v>0.7322871027046707</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV3">
-        <v>0.7467071462258443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW3">
-        <v>0.7665994876471449</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX3">
-        <v>0.7710512914273957</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY3">
-        <v>0.7748843122584934</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ3">
-        <v>0.7748969905596054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA3">
-        <v>0.779366587237301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB3">
-        <v>0.7818528846201011</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC3">
-        <v>0.7884884957915247</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED3">
-        <v>0.796504768975006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE3">
-        <v>0.7998460583492362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF3">
-        <v>0.8028321284580514</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG3">
-        <v>0.8041327362680486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH3">
-        <v>0.8041352122113054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI3">
-        <v>0.8041982018297859</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ3">
-        <v>0.8044638314007759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK3">
-        <v>0.8052447485841223</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL3">
-        <v>0.8057074591902755</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM3">
-        <v>0.8073959665709648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.8129013052666738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.8152257696192711</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.818567293297498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.821511500725404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.8217058121715746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.8218652612239398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.8220933535138656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.8243510312229585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.8301464581754378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.8389816508394288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.8490383446713345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.8551090236954872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.8560989182942501</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.8563215348037301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.8594509837517856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.8679022760201336</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.8769699478708912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.8824910645697266</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.8863672655665042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.8872065257055922</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.8872708030856505</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.8872927435573119</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.8873317690212117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.8885792493503755</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.8953080240727936</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9090514727848015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9204519790729502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.9234995994010632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.923782830844711</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9243047932800127</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9257752774902929</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9272133293053317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9322695503584759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9381939370502234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9452080580246551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9529826889543078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9544398618563135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9546166505149285</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9582686060795227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9660855157747654</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.9726646000565152</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9771912053376952</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9796391125808865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9803286959853896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.98055044434954</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9817300538539815</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9845755065492258</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9892742586384178</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9919322302194602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9935121496029561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9940587168291873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9940587168291873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9940760298009154</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9951239351479683</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9970233692492805</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9989933527642169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9999960642518043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.282135313004294E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.388780842271693E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5.191458770449169E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001323457294940152</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001507136743516772</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001507136743516772</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001575132163669411</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001596852821921585</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001596852821921585</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001702108764663379</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001774289360921873</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001774289360921873</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001788673267882002</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.000193961904262844</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.000193961904262844</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.000193961904262844</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001944915528510044</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001944915528510044</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.000194680499834104</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.000194680499834104</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002243557480587736</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002587213294766963</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002730406502357399</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002878508354873542</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002977117250563639</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.00032681217205874</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.00032681217205874</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00032681217205874</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0003289842378839574</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003306254977870022</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0003306254977870022</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0003350229128232264</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0003466739824093558</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0003466739824093558</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0003466739824093558</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.000356296911179523</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0003591489307460544</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0003694301812762004</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0003733043764905976</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0003733043764905976</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0003989694353510377</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0003990768074942275</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0004012492384879394</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0004090571757925957</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0004470161442556248</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0004680229987475552</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0004724204137837793</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0004742000375300702</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0004742000375300702</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0416050601907022</v>
+        <v>0.1209460029112895</v>
       </c>
       <c r="AZ4">
-        <v>0.04223541097403393</v>
+        <v>0.1209460029112895</v>
       </c>
       <c r="BA4">
-        <v>0.0780691929723174</v>
+        <v>0.1842757197852851</v>
       </c>
       <c r="BB4">
-        <v>0.07807390497480921</v>
+        <v>0.1842757197852851</v>
       </c>
       <c r="BC4">
-        <v>0.08575195747818236</v>
+        <v>0.1842757197852851</v>
       </c>
       <c r="BD4">
-        <v>0.09347480765190279</v>
+        <v>0.1842757197852851</v>
       </c>
       <c r="BE4">
-        <v>0.09482044207831901</v>
+        <v>0.1842757197852851</v>
       </c>
       <c r="BF4">
-        <v>0.1008516787150386</v>
+        <v>0.1842757197852851</v>
       </c>
       <c r="BG4">
-        <v>0.1635968530515642</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BH4">
-        <v>0.1643336210074474</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BI4">
-        <v>0.1731275263828259</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BJ4">
-        <v>0.174704711250245</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BK4">
-        <v>0.1796780972781126</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BL4">
-        <v>0.181132011966739</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BM4">
-        <v>0.1812210153538969</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BN4">
-        <v>0.2034445753824328</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BO4">
-        <v>0.2184921242869572</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BP4">
-        <v>0.2248122118040005</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BQ4">
-        <v>0.2297472676457194</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BR4">
-        <v>0.2373227673296142</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BS4">
-        <v>0.2402127082232403</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BT4">
-        <v>0.2412176716587216</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BU4">
-        <v>0.2461527275004405</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BV4">
-        <v>0.2527310875884963</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BW4">
-        <v>0.2529528290630884</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BX4">
-        <v>0.2617706869905498</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BY4">
-        <v>0.2907645509434362</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="BZ4">
-        <v>0.2973663808608392</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CA4">
-        <v>0.298963236604709</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CB4">
-        <v>0.306902910324212</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CC4">
-        <v>0.3069729986936842</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CD4">
-        <v>0.3134017770623901</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CE4">
-        <v>0.3134457842676044</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CF4">
-        <v>0.3135122973013607</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CG4">
-        <v>0.328574460449126</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CH4">
-        <v>0.3350373944777887</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CI4">
-        <v>0.3482826737868724</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CJ4">
-        <v>0.3542914780729539</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CK4">
-        <v>0.3555589455319061</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CL4">
-        <v>0.3563667325370918</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CM4">
-        <v>0.3564879321200791</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CN4">
-        <v>0.3639131149454192</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CO4">
-        <v>0.3846040778096011</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="CP4">
-        <v>0.419240197187579</v>
+        <v>0.5906232312232379</v>
       </c>
       <c r="CQ4">
-        <v>0.4523421016547494</v>
+        <v>0.6242383332380577</v>
       </c>
       <c r="CR4">
-        <v>0.489083342368708</v>
+        <v>0.6974384728999679</v>
       </c>
       <c r="CS4">
-        <v>0.4955503677852013</v>
+        <v>0.6974384728999679</v>
       </c>
       <c r="CT4">
-        <v>0.5097077144364527</v>
+        <v>0.6974384728999679</v>
       </c>
       <c r="CU4">
-        <v>0.5542071509035361</v>
+        <v>0.8550244593579692</v>
       </c>
       <c r="CV4">
-        <v>0.595704630220537</v>
+        <v>0.9799581766265432</v>
       </c>
       <c r="CW4">
-        <v>0.6275586458922573</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CX4">
-        <v>0.6351504606041618</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CY4">
-        <v>0.6358058777535077</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CZ4">
-        <v>0.6362553923561912</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DA4">
-        <v>0.6368428417441466</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DB4">
-        <v>0.6371481129906847</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DC4">
-        <v>0.6443882409287993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DD4">
-        <v>0.6583317774246937</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE4">
-        <v>0.6754697798972608</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF4">
-        <v>0.6863199320571358</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG4">
-        <v>0.6928762132576468</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH4">
-        <v>0.6962575703984319</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI4">
-        <v>0.6962862899016609</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ4">
-        <v>0.6997372906771107</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK4">
-        <v>0.7085679510118035</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL4">
-        <v>0.7127675189878929</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM4">
-        <v>0.7127741646839212</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN4">
-        <v>0.7165598488875506</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO4">
-        <v>0.7181101081310648</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP4">
-        <v>0.7329828403724407</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ4">
-        <v>0.7443168417879463</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR4">
-        <v>0.7452523060254083</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS4">
-        <v>0.745474304848745</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT4">
-        <v>0.7555910906218742</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU4">
-        <v>0.7723745505029324</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV4">
-        <v>0.7806435636848255</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW4">
-        <v>0.7930961992556642</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX4">
-        <v>0.8026777130459105</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY4">
-        <v>0.8041557502650506</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ4">
-        <v>0.8041557502650506</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA4">
-        <v>0.8077013747013407</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB4">
-        <v>0.8122566803203546</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC4">
-        <v>0.8172661358912747</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED4">
-        <v>0.8220035589421262</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE4">
-        <v>0.8257204457015366</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF4">
-        <v>0.8278337422392835</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG4">
-        <v>0.8288884457256038</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH4">
-        <v>0.8289161295689631</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI4">
-        <v>0.8290173961145345</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ4">
-        <v>0.8291886106852211</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK4">
-        <v>0.8297910256785415</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL4">
-        <v>0.8308352395247774</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM4">
-        <v>0.8322800785257394</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN4">
-        <v>0.8352067356608148</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO4">
-        <v>0.8392945515727502</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP4">
-        <v>0.8406880733951616</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ4">
-        <v>0.8428867254172669</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER4">
-        <v>0.8442386076265082</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES4">
-        <v>0.844244305458177</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET4">
-        <v>0.844244305458177</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU4">
-        <v>0.8456820396808828</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV4">
-        <v>0.8511194213035908</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW4">
-        <v>0.8600189744264959</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX4">
-        <v>0.8669525724268926</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY4">
-        <v>0.8724314431933418</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ4">
-        <v>0.8733441214770075</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA4">
-        <v>0.8740475072598327</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB4">
-        <v>0.875704105569859</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC4">
-        <v>0.881195567145905</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD4">
-        <v>0.8907904110868918</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE4">
-        <v>0.8959393281075109</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF4">
-        <v>0.8970815073565193</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG4">
-        <v>0.8977916894452667</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH4">
-        <v>0.8981774342335582</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI4">
-        <v>0.89820141129455</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ4">
-        <v>0.8982125557363702</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK4">
-        <v>0.8988476230960041</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL4">
-        <v>0.9047513612029036</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM4">
-        <v>0.9178911038157014</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN4">
-        <v>0.9270314480433965</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO4">
-        <v>0.9304385963846459</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP4">
-        <v>0.9314751237842349</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ4">
-        <v>0.931565925431138</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR4">
-        <v>0.9329291014515206</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS4">
-        <v>0.9339416338794536</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT4">
-        <v>0.9368050998571386</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU4">
-        <v>0.9450741130390317</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV4">
-        <v>0.9512649813322998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW4">
-        <v>0.9560481851070948</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX4">
-        <v>0.9605942950830948</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY4">
-        <v>0.9611147550110634</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ4">
-        <v>0.9642256286465195</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA4">
-        <v>0.9674369787433899</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB4">
-        <v>0.9723935769250821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC4">
-        <v>0.9777086771252249</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD4">
-        <v>0.9799458181067394</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE4">
-        <v>0.9809626967400797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF4">
-        <v>0.9809626967400797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG4">
-        <v>0.9826366649648569</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH4">
-        <v>0.9858964123930145</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI4">
-        <v>0.9908829970109184</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ4">
-        <v>0.9943000774349864</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK4">
-        <v>0.9951922793405302</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL4">
-        <v>0.995215303544859</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM4">
-        <v>0.9952864110785896</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN4">
-        <v>0.9955958746995549</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO4">
-        <v>0.9957697922974607</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP4">
-        <v>0.996735720821622</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ4">
-        <v>0.9982308340198865</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR4">
-        <v>0.9998005959622517</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.318217983202615E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.478343956425893E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.478343956425893E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.603474646733989E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.624555504528899E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6.50443341825747E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.50443341825747E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.228621860006515E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001115787905161144</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001186303458814375</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001219306715189109</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001219306715189109</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001298918317207332</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001298918317207332</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001298918317207332</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001298918317207332</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001330707220296955</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001340600448158854</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001620936651328043</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001620936651328043</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001950155829799754</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002171790439993596</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002174888487029354</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002206551001246775</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002235100323766188</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002288863715733972</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0002545573825748052</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003082077885414605</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003561716903682225</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003718068148497882</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000427238566333544</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0004329386256612291</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0004377026159477542</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0004380332265949509</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0004614434674585227</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0004732858446553504</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0005017723286777295</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0005429874857750884</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0005702293701925789</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0005749424634927474</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0005756719161560861</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0005756719161560861</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0005906253358150254</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0005939256614524987</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0006051723512678109</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0006103016868539422</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0006298028546650806</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0006298028546650806</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004111004032094124</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.03812787844701827</v>
+        <v>0.03500131853337169</v>
       </c>
       <c r="AZ5">
-        <v>0.1031288466172218</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BA5">
-        <v>0.1076309775499617</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BB5">
-        <v>0.1093509106139479</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BC5">
-        <v>0.116145205130209</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BD5">
-        <v>0.1162197368980742</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BE5">
-        <v>0.1239069418184852</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BF5">
-        <v>0.1413224751017393</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BG5">
-        <v>0.143780438870574</v>
+        <v>0.3401681677062586</v>
       </c>
       <c r="BH5">
-        <v>0.175681448052149</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BI5">
-        <v>0.1774030469989794</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BJ5">
-        <v>0.1801592296997575</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BK5">
-        <v>0.1801982611351738</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BL5">
-        <v>0.1801982611351738</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BM5">
-        <v>0.1836331709317488</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BN5">
-        <v>0.20549129482531</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BO5">
-        <v>0.2138693591731396</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BP5">
-        <v>0.223381695016454</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BQ5">
-        <v>0.2247542727553795</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BR5">
-        <v>0.2300788553588526</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BS5">
-        <v>0.230509361737815</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BT5">
-        <v>0.2336585837778445</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BU5">
-        <v>0.2413177328188955</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BV5">
-        <v>0.2416799139786117</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BW5">
-        <v>0.2442282016612275</v>
+        <v>0.3567202181072657</v>
       </c>
       <c r="BX5">
-        <v>0.2759987025184567</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="BY5">
-        <v>0.2917689202149971</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="BZ5">
-        <v>0.2924577189636395</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CA5">
-        <v>0.2975988015264966</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CB5">
-        <v>0.2976370126978822</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CC5">
-        <v>0.3080977646375459</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CD5">
-        <v>0.3092831045256006</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CE5">
-        <v>0.3096218409920717</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CF5">
-        <v>0.3200428385683721</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CG5">
-        <v>0.3318342945635854</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CH5">
-        <v>0.337710078565877</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CI5">
-        <v>0.3486570518722745</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CJ5">
-        <v>0.34903784240452</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CK5">
-        <v>0.3494745097196951</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CL5">
-        <v>0.3495813185802328</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CM5">
-        <v>0.3495840474667502</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CN5">
-        <v>0.3703418065863639</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CO5">
-        <v>0.3913514493522482</v>
+        <v>0.372134302331878</v>
       </c>
       <c r="CP5">
-        <v>0.4268332535550834</v>
+        <v>0.4199090631555598</v>
       </c>
       <c r="CQ5">
-        <v>0.4860779629292549</v>
+        <v>0.6748842648201705</v>
       </c>
       <c r="CR5">
-        <v>0.4974948788156573</v>
+        <v>0.6748842648201705</v>
       </c>
       <c r="CS5">
-        <v>0.5008770874278504</v>
+        <v>0.6748842648201705</v>
       </c>
       <c r="CT5">
-        <v>0.5353039798455718</v>
+        <v>0.713460731691666</v>
       </c>
       <c r="CU5">
-        <v>0.5874011017141149</v>
+        <v>0.9061126075071397</v>
       </c>
       <c r="CV5">
-        <v>0.6281713603676656</v>
+        <v>1</v>
       </c>
       <c r="CW5">
-        <v>0.6376548780479532</v>
+        <v>1</v>
       </c>
       <c r="CX5">
-        <v>0.6387206680144355</v>
+        <v>1</v>
       </c>
       <c r="CY5">
-        <v>0.6388838825559535</v>
+        <v>1</v>
       </c>
       <c r="CZ5">
-        <v>0.6393521515796722</v>
+        <v>1</v>
       </c>
       <c r="DA5">
-        <v>0.6394863118522489</v>
+        <v>1</v>
       </c>
       <c r="DB5">
-        <v>0.6459882362785242</v>
+        <v>1</v>
       </c>
       <c r="DC5">
-        <v>0.6593165479560982</v>
+        <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.6817177284545209</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.6973106026861795</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.7021786674831252</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.7054616706067123</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.7055737975649542</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.707319647773557</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.7130661182826453</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.7242455291009425</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.7245008262092683</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7276413202913337</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7280771484144006</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7365695593126903</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7547961516162419</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7578672580824544</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7586108004796556</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7631648545113762</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.780475805315856</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7928688873444001</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7998304258170401</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.8119033597067326</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.8157886729387331</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.8158025424384231</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.81628063432028</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.8224157031811852</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.8259313508393945</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8297340864078275</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.8322101546637762</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8347540600654012</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8354255704065008</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8361737898170422</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8367640035851843</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8368065959444407</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8369080831608848</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8378427796387948</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8393115604367855</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.840432721980747</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8440483459121623</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8449830423900723</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8459244137005992</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8476856328960729</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8478049755873001</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8478306465983014</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8482962238065714</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8506718761410593</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8595383340940433</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8662024123180114</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8722306787564856</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8745348100409589</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8749121378831461</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8770293947566391</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8809331620141184</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8885903772429178</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8972435667879664</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8991725545974044</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9001403781812827</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9006118809199277</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9006332355711737</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9006488970175442</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9006855180944041</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9044014187320001</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9166139799469225</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9254745772566534</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9314546068007377</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9326378039536098</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9327909377786876</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9339889482574423</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9353511655592259</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9371531161252974</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9434966434662094</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9498711969124879</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9545830838676503</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9609043194618626</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9609091765523676</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9651347821342102</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9693159914432022</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.973582161477322</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9781872110062115</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9808606803285264</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9823059451454476</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9834715390662224</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9838734561672801</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9870952163689604</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9905224501230275</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9946771133183685</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9970191877674115</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9970667189887481</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9971447980759605</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9971501744151572</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9971623245701351</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9979931913518949</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9982869230987336</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9995473724306582</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9999841764108334</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.074924480543935E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.056739253370624E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.056739253370624E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.278813433995741E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.968588224099094E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.968588224099094E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5.131399740028349E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.609374566161909E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001263799799110643</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001263799799110643</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001341046751767852</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001573435700867583</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001573435700867583</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002073748650058403</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0002219243404329655</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0002221733959908753</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002221733959908753</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002267830857006856</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0002267830857006856</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0002267830857006856</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002267830857006856</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0002288759148531666</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0002288759148531666</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0002364283371329836</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002379245355096047</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002473772637668179</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002473772637668179</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0002473772637668179</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002473772637668179</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002657681758103691</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002693340066764521</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.000273598500847037</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002799247605350348</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000291508575363795</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0003058144530005429</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0003141812266420401</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003469658020059113</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0003559910098104826</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0003559910098104826</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0003583839931571489</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00037215101808901</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0003801073051574981</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0004107140481158573</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0004164517611897664</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0005239689678716044</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0005450328728590644</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0005450328728590644</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0005450328728590644</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002017885092873702</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.04991535348397005</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="AZ6">
-        <v>0.07522402384528686</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BA6">
-        <v>0.07775291064491931</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BB6">
-        <v>0.07877919187104145</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BC6">
-        <v>0.09146856187422582</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BD6">
-        <v>0.09204477158864241</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BE6">
-        <v>0.09396852038107925</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BF6">
-        <v>0.1095526350353049</v>
+        <v>0.2032390954608692</v>
       </c>
       <c r="BG6">
-        <v>0.1656632578766744</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BH6">
-        <v>0.1680698467451946</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BI6">
-        <v>0.1703489835803311</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BJ6">
-        <v>0.1712182997925473</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BK6">
-        <v>0.1728928956420053</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BL6">
-        <v>0.1733751367618814</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BM6">
-        <v>0.1735038696311158</v>
+        <v>0.4998577401243052</v>
       </c>
       <c r="BN6">
-        <v>0.2093268976164873</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BO6">
-        <v>0.2186576337467178</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BP6">
-        <v>0.2225584080334762</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BQ6">
-        <v>0.2237130422800227</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BR6">
-        <v>0.2344504852131532</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BS6">
-        <v>0.2345736582256768</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BT6">
-        <v>0.2375019994613977</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BU6">
-        <v>0.241769619299352</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BV6">
-        <v>0.2455369454149106</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BW6">
-        <v>0.2476126024039635</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BX6">
-        <v>0.2667703527420273</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BY6">
-        <v>0.2782830648973526</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="BZ6">
-        <v>0.2847178897574632</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CA6">
-        <v>0.2882295677563033</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CB6">
-        <v>0.2915451561646819</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CC6">
-        <v>0.2926797243829178</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CD6">
-        <v>0.295187962945662</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CE6">
-        <v>0.2954214565066752</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CF6">
-        <v>0.2991344486597985</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CG6">
-        <v>0.3157356457677276</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CH6">
-        <v>0.3229663194269445</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CI6">
-        <v>0.3398761701535751</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CJ6">
-        <v>0.3417525588754918</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CK6">
-        <v>0.344530605824398</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CL6">
-        <v>0.346775767681316</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CM6">
-        <v>0.3483945084395847</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CN6">
-        <v>0.3624437833627435</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CO6">
-        <v>0.3833086198946092</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="CP6">
-        <v>0.4291380457851492</v>
+        <v>0.7455428172200147</v>
       </c>
       <c r="CQ6">
-        <v>0.4641392058428824</v>
+        <v>0.8021571942687394</v>
       </c>
       <c r="CR6">
-        <v>0.4895615354891807</v>
+        <v>0.8021571942687394</v>
       </c>
       <c r="CS6">
-        <v>0.4919713549797515</v>
+        <v>0.8021571942687394</v>
       </c>
       <c r="CT6">
-        <v>0.5128281194604251</v>
+        <v>0.8021571942687394</v>
       </c>
       <c r="CU6">
-        <v>0.5520684455638246</v>
+        <v>0.9069688159615105</v>
       </c>
       <c r="CV6">
-        <v>0.5901320567695302</v>
+        <v>0.9984017647762928</v>
       </c>
       <c r="CW6">
-        <v>0.62029429787846</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.625769760505306</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6271371248783487</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6279941386439886</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6283102939526537</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6289167654316792</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6390064675427073</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.6562437893256666</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.6725904360758043</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.6850978020927482</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6950689106085186</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6971746729955892</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6977948773006727</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7021337228565451</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7157336402516856</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7169374905900455</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7186249126435986</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7202679903609711</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7241022599537752</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7407182920205101</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7453166418615862</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7469067583156195</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7474514690747019</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7636763954982831</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.774966094844864</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.784871622073305</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.8011573536120781</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.8033048645678443</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8040018461803351</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.8047100211806042</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8101818326180207</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8117037501981799</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8166232129415361</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8212618097396025</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8234929555530631</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8257725637999928</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8262010867153176</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8262584691977315</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8263824984782322</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8265253295426861</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8272398396268514</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8281906887606543</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8296111778398086</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8329031225947079</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8339717466085949</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8348498339826985</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8367890655998727</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8371085865485308</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8373169066997741</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8374576690271207</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8391742989947109</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8456760599255971</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8512137757325656</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8584584420147815</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.861557496373817</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8617529657995449</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8628590784609516</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8653577654801202</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8728856998059347</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8812279704803149</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8853595565885021</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8870513103259181</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8880698982316815</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8884786014138423</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8884863491727548</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8885414242155473</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8912163619953318</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.900529631868234</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9130988709332429</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9224932636695329</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9244671548629435</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9247624592877018</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9255627169450854</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9275921373450148</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9295685162114865</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9359021442729917</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9428700708142879</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9492522257655667</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9555244782135315</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9566011971986319</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9576216794591741</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9612222481068083</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9651117277273185</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9715460247263257</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9776302939650096</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9819172802201419</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9834838462020926</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9835183995795611</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9847985228447358</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9873910340222753</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9920626298460348</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9942964198692963</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9953013788697798</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9954676300724654</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9955368391057458</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9958507604029312</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9963747078245815</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9973571208304253</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9988764697667928</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999687074079303</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>0.00171556510911236</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5252090961847671</v>
+        <v>0.5440393615783534</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.03476783880839576</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="F3">
-        <v>0.5003757765473424</v>
+        <v>0.6347341283824348</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>0.0780691929723174</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5097077144364527</v>
+        <v>0.5403204831969672</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -10693,16 +10693,16 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.004111004032094124</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5008770874278504</v>
+        <v>0.6748842648201705</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>0.07775291064491931</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5128281194604251</v>
+        <v>0.5658163535503654</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.00171556510911236</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.702197713088468</v>
+        <v>0.831102027157625</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.03476783880839576</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="F3">
-        <v>0.7039494367032032</v>
+        <v>0.82428605366096</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.0780691929723174</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7085679510118035</v>
+        <v>0.8550244593579692</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -10952,16 +10952,16 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>0.004111004032094124</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7021786674831252</v>
+        <v>0.713460731691666</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.07775291064491931</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7021337228565451</v>
+        <v>0.7455428172200147</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.00171556510911236</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8015936316123924</v>
+        <v>0.831102027157625</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.03476783880839576</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="F3">
-        <v>0.8028321284580514</v>
+        <v>0.82428605366096</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.0780691929723174</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8026777130459105</v>
+        <v>0.8550244593579692</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -11211,16 +11211,16 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.004111004032094124</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8119033597067326</v>
+        <v>0.9061126075071397</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.07775291064491931</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8011573536120781</v>
+        <v>0.8021571942687394</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>0.00171556510911236</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9032145242119131</v>
+        <v>0.9267510637942727</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.03476783880839576</v>
+        <v>0.04167670169232413</v>
       </c>
       <c r="F3">
-        <v>0.9090514727848015</v>
+        <v>0.9793933918456028</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.0780691929723174</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9047513612029036</v>
+        <v>0.9799581766265432</v>
       </c>
       <c r="G4">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -11470,16 +11470,16 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.004111004032094124</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9001403781812827</v>
+        <v>0.9061126075071397</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.07775291064491931</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.900529631868234</v>
+        <v>0.9069688159615105</v>
       </c>
       <c r="G6">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>43</v>

--- a/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/43_225-80R17.xlsx
@@ -677,34 +677,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3248020896609223</v>
+        <v>0.2519239080666405</v>
       </c>
       <c r="F2">
-        <v>0.1220941402273373</v>
+        <v>0.1105417061724131</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01607558873453911</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1044503209620485</v>
+        <v>0.09823571607917492</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.001288278796568246</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2341733479375807</v>
+        <v>0.1887133083069729</v>
       </c>
       <c r="N2">
-        <v>0.05529794011598577</v>
+        <v>0.06395352906195167</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.06691683611263359</v>
+        <v>0.07205733112879813</v>
       </c>
       <c r="U2">
-        <v>0.0196780316423792</v>
+        <v>0.03910980139689856</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.01649653351302603</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0001842111647858968</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.004106352378702024</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.006687109626234912</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.05279117138378583</v>
+        <v>0.06220513940092288</v>
       </c>
       <c r="AE2">
-        <v>0.01979612195732694</v>
+        <v>0.03919216555082713</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.008882013534657221</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.02034730708688681</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1851805191030753</v>
+        <v>0.1470035467888445</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -796,28 +796,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1254364719099683</v>
+        <v>0.1077824170375209</v>
       </c>
       <c r="I3">
-        <v>0.2150746537339016</v>
+        <v>0.1666286272486505</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.001366348466393899</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003711610957952508</v>
+        <v>0.02787175162964317</v>
       </c>
       <c r="M3">
-        <v>0.2955725054939579</v>
+        <v>0.2194743388620453</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.009303284286634421</v>
       </c>
       <c r="O3">
-        <v>0.02745371284513421</v>
+        <v>0.04345810880555499</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05658532638061822</v>
+        <v>0.06258260485195705</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02244175613669052</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.02475619596431839</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.04407103498014771</v>
+        <v>0.05436714791819319</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.01931756385925222</v>
       </c>
       <c r="AF3">
-        <v>0.01235387245872521</v>
+        <v>0.03354527519544844</v>
       </c>
       <c r="AG3">
-        <v>0.03456029213651931</v>
+        <v>0.04812347852137905</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.01197755442747338</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -897,43 +897,43 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2121180598463701</v>
+        <v>0.1591732674828223</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1767212370085235</v>
+        <v>0.1369869115525063</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01905906193690854</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01924669312340637</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01216151542146813</v>
       </c>
       <c r="M4">
-        <v>0.3565520341126603</v>
+        <v>0.249702962087949</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02373271564944218</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.007730799195876559</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -942,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.08577324610483877</v>
+        <v>0.07998166826895249</v>
       </c>
       <c r="U4">
-        <v>0.03782077362628369</v>
+        <v>0.04992556331790622</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.01337134247220414</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.007570256510285782</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01862952827928177</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -963,34 +963,34 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.007570256510285782</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01445309490627631</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.02383303885223687</v>
       </c>
       <c r="AE4">
-        <v>0.1310146493013238</v>
+        <v>0.1083385035335838</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.01455139626644007</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0201548398828356</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.01382658474933202</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1004,37 +1004,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.001732651403371061</v>
       </c>
       <c r="E5">
-        <v>0.1602742920277477</v>
+        <v>0.1317565768799134</v>
       </c>
       <c r="F5">
-        <v>0.3605720260560824</v>
+        <v>0.2636899213999809</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.006079871567435272</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0158401314656137</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01964223253420466</v>
       </c>
       <c r="L5">
-        <v>0.05295435436010782</v>
+        <v>0.06106641965539912</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1465962088442771</v>
+        <v>0.1227470128437885</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1049,31 +1049,31 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00153553811205575</v>
       </c>
       <c r="T5">
-        <v>0.08167363333880812</v>
+        <v>0.07998341113433814</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.02258398050245096</v>
       </c>
       <c r="V5">
-        <v>0.001863864145956357</v>
+        <v>0.02741382103853584</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.009581952360340876</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0003190513073363643</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.01952276781702894</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.1457525333169319</v>
+        <v>0.1221912954536126</v>
       </c>
       <c r="AE5">
-        <v>0.04231815546453423</v>
+        <v>0.05406050268843452</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.008800590986042134</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00799493244555438</v>
+        <v>0.03145227085011734</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2503320648630029</v>
+        <v>0.2021144347836351</v>
       </c>
       <c r="F6">
-        <v>0.1057199951812103</v>
+        <v>0.1005881476466797</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02493202495278605</v>
+        <v>0.04387018018607364</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04346399883804985</v>
+        <v>0.05688072976212152</v>
       </c>
       <c r="M6">
-        <v>0.3029121650571091</v>
+        <v>0.2390287971998784</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.173032253911602</v>
+        <v>0.1478453629174132</v>
       </c>
       <c r="U6">
-        <v>0.003430261333893199</v>
+        <v>0.02877466131322878</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.004369473195813933</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01243591014861271</v>
+        <v>0.03509716322769319</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1183,28 +1183,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.006018275700335</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.003769684870234588</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.06634219057925066</v>
+        <v>0.07294258316759783</v>
       </c>
       <c r="AE6">
-        <v>0.01739913513448315</v>
+        <v>0.0385816428160815</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01575886831947424</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.002620663834685335</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.001739331059054118</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1350,88 +1350,88 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3248020896609223</v>
+        <v>0.2519239080666405</v>
       </c>
       <c r="F2">
-        <v>0.4468962298882596</v>
+        <v>0.3624656142390536</v>
       </c>
       <c r="G2">
-        <v>0.4468962298882596</v>
+        <v>0.3785412029735927</v>
       </c>
       <c r="H2">
-        <v>0.4468962298882596</v>
+        <v>0.3785412029735927</v>
       </c>
       <c r="I2">
-        <v>0.551346550850308</v>
+        <v>0.4767769190527676</v>
       </c>
       <c r="J2">
-        <v>0.551346550850308</v>
+        <v>0.4767769190527676</v>
       </c>
       <c r="K2">
-        <v>0.551346550850308</v>
+        <v>0.4780651978493359</v>
       </c>
       <c r="L2">
-        <v>0.551346550850308</v>
+        <v>0.4780651978493359</v>
       </c>
       <c r="M2">
-        <v>0.7855198987878887</v>
+        <v>0.6667785061563087</v>
       </c>
       <c r="N2">
-        <v>0.8408178389038745</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="O2">
-        <v>0.8408178389038745</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="P2">
-        <v>0.8408178389038745</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="Q2">
-        <v>0.8408178389038745</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="R2">
-        <v>0.8408178389038745</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="S2">
-        <v>0.8408178389038745</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="T2">
-        <v>0.9077346750165081</v>
+        <v>0.8027893663470586</v>
       </c>
       <c r="U2">
-        <v>0.9274127066588873</v>
+        <v>0.8418991677439571</v>
       </c>
       <c r="V2">
-        <v>0.9274127066588873</v>
+        <v>0.8583957012569832</v>
       </c>
       <c r="W2">
-        <v>0.9274127066588873</v>
+        <v>0.8583957012569832</v>
       </c>
       <c r="X2">
-        <v>0.9274127066588873</v>
+        <v>0.858579912421769</v>
       </c>
       <c r="Y2">
-        <v>0.9274127066588873</v>
+        <v>0.858579912421769</v>
       </c>
       <c r="Z2">
-        <v>0.9274127066588873</v>
+        <v>0.858579912421769</v>
       </c>
       <c r="AA2">
-        <v>0.9274127066588873</v>
+        <v>0.8626862648004711</v>
       </c>
       <c r="AB2">
-        <v>0.9274127066588873</v>
+        <v>0.8693733744267059</v>
       </c>
       <c r="AC2">
-        <v>0.9274127066588873</v>
+        <v>0.8693733744267059</v>
       </c>
       <c r="AD2">
-        <v>0.9802038780426732</v>
+        <v>0.9315785138276288</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.970770679378456</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9796526929131132</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -1460,91 +1460,91 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1851805191030753</v>
+        <v>0.1470035467888445</v>
       </c>
       <c r="F3">
-        <v>0.1851805191030753</v>
+        <v>0.1470035467888445</v>
       </c>
       <c r="G3">
-        <v>0.1851805191030753</v>
+        <v>0.1470035467888445</v>
       </c>
       <c r="H3">
-        <v>0.3106169910130435</v>
+        <v>0.2547859638263654</v>
       </c>
       <c r="I3">
-        <v>0.5256916447469451</v>
+        <v>0.4214145910750159</v>
       </c>
       <c r="J3">
-        <v>0.5256916447469451</v>
+        <v>0.4227809395414098</v>
       </c>
       <c r="K3">
-        <v>0.5256916447469451</v>
+        <v>0.4227809395414098</v>
       </c>
       <c r="L3">
-        <v>0.5294032557048975</v>
+        <v>0.450652691171053</v>
       </c>
       <c r="M3">
-        <v>0.8249757611988554</v>
+        <v>0.6701270300330983</v>
       </c>
       <c r="N3">
-        <v>0.8249757611988554</v>
+        <v>0.6794303143197327</v>
       </c>
       <c r="O3">
-        <v>0.8524294740439896</v>
+        <v>0.7228884231252877</v>
       </c>
       <c r="P3">
-        <v>0.8524294740439896</v>
+        <v>0.7228884231252877</v>
       </c>
       <c r="Q3">
-        <v>0.8524294740439896</v>
+        <v>0.7228884231252877</v>
       </c>
       <c r="R3">
-        <v>0.8524294740439896</v>
+        <v>0.7228884231252877</v>
       </c>
       <c r="S3">
-        <v>0.8524294740439896</v>
+        <v>0.7228884231252877</v>
       </c>
       <c r="T3">
-        <v>0.9090148004246078</v>
+        <v>0.7854710279772448</v>
       </c>
       <c r="U3">
-        <v>0.9090148004246078</v>
+        <v>0.8079127841139353</v>
       </c>
       <c r="V3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="W3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="X3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="Y3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="Z3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="AA3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="AB3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="AC3">
-        <v>0.9090148004246078</v>
+        <v>0.8326689800782537</v>
       </c>
       <c r="AD3">
-        <v>0.9530858354047556</v>
+        <v>0.8870361279964469</v>
       </c>
       <c r="AE3">
-        <v>0.9530858354047556</v>
+        <v>0.9063536918556991</v>
       </c>
       <c r="AF3">
-        <v>0.9654397078634808</v>
+        <v>0.9398989670511476</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9880224455725266</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1570,97 +1570,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2121180598463701</v>
+        <v>0.1591732674828223</v>
       </c>
       <c r="F4">
-        <v>0.2121180598463701</v>
+        <v>0.1591732674828223</v>
       </c>
       <c r="G4">
-        <v>0.3888392968548936</v>
+        <v>0.2961601790353286</v>
       </c>
       <c r="H4">
-        <v>0.3888392968548936</v>
+        <v>0.2961601790353286</v>
       </c>
       <c r="I4">
-        <v>0.3888392968548936</v>
+        <v>0.3152192409722371</v>
       </c>
       <c r="J4">
-        <v>0.3888392968548936</v>
+        <v>0.3344659340956435</v>
       </c>
       <c r="K4">
-        <v>0.3888392968548936</v>
+        <v>0.3344659340956435</v>
       </c>
       <c r="L4">
-        <v>0.3888392968548936</v>
+        <v>0.3466274495171117</v>
       </c>
       <c r="M4">
-        <v>0.7453913309675539</v>
+        <v>0.5963304116050607</v>
       </c>
       <c r="N4">
-        <v>0.7453913309675539</v>
+        <v>0.5963304116050607</v>
       </c>
       <c r="O4">
-        <v>0.7453913309675539</v>
+        <v>0.6200631272545029</v>
       </c>
       <c r="P4">
-        <v>0.7453913309675539</v>
+        <v>0.6200631272545029</v>
       </c>
       <c r="Q4">
-        <v>0.7453913309675539</v>
+        <v>0.6277939264503795</v>
       </c>
       <c r="R4">
-        <v>0.7453913309675539</v>
+        <v>0.6277939264503795</v>
       </c>
       <c r="S4">
-        <v>0.7453913309675539</v>
+        <v>0.6277939264503795</v>
       </c>
       <c r="T4">
-        <v>0.8311645770723928</v>
+        <v>0.7077755947193319</v>
       </c>
       <c r="U4">
-        <v>0.8689853506986764</v>
+        <v>0.7577011580372381</v>
       </c>
       <c r="V4">
-        <v>0.8689853506986764</v>
+        <v>0.7710725005094423</v>
       </c>
       <c r="W4">
-        <v>0.8689853506986764</v>
+        <v>0.7786427570197281</v>
       </c>
       <c r="X4">
-        <v>0.8689853506986764</v>
+        <v>0.7972722852990098</v>
       </c>
       <c r="Y4">
-        <v>0.8689853506986764</v>
+        <v>0.7972722852990098</v>
       </c>
       <c r="Z4">
-        <v>0.8689853506986764</v>
+        <v>0.7972722852990098</v>
       </c>
       <c r="AA4">
-        <v>0.8689853506986764</v>
+        <v>0.8048425418092956</v>
       </c>
       <c r="AB4">
-        <v>0.8689853506986764</v>
+        <v>0.8192956367155719</v>
       </c>
       <c r="AC4">
-        <v>0.8689853506986764</v>
+        <v>0.8192956367155719</v>
       </c>
       <c r="AD4">
-        <v>0.8689853506986764</v>
+        <v>0.8431286755678088</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9514671791013927</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9660185753678328</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9660185753678328</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9861734152506684</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9861734152506684</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1677,97 +1677,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.001732651403371061</v>
       </c>
       <c r="E5">
-        <v>0.1602742920277477</v>
+        <v>0.1334892282832844</v>
       </c>
       <c r="F5">
-        <v>0.5208463180838301</v>
+        <v>0.3971791496832653</v>
       </c>
       <c r="G5">
-        <v>0.5208463180838301</v>
+        <v>0.4032590212507006</v>
       </c>
       <c r="H5">
-        <v>0.5208463180838301</v>
+        <v>0.4032590212507006</v>
       </c>
       <c r="I5">
-        <v>0.5208463180838301</v>
+        <v>0.4190991527163143</v>
       </c>
       <c r="J5">
-        <v>0.5208463180838301</v>
+        <v>0.4190991527163143</v>
       </c>
       <c r="K5">
-        <v>0.5208463180838301</v>
+        <v>0.4387413852505189</v>
       </c>
       <c r="L5">
-        <v>0.573800672443938</v>
+        <v>0.499807804905918</v>
       </c>
       <c r="M5">
-        <v>0.573800672443938</v>
+        <v>0.499807804905918</v>
       </c>
       <c r="N5">
-        <v>0.720396881288215</v>
+        <v>0.6225548177497066</v>
       </c>
       <c r="O5">
-        <v>0.720396881288215</v>
+        <v>0.6225548177497066</v>
       </c>
       <c r="P5">
-        <v>0.720396881288215</v>
+        <v>0.6225548177497066</v>
       </c>
       <c r="Q5">
-        <v>0.720396881288215</v>
+        <v>0.6225548177497066</v>
       </c>
       <c r="R5">
-        <v>0.720396881288215</v>
+        <v>0.6225548177497066</v>
       </c>
       <c r="S5">
-        <v>0.720396881288215</v>
+        <v>0.6240903558617623</v>
       </c>
       <c r="T5">
-        <v>0.8020705146270231</v>
+        <v>0.7040737669961005</v>
       </c>
       <c r="U5">
-        <v>0.8020705146270231</v>
+        <v>0.7266577474985514</v>
       </c>
       <c r="V5">
-        <v>0.8039343787729795</v>
+        <v>0.7540715685370872</v>
       </c>
       <c r="W5">
-        <v>0.8039343787729795</v>
+        <v>0.7540715685370872</v>
       </c>
       <c r="X5">
-        <v>0.8039343787729795</v>
+        <v>0.7636535208974281</v>
       </c>
       <c r="Y5">
-        <v>0.8039343787729795</v>
+        <v>0.7636535208974281</v>
       </c>
       <c r="Z5">
-        <v>0.8039343787729795</v>
+        <v>0.7639725722047644</v>
       </c>
       <c r="AA5">
-        <v>0.8039343787729795</v>
+        <v>0.7834953400217934</v>
       </c>
       <c r="AB5">
-        <v>0.8039343787729795</v>
+        <v>0.7834953400217934</v>
       </c>
       <c r="AC5">
-        <v>0.8039343787729795</v>
+        <v>0.7834953400217934</v>
       </c>
       <c r="AD5">
-        <v>0.9496869120899114</v>
+        <v>0.9056866354754061</v>
       </c>
       <c r="AE5">
-        <v>0.9920050675544456</v>
+        <v>0.9597471381638406</v>
       </c>
       <c r="AF5">
-        <v>0.9920050675544456</v>
+        <v>0.9597471381638406</v>
       </c>
       <c r="AG5">
-        <v>0.9920050675544456</v>
+        <v>0.9685477291498827</v>
       </c>
       <c r="AH5">
-        <v>0.9920050675544456</v>
+        <v>0.9685477291498827</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2503320648630029</v>
+        <v>0.2021144347836351</v>
       </c>
       <c r="F6">
-        <v>0.3560520600442131</v>
+        <v>0.3027025824303148</v>
       </c>
       <c r="G6">
-        <v>0.3560520600442131</v>
+        <v>0.3027025824303148</v>
       </c>
       <c r="H6">
-        <v>0.3560520600442131</v>
+        <v>0.3027025824303148</v>
       </c>
       <c r="I6">
-        <v>0.3809840849969992</v>
+        <v>0.3465727626163885</v>
       </c>
       <c r="J6">
-        <v>0.3809840849969992</v>
+        <v>0.3465727626163885</v>
       </c>
       <c r="K6">
-        <v>0.3809840849969992</v>
+        <v>0.3465727626163885</v>
       </c>
       <c r="L6">
-        <v>0.4244480838350491</v>
+        <v>0.40345349237851</v>
       </c>
       <c r="M6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="N6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="O6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="P6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="Q6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="R6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="S6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="T6">
-        <v>0.9003925028037603</v>
+        <v>0.7903276524958017</v>
       </c>
       <c r="U6">
-        <v>0.9038227641376535</v>
+        <v>0.8191023138090305</v>
       </c>
       <c r="V6">
-        <v>0.9038227641376535</v>
+        <v>0.8234717870048445</v>
       </c>
       <c r="W6">
-        <v>0.9038227641376535</v>
+        <v>0.8234717870048445</v>
       </c>
       <c r="X6">
-        <v>0.9162586742862662</v>
+        <v>0.8585689502325377</v>
       </c>
       <c r="Y6">
-        <v>0.9162586742862662</v>
+        <v>0.8585689502325377</v>
       </c>
       <c r="Z6">
-        <v>0.9162586742862662</v>
+        <v>0.8585689502325377</v>
       </c>
       <c r="AA6">
-        <v>0.9162586742862662</v>
+        <v>0.8645872259328726</v>
       </c>
       <c r="AB6">
-        <v>0.9162586742862662</v>
+        <v>0.8683569108031072</v>
       </c>
       <c r="AC6">
-        <v>0.9162586742862662</v>
+        <v>0.8683569108031072</v>
       </c>
       <c r="AD6">
-        <v>0.9826008648655168</v>
+        <v>0.941299493970705</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>0.9798811367867865</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>0.9956400051062607</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>0.998260668940946</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.551346550850308</v>
+        <v>0.6667785061563087</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5256916447469451</v>
+        <v>0.6701270300330983</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7453913309675539</v>
+        <v>0.5963304116050607</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5208463180838301</v>
+        <v>0.6225548177497066</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7273602488921582</v>
+        <v>0.6424822895783885</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7855198987878887</v>
+        <v>0.7307320352182605</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7228884231252877</v>
+      </c>
+      <c r="G3">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8249757611988554</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -2292,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7453913309675539</v>
+        <v>0.7077755947193319</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.720396881288215</v>
+        <v>0.7040737669961005</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7273602488921582</v>
+        <v>0.7903276524958017</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8408178389038745</v>
+        <v>0.8027893663470586</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8249757611988554</v>
+        <v>0.8079127841139353</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8311645770723928</v>
+        <v>0.8048425418092956</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8020705146270231</v>
+        <v>0.9056866354754061</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9003925028037603</v>
+        <v>0.8191023138090305</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9077346750165081</v>
+        <v>0.9315785138276288</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9090148004246078</v>
+        <v>0.9063536918556991</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9514671791013927</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9496869120899114</v>
+        <v>0.9056866354754061</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9003925028037603</v>
+        <v>0.941299493970705</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>43</v>
